--- a/文档/项目内文档/个人日报 _梁明明.xlsx
+++ b/文档/项目内文档/个人日报 _梁明明.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="120" yWindow="105" windowWidth="14955" windowHeight="7965" activeTab="8"/>
+    <workbookView xWindow="120" yWindow="135" windowWidth="14955" windowHeight="7935" activeTab="11"/>
   </bookViews>
   <sheets>
     <sheet name="文件封面" sheetId="4" r:id="rId1"/>
@@ -16,6 +16,9 @@
     <sheet name="8-4" sheetId="9" r:id="rId7"/>
     <sheet name="8-5" sheetId="11" r:id="rId8"/>
     <sheet name="8-6" sheetId="12" r:id="rId9"/>
+    <sheet name="8-7" sheetId="13" r:id="rId10"/>
+    <sheet name="8-8" sheetId="14" r:id="rId11"/>
+    <sheet name="8-9" sheetId="15" r:id="rId12"/>
   </sheets>
   <definedNames>
     <definedName name="父活动类型名" localSheetId="4">#REF!</definedName>
@@ -23,24 +26,36 @@
     <definedName name="父活动类型名" localSheetId="6">#REF!</definedName>
     <definedName name="父活动类型名" localSheetId="7">#REF!</definedName>
     <definedName name="父活动类型名" localSheetId="8">#REF!</definedName>
+    <definedName name="父活动类型名" localSheetId="9">#REF!</definedName>
+    <definedName name="父活动类型名" localSheetId="10">#REF!</definedName>
+    <definedName name="父活动类型名" localSheetId="11">#REF!</definedName>
     <definedName name="父活动类型名">#REF!</definedName>
     <definedName name="里程碑" localSheetId="4">#REF!</definedName>
     <definedName name="里程碑" localSheetId="5">#REF!</definedName>
     <definedName name="里程碑" localSheetId="6">#REF!</definedName>
     <definedName name="里程碑" localSheetId="7">#REF!</definedName>
     <definedName name="里程碑" localSheetId="8">#REF!</definedName>
+    <definedName name="里程碑" localSheetId="9">#REF!</definedName>
+    <definedName name="里程碑" localSheetId="10">#REF!</definedName>
+    <definedName name="里程碑" localSheetId="11">#REF!</definedName>
     <definedName name="里程碑">#REF!</definedName>
     <definedName name="模块" localSheetId="4">#REF!</definedName>
     <definedName name="模块" localSheetId="5">#REF!</definedName>
     <definedName name="模块" localSheetId="6">#REF!</definedName>
     <definedName name="模块" localSheetId="7">#REF!</definedName>
     <definedName name="模块" localSheetId="8">#REF!</definedName>
+    <definedName name="模块" localSheetId="9">#REF!</definedName>
+    <definedName name="模块" localSheetId="10">#REF!</definedName>
+    <definedName name="模块" localSheetId="11">#REF!</definedName>
     <definedName name="模块">#REF!</definedName>
     <definedName name="子活动类型名" localSheetId="4">#REF!</definedName>
     <definedName name="子活动类型名" localSheetId="5">#REF!</definedName>
     <definedName name="子活动类型名" localSheetId="6">#REF!</definedName>
     <definedName name="子活动类型名" localSheetId="7">#REF!</definedName>
     <definedName name="子活动类型名" localSheetId="8">#REF!</definedName>
+    <definedName name="子活动类型名" localSheetId="9">#REF!</definedName>
+    <definedName name="子活动类型名" localSheetId="10">#REF!</definedName>
+    <definedName name="子活动类型名" localSheetId="11">#REF!</definedName>
     <definedName name="子活动类型名">#REF!</definedName>
   </definedNames>
   <calcPr calcId="144525"/>
@@ -48,7 +63,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="194" uniqueCount="72">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="292" uniqueCount="95">
   <si>
     <t>姓名：</t>
     <phoneticPr fontId="3" type="noConversion"/>
@@ -428,15 +443,15 @@
   </si>
   <si>
     <t>引导组员上传已完成的组件到github</t>
-    <phoneticPr fontId="63" type="noConversion"/>
+    <phoneticPr fontId="62" type="noConversion"/>
   </si>
   <si>
     <t>是</t>
-    <phoneticPr fontId="63" type="noConversion"/>
+    <phoneticPr fontId="62" type="noConversion"/>
   </si>
   <si>
     <t>登录模块-vue-router 2.0 登录跳转与路由钩子</t>
-    <phoneticPr fontId="63" type="noConversion"/>
+    <phoneticPr fontId="62" type="noConversion"/>
   </si>
   <si>
     <t>登录模块-基本页面搭建</t>
@@ -460,11 +475,11 @@
   </si>
   <si>
     <t>引导组员上传已完成组件</t>
-    <phoneticPr fontId="63" type="noConversion"/>
+    <phoneticPr fontId="62" type="noConversion"/>
   </si>
   <si>
     <t>是</t>
-    <phoneticPr fontId="63" type="noConversion"/>
+    <phoneticPr fontId="62" type="noConversion"/>
   </si>
   <si>
     <t>解决代码冲突</t>
@@ -472,7 +487,7 @@
   </si>
   <si>
     <t>解决代码冲突</t>
-    <phoneticPr fontId="63" type="noConversion"/>
+    <phoneticPr fontId="62" type="noConversion"/>
   </si>
   <si>
     <t>header样式编写</t>
@@ -480,7 +495,124 @@
   </si>
   <si>
     <t>解决代码冲突</t>
-    <phoneticPr fontId="63" type="noConversion"/>
+    <phoneticPr fontId="62" type="noConversion"/>
+  </si>
+  <si>
+    <t>指导组员完成任务、并上传分支</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>指导组员完成任务、并上传分支</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>是</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>实现登录</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>使用</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">vuex + </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>会话</t>
+    </r>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>发布项目</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>解决代码冲突</t>
+    <phoneticPr fontId="62" type="noConversion"/>
+  </si>
+  <si>
+    <t>发布项目</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>测试页面</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>填写测试表格</t>
+    <phoneticPr fontId="62" type="noConversion"/>
+  </si>
+  <si>
+    <t>梁明明</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>梁明明</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>安逸医院内部管理系统</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>安逸医院内部管理系统</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>梁明明</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>安逸医院内部管理系统</t>
+    <phoneticPr fontId="62" type="noConversion"/>
+  </si>
+  <si>
+    <t>梁明明</t>
+    <phoneticPr fontId="62" type="noConversion"/>
+  </si>
+  <si>
+    <t>梁明明</t>
+    <phoneticPr fontId="62" type="noConversion"/>
+  </si>
+  <si>
+    <t>安逸医院内部管理系统</t>
+    <phoneticPr fontId="62" type="noConversion"/>
+  </si>
+  <si>
+    <t>梁明明</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>梁明明</t>
+    <phoneticPr fontId="62" type="noConversion"/>
+  </si>
+  <si>
+    <t>安逸医院内部管理系统</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>发布项目</t>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -496,6 +628,7 @@
     <font>
       <sz val="12"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
@@ -506,12 +639,14 @@
     <font>
       <sz val="9"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
       <b/>
       <sz val="18"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
@@ -524,6 +659,7 @@
       <b/>
       <sz val="16"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
@@ -541,6 +677,7 @@
       <b/>
       <sz val="11"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
@@ -564,6 +701,7 @@
       <b/>
       <sz val="12"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
@@ -574,17 +712,20 @@
     <font>
       <sz val="10"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
       <b/>
       <sz val="18"/>
       <name val="黑体"/>
+      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="14"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
@@ -874,13 +1015,6 @@
       <family val="1"/>
     </font>
     <font>
-      <b/>
-      <sz val="12"/>
-      <name val="宋体"/>
-      <family val="3"/>
-      <charset val="134"/>
-    </font>
-    <font>
       <sz val="9"/>
       <name val="宋体"/>
       <family val="3"/>
@@ -888,6 +1022,12 @@
     </font>
     <font>
       <sz val="10"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <name val="宋体"/>
       <family val="3"/>
       <charset val="134"/>
@@ -1568,7 +1708,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="148">
+  <cellXfs count="154">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1590,10 +1730,6 @@
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyProtection="1">
       <alignment vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
       <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
@@ -1890,6 +2026,26 @@
     <xf numFmtId="0" fontId="61" fillId="0" borderId="0" xfId="10" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="62" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="64" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="14" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="64" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+      <protection locked="0"/>
+    </xf>
     <xf numFmtId="0" fontId="44" fillId="0" borderId="0" xfId="10" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1899,6 +2055,100 @@
     </xf>
     <xf numFmtId="0" fontId="51" fillId="0" borderId="26" xfId="12" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="63" fillId="0" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="36" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="37" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="10" fillId="0" borderId="38" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="39" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="40" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="10" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="10" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="10" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="14" fontId="10" fillId="0" borderId="41" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="42" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="43" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="10" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="10" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="10" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="10" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="10" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="10" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="62" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
@@ -1942,113 +2192,27 @@
     <xf numFmtId="0" fontId="14" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="62" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="10" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="10" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="10" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="10" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="62" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="10" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="62" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="10" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="36" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="37" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="39" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="40" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="10" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="10" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="10" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="42" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="43" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="63" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="63" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="14" fontId="10" fillId="0" borderId="38" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="14" fontId="10" fillId="0" borderId="41" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="64" fillId="0" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="63" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="63" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="63" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
       <protection locked="0"/>
     </xf>
@@ -8535,6 +8699,152 @@
         </xdr:spPr>
       </xdr:sp>
     </xdr:grpSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing10.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>542925</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>523875</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Picture 1" descr="b"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="8086725" y="76200"/>
+          <a:ext cx="1828800" cy="447675"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+          <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+            <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="9525">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:miter lim="800000"/>
+              <a:headEnd/>
+              <a:tailEnd/>
+            </a14:hiddenLine>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing11.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>542925</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>523875</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Picture 1" descr="b"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="8086725" y="76200"/>
+          <a:ext cx="1828800" cy="447675"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+          <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+            <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="9525">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:miter lim="800000"/>
+              <a:headEnd/>
+              <a:tailEnd/>
+            </a14:hiddenLine>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
@@ -15424,6 +15734,79 @@
 </xdr:wsDr>
 </file>
 
+<file path=xl/drawings/drawing9.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>542925</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>523875</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Picture 1" descr="b"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="8086725" y="76200"/>
+          <a:ext cx="1828800" cy="447675"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+          <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+            <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="9525">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:miter lim="800000"/>
+              <a:headEnd/>
+              <a:tailEnd/>
+            </a14:hiddenLine>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题​​">
   <a:themeElements>
@@ -15719,383 +16102,383 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
   <cols>
-    <col min="1" max="1" width="7.5" style="30" customWidth="1"/>
-    <col min="2" max="2" width="9" style="30"/>
-    <col min="3" max="3" width="8.375" style="30" customWidth="1"/>
-    <col min="4" max="16384" width="9" style="30"/>
+    <col min="1" max="1" width="7.5" style="29" customWidth="1"/>
+    <col min="2" max="2" width="9" style="29"/>
+    <col min="3" max="3" width="8.375" style="29" customWidth="1"/>
+    <col min="4" max="16384" width="9" style="29"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" s="24" customFormat="1" ht="22.5">
-      <c r="A1" s="23"/>
-    </row>
-    <row r="2" spans="1:9" s="24" customFormat="1" ht="22.5">
-      <c r="A2" s="23" t="s">
+    <row r="1" spans="1:9" s="23" customFormat="1" ht="22.5">
+      <c r="A1" s="22"/>
+    </row>
+    <row r="2" spans="1:9" s="23" customFormat="1" ht="22.5">
+      <c r="A2" s="22" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="3" spans="1:9" s="24" customFormat="1" ht="18.75">
-      <c r="A3" s="47" t="s">
+    <row r="3" spans="1:9" s="23" customFormat="1" ht="18.75">
+      <c r="A3" s="46" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="4" spans="1:9" s="24" customFormat="1" ht="18.75">
-      <c r="A4" s="25"/>
-    </row>
-    <row r="5" spans="1:9" s="24" customFormat="1" ht="18.75">
-      <c r="A5" s="25"/>
-    </row>
-    <row r="6" spans="1:9" s="24" customFormat="1" ht="18.75">
-      <c r="A6" s="25"/>
-    </row>
-    <row r="7" spans="1:9" s="24" customFormat="1" ht="18.75">
-      <c r="A7" s="25"/>
-    </row>
-    <row r="8" spans="1:9" s="24" customFormat="1" ht="18.75">
-      <c r="A8" s="25"/>
-    </row>
-    <row r="9" spans="1:9" s="24" customFormat="1" ht="18.75">
-      <c r="A9" s="25"/>
-    </row>
-    <row r="10" spans="1:9" s="24" customFormat="1" ht="18.75">
-      <c r="A10" s="25"/>
-    </row>
-    <row r="11" spans="1:9" s="24" customFormat="1" ht="18.75">
-      <c r="A11" s="25"/>
-    </row>
-    <row r="12" spans="1:9" s="24" customFormat="1" ht="18.75">
-      <c r="A12" s="25"/>
-      <c r="C12" s="48"/>
-    </row>
-    <row r="13" spans="1:9" s="24" customFormat="1" ht="18.75">
-      <c r="A13" s="25"/>
-    </row>
-    <row r="14" spans="1:9" s="24" customFormat="1" ht="18.75">
-      <c r="A14" s="26"/>
-      <c r="B14" s="27"/>
-      <c r="C14" s="27"/>
-      <c r="D14" s="27"/>
-      <c r="E14" s="27"/>
-      <c r="F14" s="27"/>
-      <c r="G14" s="27"/>
-      <c r="H14" s="27"/>
-      <c r="I14" s="27"/>
-    </row>
-    <row r="15" spans="1:9" s="24" customFormat="1" ht="51.75" customHeight="1">
-      <c r="A15" s="101" t="s">
+    <row r="4" spans="1:9" s="23" customFormat="1" ht="18.75">
+      <c r="A4" s="24"/>
+    </row>
+    <row r="5" spans="1:9" s="23" customFormat="1" ht="18.75">
+      <c r="A5" s="24"/>
+    </row>
+    <row r="6" spans="1:9" s="23" customFormat="1" ht="18.75">
+      <c r="A6" s="24"/>
+    </row>
+    <row r="7" spans="1:9" s="23" customFormat="1" ht="18.75">
+      <c r="A7" s="24"/>
+    </row>
+    <row r="8" spans="1:9" s="23" customFormat="1" ht="18.75">
+      <c r="A8" s="24"/>
+    </row>
+    <row r="9" spans="1:9" s="23" customFormat="1" ht="18.75">
+      <c r="A9" s="24"/>
+    </row>
+    <row r="10" spans="1:9" s="23" customFormat="1" ht="18.75">
+      <c r="A10" s="24"/>
+    </row>
+    <row r="11" spans="1:9" s="23" customFormat="1" ht="18.75">
+      <c r="A11" s="24"/>
+    </row>
+    <row r="12" spans="1:9" s="23" customFormat="1" ht="18.75">
+      <c r="A12" s="24"/>
+      <c r="C12" s="47"/>
+    </row>
+    <row r="13" spans="1:9" s="23" customFormat="1" ht="18.75">
+      <c r="A13" s="24"/>
+    </row>
+    <row r="14" spans="1:9" s="23" customFormat="1" ht="18.75">
+      <c r="A14" s="25"/>
+      <c r="B14" s="26"/>
+      <c r="C14" s="26"/>
+      <c r="D14" s="26"/>
+      <c r="E14" s="26"/>
+      <c r="F14" s="26"/>
+      <c r="G14" s="26"/>
+      <c r="H14" s="26"/>
+      <c r="I14" s="26"/>
+    </row>
+    <row r="15" spans="1:9" s="23" customFormat="1" ht="51.75" customHeight="1">
+      <c r="A15" s="105" t="s">
         <v>42</v>
       </c>
-      <c r="B15" s="102"/>
-      <c r="C15" s="102"/>
-      <c r="D15" s="102"/>
-      <c r="E15" s="102"/>
-      <c r="F15" s="102"/>
-      <c r="G15" s="102"/>
-      <c r="H15" s="102"/>
-      <c r="I15" s="102"/>
-    </row>
-    <row r="16" spans="1:9" s="24" customFormat="1" ht="18.75">
-      <c r="A16" s="28"/>
-      <c r="B16" s="27"/>
-      <c r="C16" s="27"/>
-      <c r="D16" s="27"/>
-      <c r="E16" s="27"/>
-      <c r="F16" s="27"/>
-      <c r="G16" s="27"/>
-      <c r="H16" s="27"/>
-      <c r="I16" s="27"/>
-    </row>
-    <row r="17" spans="1:9" s="24" customFormat="1" ht="18.75">
-      <c r="A17" s="49" t="s">
+      <c r="B15" s="106"/>
+      <c r="C15" s="106"/>
+      <c r="D15" s="106"/>
+      <c r="E15" s="106"/>
+      <c r="F15" s="106"/>
+      <c r="G15" s="106"/>
+      <c r="H15" s="106"/>
+      <c r="I15" s="106"/>
+    </row>
+    <row r="16" spans="1:9" s="23" customFormat="1" ht="18.75">
+      <c r="A16" s="27"/>
+      <c r="B16" s="26"/>
+      <c r="C16" s="26"/>
+      <c r="D16" s="26"/>
+      <c r="E16" s="26"/>
+      <c r="F16" s="26"/>
+      <c r="G16" s="26"/>
+      <c r="H16" s="26"/>
+      <c r="I16" s="26"/>
+    </row>
+    <row r="17" spans="1:9" s="23" customFormat="1" ht="18.75">
+      <c r="A17" s="48" t="s">
         <v>25</v>
       </c>
-      <c r="B17" s="27"/>
-      <c r="C17" s="27"/>
-      <c r="D17" s="27"/>
-      <c r="E17" s="27"/>
-      <c r="F17" s="27"/>
-      <c r="G17" s="27"/>
-      <c r="H17" s="27"/>
-      <c r="I17" s="27"/>
-    </row>
-    <row r="18" spans="1:9" s="24" customFormat="1" ht="18.75">
-      <c r="A18" s="50">
+      <c r="B17" s="26"/>
+      <c r="C17" s="26"/>
+      <c r="D17" s="26"/>
+      <c r="E17" s="26"/>
+      <c r="F17" s="26"/>
+      <c r="G17" s="26"/>
+      <c r="H17" s="26"/>
+      <c r="I17" s="26"/>
+    </row>
+    <row r="18" spans="1:9" s="23" customFormat="1" ht="18.75">
+      <c r="A18" s="49">
         <v>40142</v>
       </c>
-      <c r="B18" s="27"/>
-      <c r="C18" s="27"/>
-      <c r="D18" s="27"/>
-      <c r="E18" s="27"/>
-      <c r="F18" s="27"/>
-      <c r="G18" s="27"/>
-      <c r="H18" s="27"/>
-      <c r="I18" s="27"/>
-    </row>
-    <row r="19" spans="1:9" s="24" customFormat="1" ht="18.75">
-      <c r="A19" s="26"/>
-      <c r="B19" s="27"/>
-      <c r="C19" s="27"/>
-      <c r="D19" s="27"/>
-      <c r="E19" s="27"/>
-      <c r="F19" s="27"/>
-      <c r="G19" s="27"/>
-      <c r="H19" s="27"/>
-      <c r="I19" s="27"/>
-    </row>
-    <row r="20" spans="1:9" s="24" customFormat="1" ht="18.75">
-      <c r="A20" s="26"/>
-      <c r="B20" s="27"/>
-      <c r="C20" s="27"/>
-      <c r="D20" s="27"/>
-      <c r="E20" s="27"/>
-      <c r="F20" s="27"/>
-      <c r="G20" s="27"/>
-      <c r="H20" s="27"/>
-      <c r="I20" s="27"/>
-    </row>
-    <row r="21" spans="1:9" s="24" customFormat="1" ht="18.75">
-      <c r="A21" s="26"/>
-      <c r="B21" s="27"/>
-      <c r="C21" s="27"/>
-      <c r="D21" s="27"/>
-      <c r="E21" s="27"/>
-      <c r="F21" s="27"/>
-      <c r="G21" s="27"/>
-      <c r="H21" s="27"/>
-      <c r="I21" s="27"/>
-    </row>
-    <row r="22" spans="1:9" s="24" customFormat="1" ht="18.75">
-      <c r="A22" s="26"/>
-      <c r="B22" s="27"/>
-      <c r="C22" s="27"/>
-      <c r="D22" s="27"/>
-      <c r="E22" s="27"/>
-      <c r="F22" s="27"/>
-      <c r="G22" s="27"/>
-      <c r="H22" s="27"/>
-      <c r="I22" s="27"/>
-    </row>
-    <row r="23" spans="1:9" s="24" customFormat="1" ht="18" customHeight="1">
-      <c r="A23" s="26"/>
-      <c r="B23" s="27"/>
-      <c r="C23" s="27"/>
-      <c r="D23" s="27"/>
-      <c r="E23" s="27"/>
-      <c r="F23" s="27"/>
-      <c r="G23" s="27"/>
-      <c r="H23" s="27"/>
-      <c r="I23" s="27"/>
-    </row>
-    <row r="24" spans="1:9" s="24" customFormat="1" ht="18" customHeight="1">
-      <c r="A24" s="26"/>
-      <c r="B24" s="27"/>
-      <c r="C24" s="27"/>
-      <c r="D24" s="27"/>
-      <c r="E24" s="27"/>
-      <c r="F24" s="27"/>
-      <c r="G24" s="27"/>
-      <c r="H24" s="27"/>
-      <c r="I24" s="27"/>
-    </row>
-    <row r="25" spans="1:9" s="24" customFormat="1" ht="18" customHeight="1">
-      <c r="A25" s="26"/>
-      <c r="B25" s="27"/>
-      <c r="C25" s="27"/>
-      <c r="D25" s="27"/>
-      <c r="E25" s="27"/>
-      <c r="F25" s="27"/>
-      <c r="G25" s="27"/>
-      <c r="H25" s="27"/>
-      <c r="I25" s="27"/>
-    </row>
-    <row r="26" spans="1:9" s="24" customFormat="1" ht="18" customHeight="1">
-      <c r="A26" s="26"/>
-      <c r="B26" s="27"/>
-      <c r="C26" s="27"/>
-      <c r="D26" s="27"/>
-      <c r="E26" s="27"/>
-      <c r="F26" s="27"/>
-      <c r="G26" s="27"/>
-      <c r="H26" s="27"/>
-      <c r="I26" s="27"/>
-    </row>
-    <row r="27" spans="1:9" s="24" customFormat="1" ht="18" customHeight="1">
-      <c r="A27" s="26"/>
-      <c r="B27" s="27"/>
-      <c r="C27" s="27"/>
-      <c r="D27" s="27"/>
-      <c r="E27" s="27"/>
-      <c r="F27" s="27"/>
-      <c r="G27" s="27"/>
-      <c r="H27" s="27"/>
-      <c r="I27" s="27"/>
-    </row>
-    <row r="28" spans="1:9" s="24" customFormat="1" ht="18" customHeight="1">
-      <c r="A28" s="26"/>
-      <c r="B28" s="27"/>
-      <c r="C28" s="27"/>
-      <c r="D28" s="27"/>
-      <c r="E28" s="27"/>
-      <c r="F28" s="27"/>
-      <c r="G28" s="27"/>
-      <c r="H28" s="27"/>
-      <c r="I28" s="27"/>
-    </row>
-    <row r="29" spans="1:9" s="24" customFormat="1" ht="18" customHeight="1">
-      <c r="A29" s="26"/>
-      <c r="B29" s="27"/>
-      <c r="C29" s="27"/>
-      <c r="D29" s="27"/>
-      <c r="E29" s="27"/>
-      <c r="F29" s="27"/>
-      <c r="G29" s="27"/>
-      <c r="H29" s="27"/>
-      <c r="I29" s="27"/>
-    </row>
-    <row r="30" spans="1:9" s="24" customFormat="1" ht="18" customHeight="1">
-      <c r="A30" s="26"/>
-      <c r="B30" s="27"/>
-      <c r="C30" s="27"/>
-      <c r="D30" s="27"/>
-      <c r="E30" s="27"/>
-      <c r="F30" s="27"/>
-      <c r="G30" s="27"/>
-      <c r="H30" s="27"/>
-      <c r="I30" s="27"/>
-    </row>
-    <row r="31" spans="1:9" s="24" customFormat="1" ht="18" customHeight="1">
-      <c r="A31" s="26"/>
-      <c r="B31" s="27"/>
-      <c r="C31" s="27"/>
-      <c r="D31" s="27"/>
-      <c r="E31" s="27"/>
-      <c r="F31" s="27"/>
-      <c r="G31" s="27"/>
-      <c r="H31" s="27"/>
-      <c r="I31" s="27"/>
-    </row>
-    <row r="32" spans="1:9" s="24" customFormat="1" ht="18.75">
-      <c r="A32" s="26"/>
-      <c r="B32" s="27"/>
-      <c r="C32" s="27"/>
-      <c r="D32" s="27"/>
-      <c r="E32" s="27"/>
-      <c r="F32" s="27"/>
-      <c r="G32" s="27"/>
-      <c r="H32" s="27"/>
-      <c r="I32" s="27"/>
-    </row>
-    <row r="33" spans="1:10" s="24" customFormat="1" ht="19.5">
-      <c r="A33" s="51" t="s">
+      <c r="B18" s="26"/>
+      <c r="C18" s="26"/>
+      <c r="D18" s="26"/>
+      <c r="E18" s="26"/>
+      <c r="F18" s="26"/>
+      <c r="G18" s="26"/>
+      <c r="H18" s="26"/>
+      <c r="I18" s="26"/>
+    </row>
+    <row r="19" spans="1:9" s="23" customFormat="1" ht="18.75">
+      <c r="A19" s="25"/>
+      <c r="B19" s="26"/>
+      <c r="C19" s="26"/>
+      <c r="D19" s="26"/>
+      <c r="E19" s="26"/>
+      <c r="F19" s="26"/>
+      <c r="G19" s="26"/>
+      <c r="H19" s="26"/>
+      <c r="I19" s="26"/>
+    </row>
+    <row r="20" spans="1:9" s="23" customFormat="1" ht="18.75">
+      <c r="A20" s="25"/>
+      <c r="B20" s="26"/>
+      <c r="C20" s="26"/>
+      <c r="D20" s="26"/>
+      <c r="E20" s="26"/>
+      <c r="F20" s="26"/>
+      <c r="G20" s="26"/>
+      <c r="H20" s="26"/>
+      <c r="I20" s="26"/>
+    </row>
+    <row r="21" spans="1:9" s="23" customFormat="1" ht="18.75">
+      <c r="A21" s="25"/>
+      <c r="B21" s="26"/>
+      <c r="C21" s="26"/>
+      <c r="D21" s="26"/>
+      <c r="E21" s="26"/>
+      <c r="F21" s="26"/>
+      <c r="G21" s="26"/>
+      <c r="H21" s="26"/>
+      <c r="I21" s="26"/>
+    </row>
+    <row r="22" spans="1:9" s="23" customFormat="1" ht="18.75">
+      <c r="A22" s="25"/>
+      <c r="B22" s="26"/>
+      <c r="C22" s="26"/>
+      <c r="D22" s="26"/>
+      <c r="E22" s="26"/>
+      <c r="F22" s="26"/>
+      <c r="G22" s="26"/>
+      <c r="H22" s="26"/>
+      <c r="I22" s="26"/>
+    </row>
+    <row r="23" spans="1:9" s="23" customFormat="1" ht="18" customHeight="1">
+      <c r="A23" s="25"/>
+      <c r="B23" s="26"/>
+      <c r="C23" s="26"/>
+      <c r="D23" s="26"/>
+      <c r="E23" s="26"/>
+      <c r="F23" s="26"/>
+      <c r="G23" s="26"/>
+      <c r="H23" s="26"/>
+      <c r="I23" s="26"/>
+    </row>
+    <row r="24" spans="1:9" s="23" customFormat="1" ht="18" customHeight="1">
+      <c r="A24" s="25"/>
+      <c r="B24" s="26"/>
+      <c r="C24" s="26"/>
+      <c r="D24" s="26"/>
+      <c r="E24" s="26"/>
+      <c r="F24" s="26"/>
+      <c r="G24" s="26"/>
+      <c r="H24" s="26"/>
+      <c r="I24" s="26"/>
+    </row>
+    <row r="25" spans="1:9" s="23" customFormat="1" ht="18" customHeight="1">
+      <c r="A25" s="25"/>
+      <c r="B25" s="26"/>
+      <c r="C25" s="26"/>
+      <c r="D25" s="26"/>
+      <c r="E25" s="26"/>
+      <c r="F25" s="26"/>
+      <c r="G25" s="26"/>
+      <c r="H25" s="26"/>
+      <c r="I25" s="26"/>
+    </row>
+    <row r="26" spans="1:9" s="23" customFormat="1" ht="18" customHeight="1">
+      <c r="A26" s="25"/>
+      <c r="B26" s="26"/>
+      <c r="C26" s="26"/>
+      <c r="D26" s="26"/>
+      <c r="E26" s="26"/>
+      <c r="F26" s="26"/>
+      <c r="G26" s="26"/>
+      <c r="H26" s="26"/>
+      <c r="I26" s="26"/>
+    </row>
+    <row r="27" spans="1:9" s="23" customFormat="1" ht="18" customHeight="1">
+      <c r="A27" s="25"/>
+      <c r="B27" s="26"/>
+      <c r="C27" s="26"/>
+      <c r="D27" s="26"/>
+      <c r="E27" s="26"/>
+      <c r="F27" s="26"/>
+      <c r="G27" s="26"/>
+      <c r="H27" s="26"/>
+      <c r="I27" s="26"/>
+    </row>
+    <row r="28" spans="1:9" s="23" customFormat="1" ht="18" customHeight="1">
+      <c r="A28" s="25"/>
+      <c r="B28" s="26"/>
+      <c r="C28" s="26"/>
+      <c r="D28" s="26"/>
+      <c r="E28" s="26"/>
+      <c r="F28" s="26"/>
+      <c r="G28" s="26"/>
+      <c r="H28" s="26"/>
+      <c r="I28" s="26"/>
+    </row>
+    <row r="29" spans="1:9" s="23" customFormat="1" ht="18" customHeight="1">
+      <c r="A29" s="25"/>
+      <c r="B29" s="26"/>
+      <c r="C29" s="26"/>
+      <c r="D29" s="26"/>
+      <c r="E29" s="26"/>
+      <c r="F29" s="26"/>
+      <c r="G29" s="26"/>
+      <c r="H29" s="26"/>
+      <c r="I29" s="26"/>
+    </row>
+    <row r="30" spans="1:9" s="23" customFormat="1" ht="18" customHeight="1">
+      <c r="A30" s="25"/>
+      <c r="B30" s="26"/>
+      <c r="C30" s="26"/>
+      <c r="D30" s="26"/>
+      <c r="E30" s="26"/>
+      <c r="F30" s="26"/>
+      <c r="G30" s="26"/>
+      <c r="H30" s="26"/>
+      <c r="I30" s="26"/>
+    </row>
+    <row r="31" spans="1:9" s="23" customFormat="1" ht="18" customHeight="1">
+      <c r="A31" s="25"/>
+      <c r="B31" s="26"/>
+      <c r="C31" s="26"/>
+      <c r="D31" s="26"/>
+      <c r="E31" s="26"/>
+      <c r="F31" s="26"/>
+      <c r="G31" s="26"/>
+      <c r="H31" s="26"/>
+      <c r="I31" s="26"/>
+    </row>
+    <row r="32" spans="1:9" s="23" customFormat="1" ht="18.75">
+      <c r="A32" s="25"/>
+      <c r="B32" s="26"/>
+      <c r="C32" s="26"/>
+      <c r="D32" s="26"/>
+      <c r="E32" s="26"/>
+      <c r="F32" s="26"/>
+      <c r="G32" s="26"/>
+      <c r="H32" s="26"/>
+      <c r="I32" s="26"/>
+    </row>
+    <row r="33" spans="1:10" s="23" customFormat="1" ht="19.5">
+      <c r="A33" s="50" t="s">
         <v>26</v>
       </c>
-      <c r="B33" s="27"/>
-      <c r="C33" s="27"/>
-      <c r="D33" s="27"/>
-      <c r="E33" s="27"/>
-      <c r="F33" s="27"/>
-      <c r="G33" s="27"/>
-      <c r="H33" s="27"/>
-      <c r="I33" s="27"/>
-      <c r="J33" s="52"/>
-    </row>
-    <row r="34" spans="1:10" s="24" customFormat="1" ht="19.5">
-      <c r="A34" s="53" t="s">
+      <c r="B33" s="26"/>
+      <c r="C33" s="26"/>
+      <c r="D33" s="26"/>
+      <c r="E33" s="26"/>
+      <c r="F33" s="26"/>
+      <c r="G33" s="26"/>
+      <c r="H33" s="26"/>
+      <c r="I33" s="26"/>
+      <c r="J33" s="51"/>
+    </row>
+    <row r="34" spans="1:10" s="23" customFormat="1" ht="19.5">
+      <c r="A34" s="52" t="s">
         <v>27</v>
       </c>
-      <c r="B34" s="27"/>
-      <c r="C34" s="27"/>
-      <c r="D34" s="27"/>
-      <c r="E34" s="27"/>
-      <c r="F34" s="27"/>
-      <c r="G34" s="27"/>
-      <c r="H34" s="27"/>
-      <c r="I34" s="27"/>
-      <c r="J34" s="52"/>
-    </row>
-    <row r="35" spans="1:10" s="24" customFormat="1">
-      <c r="A35" s="29"/>
-      <c r="B35" s="27"/>
-      <c r="C35" s="27"/>
-      <c r="D35" s="27"/>
-      <c r="E35" s="27"/>
-      <c r="F35" s="27"/>
-      <c r="G35" s="27"/>
-      <c r="H35" s="27"/>
-      <c r="I35" s="27"/>
-      <c r="J35" s="52"/>
-    </row>
-    <row r="36" spans="1:10" s="24" customFormat="1">
-      <c r="A36" s="27"/>
-      <c r="B36" s="27"/>
-      <c r="C36" s="27"/>
-      <c r="D36" s="27"/>
-      <c r="E36" s="27"/>
-      <c r="F36" s="27"/>
-      <c r="G36" s="27"/>
-      <c r="H36" s="27"/>
-      <c r="I36" s="27"/>
-    </row>
-    <row r="37" spans="1:10" s="24" customFormat="1"/>
-    <row r="38" spans="1:10" s="24" customFormat="1"/>
-    <row r="39" spans="1:10" s="24" customFormat="1"/>
-    <row r="40" spans="1:10" s="24" customFormat="1"/>
-    <row r="41" spans="1:10" s="24" customFormat="1"/>
+      <c r="B34" s="26"/>
+      <c r="C34" s="26"/>
+      <c r="D34" s="26"/>
+      <c r="E34" s="26"/>
+      <c r="F34" s="26"/>
+      <c r="G34" s="26"/>
+      <c r="H34" s="26"/>
+      <c r="I34" s="26"/>
+      <c r="J34" s="51"/>
+    </row>
+    <row r="35" spans="1:10" s="23" customFormat="1">
+      <c r="A35" s="28"/>
+      <c r="B35" s="26"/>
+      <c r="C35" s="26"/>
+      <c r="D35" s="26"/>
+      <c r="E35" s="26"/>
+      <c r="F35" s="26"/>
+      <c r="G35" s="26"/>
+      <c r="H35" s="26"/>
+      <c r="I35" s="26"/>
+      <c r="J35" s="51"/>
+    </row>
+    <row r="36" spans="1:10" s="23" customFormat="1">
+      <c r="A36" s="26"/>
+      <c r="B36" s="26"/>
+      <c r="C36" s="26"/>
+      <c r="D36" s="26"/>
+      <c r="E36" s="26"/>
+      <c r="F36" s="26"/>
+      <c r="G36" s="26"/>
+      <c r="H36" s="26"/>
+      <c r="I36" s="26"/>
+    </row>
+    <row r="37" spans="1:10" s="23" customFormat="1"/>
+    <row r="38" spans="1:10" s="23" customFormat="1"/>
+    <row r="39" spans="1:10" s="23" customFormat="1"/>
+    <row r="40" spans="1:10" s="23" customFormat="1"/>
+    <row r="41" spans="1:10" s="23" customFormat="1"/>
     <row r="58" spans="1:1">
-      <c r="A58" s="31"/>
+      <c r="A58" s="30"/>
     </row>
     <row r="59" spans="1:1">
-      <c r="A59" s="32"/>
+      <c r="A59" s="31"/>
     </row>
     <row r="101" spans="1:1">
-      <c r="A101" s="54"/>
+      <c r="A101" s="53"/>
     </row>
     <row r="102" spans="1:1">
-      <c r="A102" s="54"/>
+      <c r="A102" s="53"/>
     </row>
     <row r="103" spans="1:1">
-      <c r="A103" s="54"/>
+      <c r="A103" s="53"/>
     </row>
     <row r="104" spans="1:1">
-      <c r="A104" s="54"/>
+      <c r="A104" s="53"/>
     </row>
     <row r="105" spans="1:1">
-      <c r="A105" s="54"/>
+      <c r="A105" s="53"/>
     </row>
     <row r="106" spans="1:1">
-      <c r="A106" s="54"/>
+      <c r="A106" s="53"/>
     </row>
     <row r="107" spans="1:1">
-      <c r="A107" s="54"/>
+      <c r="A107" s="53"/>
     </row>
     <row r="108" spans="1:1">
-      <c r="A108" s="54"/>
+      <c r="A108" s="53"/>
     </row>
     <row r="109" spans="1:1">
-      <c r="A109" s="54"/>
+      <c r="A109" s="53"/>
     </row>
     <row r="110" spans="1:1">
-      <c r="A110" s="54"/>
+      <c r="A110" s="53"/>
     </row>
     <row r="111" spans="1:1">
-      <c r="A111" s="54"/>
+      <c r="A111" s="53"/>
     </row>
     <row r="112" spans="1:1">
-      <c r="A112" s="54"/>
+      <c r="A112" s="53"/>
     </row>
     <row r="113" spans="1:1">
-      <c r="A113" s="54"/>
+      <c r="A113" s="53"/>
     </row>
     <row r="114" spans="1:1">
-      <c r="A114" s="54"/>
+      <c r="A114" s="53"/>
     </row>
     <row r="115" spans="1:1">
-      <c r="A115" s="54"/>
+      <c r="A115" s="53"/>
     </row>
     <row r="116" spans="1:1">
-      <c r="A116" s="54"/>
+      <c r="A116" s="53"/>
     </row>
     <row r="117" spans="1:1">
-      <c r="A117" s="54"/>
+      <c r="A117" s="53"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -16109,577 +16492,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E111"/>
-  <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="G10" sqref="G10"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <cols>
-    <col min="1" max="1" width="12.625" style="58" customWidth="1"/>
-    <col min="2" max="2" width="10.75" style="58" customWidth="1"/>
-    <col min="3" max="3" width="46.25" style="58" customWidth="1"/>
-    <col min="4" max="4" width="11.25" style="58" customWidth="1"/>
-    <col min="5" max="16384" width="9" style="58"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:5" ht="27">
-      <c r="A1" s="55" t="s">
-        <v>28</v>
-      </c>
-      <c r="B1" s="56"/>
-      <c r="C1" s="56"/>
-      <c r="D1" s="56"/>
-      <c r="E1" s="57"/>
-    </row>
-    <row r="2" spans="1:5" ht="19.899999999999999" customHeight="1">
-      <c r="A2" s="59"/>
-      <c r="B2" s="56"/>
-      <c r="C2" s="56"/>
-      <c r="D2" s="56"/>
-    </row>
-    <row r="3" spans="1:5">
-      <c r="A3" s="60" t="s">
-        <v>14</v>
-      </c>
-      <c r="B3" s="60" t="s">
-        <v>15</v>
-      </c>
-      <c r="C3" s="60" t="s">
-        <v>16</v>
-      </c>
-      <c r="D3" s="60" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" s="64" customFormat="1">
-      <c r="A4" s="61">
-        <v>1</v>
-      </c>
-      <c r="B4" s="61" t="s">
-        <v>29</v>
-      </c>
-      <c r="C4" s="62" t="s">
-        <v>30</v>
-      </c>
-      <c r="D4" s="63">
-        <v>40142</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" s="64" customFormat="1">
-      <c r="A5" s="61"/>
-      <c r="B5" s="61"/>
-      <c r="C5" s="65"/>
-      <c r="D5" s="63"/>
-    </row>
-    <row r="6" spans="1:5" s="64" customFormat="1">
-      <c r="A6" s="61"/>
-      <c r="B6" s="61"/>
-      <c r="C6" s="62"/>
-      <c r="D6" s="63"/>
-    </row>
-    <row r="7" spans="1:5" s="64" customFormat="1">
-      <c r="A7" s="61"/>
-      <c r="B7" s="61"/>
-      <c r="C7" s="62"/>
-      <c r="D7" s="63"/>
-    </row>
-    <row r="8" spans="1:5" s="64" customFormat="1">
-      <c r="A8" s="61"/>
-      <c r="B8" s="61"/>
-      <c r="C8" s="65"/>
-      <c r="D8" s="63"/>
-    </row>
-    <row r="9" spans="1:5" s="64" customFormat="1">
-      <c r="A9" s="61"/>
-      <c r="B9" s="61"/>
-      <c r="C9" s="62"/>
-      <c r="D9" s="63"/>
-    </row>
-    <row r="10" spans="1:5" s="64" customFormat="1">
-      <c r="A10" s="61"/>
-      <c r="B10" s="66"/>
-      <c r="C10" s="62"/>
-      <c r="D10" s="63"/>
-    </row>
-    <row r="11" spans="1:5" s="64" customFormat="1">
-      <c r="A11" s="61"/>
-      <c r="B11" s="66"/>
-      <c r="C11" s="65"/>
-      <c r="D11" s="63"/>
-    </row>
-    <row r="12" spans="1:5" s="64" customFormat="1">
-      <c r="A12" s="61"/>
-      <c r="B12" s="66"/>
-      <c r="C12" s="62"/>
-      <c r="D12" s="63"/>
-    </row>
-    <row r="13" spans="1:5" s="64" customFormat="1">
-      <c r="A13" s="61"/>
-      <c r="B13" s="66"/>
-      <c r="C13" s="65"/>
-      <c r="D13" s="63"/>
-    </row>
-    <row r="14" spans="1:5" s="64" customFormat="1">
-      <c r="A14" s="61"/>
-      <c r="B14" s="66"/>
-      <c r="C14" s="62"/>
-      <c r="D14" s="63"/>
-    </row>
-    <row r="15" spans="1:5" s="64" customFormat="1">
-      <c r="A15" s="61"/>
-      <c r="B15" s="66"/>
-      <c r="C15" s="65"/>
-      <c r="D15" s="63"/>
-    </row>
-    <row r="16" spans="1:5" s="64" customFormat="1">
-      <c r="A16" s="61"/>
-      <c r="B16" s="66"/>
-      <c r="C16" s="65"/>
-      <c r="D16" s="63"/>
-    </row>
-    <row r="17" spans="1:4" s="64" customFormat="1">
-      <c r="A17" s="61"/>
-      <c r="B17" s="66"/>
-      <c r="C17" s="65"/>
-      <c r="D17" s="63"/>
-    </row>
-    <row r="18" spans="1:4" s="64" customFormat="1">
-      <c r="A18" s="61"/>
-      <c r="B18" s="66"/>
-      <c r="C18" s="67"/>
-      <c r="D18" s="63"/>
-    </row>
-    <row r="19" spans="1:4" ht="15.75">
-      <c r="A19" s="61"/>
-      <c r="B19" s="66"/>
-      <c r="C19" s="68"/>
-      <c r="D19" s="63"/>
-    </row>
-    <row r="20" spans="1:4">
-      <c r="A20" s="61"/>
-      <c r="B20" s="66"/>
-      <c r="C20" s="69"/>
-      <c r="D20" s="63"/>
-    </row>
-    <row r="21" spans="1:4">
-      <c r="A21" s="61"/>
-      <c r="B21" s="66"/>
-      <c r="C21" s="69"/>
-      <c r="D21" s="63"/>
-    </row>
-    <row r="95" spans="1:1">
-      <c r="A95" s="70"/>
-    </row>
-    <row r="96" spans="1:1">
-      <c r="A96" s="70"/>
-    </row>
-    <row r="97" spans="1:1">
-      <c r="A97" s="70"/>
-    </row>
-    <row r="98" spans="1:1">
-      <c r="A98" s="70"/>
-    </row>
-    <row r="99" spans="1:1">
-      <c r="A99" s="70"/>
-    </row>
-    <row r="100" spans="1:1">
-      <c r="A100" s="70"/>
-    </row>
-    <row r="101" spans="1:1">
-      <c r="A101" s="70"/>
-    </row>
-    <row r="102" spans="1:1">
-      <c r="A102" s="70"/>
-    </row>
-    <row r="103" spans="1:1">
-      <c r="A103" s="70"/>
-    </row>
-    <row r="104" spans="1:1">
-      <c r="A104" s="70"/>
-    </row>
-    <row r="105" spans="1:1">
-      <c r="A105" s="70"/>
-    </row>
-    <row r="106" spans="1:1">
-      <c r="A106" s="70"/>
-    </row>
-    <row r="107" spans="1:1">
-      <c r="A107" s="70"/>
-    </row>
-    <row r="108" spans="1:1">
-      <c r="A108" s="70"/>
-    </row>
-    <row r="109" spans="1:1">
-      <c r="A109" s="70"/>
-    </row>
-    <row r="110" spans="1:1">
-      <c r="A110" s="70"/>
-    </row>
-    <row r="111" spans="1:1">
-      <c r="A111" s="70"/>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="3" type="noConversion"/>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
-  <headerFooter alignWithMargins="0"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I56"/>
-  <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="8" defaultRowHeight="15.75"/>
-  <cols>
-    <col min="1" max="1" width="9.25" style="99" customWidth="1"/>
-    <col min="2" max="4" width="9.625" style="99" customWidth="1"/>
-    <col min="5" max="5" width="13.125" style="99" customWidth="1"/>
-    <col min="6" max="6" width="9.625" style="99" customWidth="1"/>
-    <col min="7" max="7" width="15.5" style="99" customWidth="1"/>
-    <col min="8" max="8" width="9.625" style="99" customWidth="1"/>
-    <col min="9" max="16384" width="8" style="99"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:9" s="72" customFormat="1" ht="22.5">
-      <c r="A1" s="71"/>
-    </row>
-    <row r="2" spans="1:9" s="72" customFormat="1" ht="25.5" customHeight="1">
-      <c r="A2" s="23" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9" s="75" customFormat="1" ht="22.5">
-      <c r="A3" s="73" t="s">
-        <v>32</v>
-      </c>
-      <c r="B3" s="74"/>
-      <c r="C3" s="73"/>
-      <c r="D3" s="74"/>
-      <c r="E3" s="74"/>
-      <c r="F3" s="74"/>
-      <c r="G3" s="74"/>
-      <c r="H3" s="74"/>
-      <c r="I3" s="74"/>
-    </row>
-    <row r="4" spans="1:9" s="72" customFormat="1" ht="18.75">
-      <c r="A4" s="47" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9" s="72" customFormat="1" ht="18.75">
-      <c r="A5" s="76"/>
-    </row>
-    <row r="6" spans="1:9" s="72" customFormat="1" ht="18.75">
-      <c r="A6" s="76"/>
-    </row>
-    <row r="7" spans="1:9" s="72" customFormat="1" ht="18.75">
-      <c r="A7" s="76"/>
-    </row>
-    <row r="8" spans="1:9" s="72" customFormat="1" ht="18.75">
-      <c r="A8" s="76"/>
-    </row>
-    <row r="9" spans="1:9" s="72" customFormat="1" ht="9.75" customHeight="1">
-      <c r="A9" s="76"/>
-    </row>
-    <row r="10" spans="1:9" s="72" customFormat="1" ht="18.75">
-      <c r="A10" s="76"/>
-    </row>
-    <row r="11" spans="1:9" s="72" customFormat="1" ht="18.75">
-      <c r="A11" s="76"/>
-    </row>
-    <row r="12" spans="1:9" s="72" customFormat="1" ht="18.75">
-      <c r="A12" s="76"/>
-    </row>
-    <row r="13" spans="1:9" s="72" customFormat="1" ht="18.75">
-      <c r="A13" s="76"/>
-    </row>
-    <row r="14" spans="1:9" s="72" customFormat="1" ht="18.75">
-      <c r="A14" s="76"/>
-    </row>
-    <row r="15" spans="1:9" s="72" customFormat="1" ht="18.75">
-      <c r="A15" s="77"/>
-      <c r="B15" s="78"/>
-      <c r="C15" s="78"/>
-      <c r="D15" s="78"/>
-      <c r="E15" s="78"/>
-      <c r="F15" s="78"/>
-      <c r="G15" s="78"/>
-      <c r="H15" s="78"/>
-    </row>
-    <row r="16" spans="1:9" s="79" customFormat="1" ht="46.5">
-      <c r="A16" s="103" t="s">
-        <v>23</v>
-      </c>
-      <c r="B16" s="103"/>
-      <c r="C16" s="103"/>
-      <c r="D16" s="103"/>
-      <c r="E16" s="103"/>
-      <c r="F16" s="103"/>
-      <c r="G16" s="103"/>
-      <c r="H16" s="103"/>
-    </row>
-    <row r="17" spans="1:8" s="79" customFormat="1">
-      <c r="A17" s="80"/>
-      <c r="B17" s="81"/>
-      <c r="C17" s="82"/>
-      <c r="D17" s="82"/>
-      <c r="E17" s="82"/>
-      <c r="F17" s="82"/>
-      <c r="G17" s="82"/>
-      <c r="H17" s="82"/>
-    </row>
-    <row r="18" spans="1:8" s="72" customFormat="1" ht="53.25">
-      <c r="A18" s="83" t="s">
-        <v>43</v>
-      </c>
-      <c r="B18" s="78"/>
-      <c r="C18" s="78"/>
-      <c r="D18" s="78"/>
-      <c r="E18" s="78"/>
-      <c r="F18" s="78"/>
-      <c r="G18" s="78"/>
-      <c r="H18" s="78"/>
-    </row>
-    <row r="19" spans="1:8" s="72" customFormat="1" ht="18.75">
-      <c r="A19" s="77"/>
-      <c r="B19" s="78"/>
-      <c r="C19" s="78"/>
-      <c r="D19" s="78"/>
-      <c r="E19" s="78"/>
-      <c r="F19" s="78"/>
-      <c r="G19" s="78"/>
-      <c r="H19" s="78"/>
-    </row>
-    <row r="20" spans="1:8" s="72" customFormat="1" ht="45.75">
-      <c r="A20" s="84"/>
-      <c r="B20" s="78"/>
-      <c r="C20" s="78"/>
-      <c r="D20" s="78"/>
-      <c r="E20" s="78"/>
-      <c r="F20" s="78"/>
-      <c r="G20" s="78"/>
-      <c r="H20" s="78"/>
-    </row>
-    <row r="21" spans="1:8" s="72" customFormat="1" ht="18.75">
-      <c r="A21" s="50"/>
-      <c r="B21" s="78"/>
-      <c r="C21" s="78"/>
-      <c r="D21" s="78"/>
-      <c r="E21" s="78"/>
-      <c r="F21" s="78"/>
-      <c r="G21" s="78"/>
-      <c r="H21" s="78"/>
-    </row>
-    <row r="22" spans="1:8" s="72" customFormat="1" ht="22.15" customHeight="1">
-      <c r="A22" s="85" t="s">
-        <v>33</v>
-      </c>
-      <c r="B22" s="86"/>
-      <c r="C22" s="86"/>
-      <c r="D22" s="86"/>
-      <c r="E22" s="86"/>
-      <c r="F22" s="86"/>
-      <c r="G22" s="86"/>
-      <c r="H22" s="86"/>
-    </row>
-    <row r="23" spans="1:8" s="72" customFormat="1" ht="18.75">
-      <c r="A23" s="77"/>
-      <c r="B23" s="78"/>
-      <c r="C23" s="78"/>
-      <c r="D23" s="78"/>
-      <c r="E23" s="78"/>
-      <c r="F23" s="78"/>
-      <c r="G23" s="78"/>
-      <c r="H23" s="78"/>
-    </row>
-    <row r="24" spans="1:8" s="72" customFormat="1" ht="18" customHeight="1">
-      <c r="A24" s="77"/>
-      <c r="B24" s="78"/>
-      <c r="C24" s="78"/>
-      <c r="D24" s="78"/>
-      <c r="E24" s="78"/>
-      <c r="F24" s="78"/>
-      <c r="G24" s="78"/>
-      <c r="H24" s="78"/>
-    </row>
-    <row r="25" spans="1:8" s="72" customFormat="1" ht="18" customHeight="1">
-      <c r="A25" s="77"/>
-      <c r="B25" s="78"/>
-      <c r="C25" s="78"/>
-      <c r="D25" s="78"/>
-      <c r="E25" s="78"/>
-      <c r="F25" s="78"/>
-      <c r="G25" s="78"/>
-      <c r="H25" s="78"/>
-    </row>
-    <row r="26" spans="1:8" s="72" customFormat="1" ht="18" customHeight="1">
-      <c r="A26" s="77"/>
-      <c r="B26" s="78"/>
-      <c r="C26" s="78"/>
-      <c r="D26" s="78"/>
-      <c r="E26" s="78"/>
-      <c r="F26" s="78"/>
-      <c r="G26" s="78"/>
-      <c r="H26" s="78"/>
-    </row>
-    <row r="27" spans="1:8" s="72" customFormat="1" ht="18" customHeight="1">
-      <c r="A27" s="77"/>
-      <c r="B27" s="78"/>
-      <c r="C27" s="78"/>
-      <c r="D27" s="78"/>
-      <c r="E27" s="78"/>
-      <c r="F27" s="78"/>
-      <c r="G27" s="78"/>
-      <c r="H27" s="78"/>
-    </row>
-    <row r="28" spans="1:8" s="72" customFormat="1" ht="18" customHeight="1">
-      <c r="A28" s="77"/>
-      <c r="B28" s="78"/>
-      <c r="C28" s="78"/>
-      <c r="D28" s="78"/>
-      <c r="E28" s="78"/>
-      <c r="F28" s="78"/>
-      <c r="G28" s="78"/>
-      <c r="H28" s="78"/>
-    </row>
-    <row r="29" spans="1:8" s="89" customFormat="1" ht="22.15" customHeight="1">
-      <c r="A29" s="87" t="s">
-        <v>34</v>
-      </c>
-      <c r="B29" s="88"/>
-      <c r="C29" s="88"/>
-      <c r="D29" s="88"/>
-      <c r="E29" s="88"/>
-      <c r="F29" s="88"/>
-      <c r="G29" s="88"/>
-      <c r="H29" s="88"/>
-    </row>
-    <row r="30" spans="1:8" s="89" customFormat="1">
-      <c r="A30" s="90"/>
-      <c r="B30" s="91"/>
-      <c r="C30" s="91"/>
-      <c r="D30" s="91"/>
-      <c r="E30" s="91"/>
-      <c r="F30" s="91"/>
-      <c r="G30" s="91"/>
-      <c r="H30" s="91"/>
-    </row>
-    <row r="31" spans="1:8" s="89" customFormat="1">
-      <c r="A31" s="90"/>
-      <c r="B31" s="91"/>
-      <c r="C31" s="91"/>
-      <c r="D31" s="91"/>
-      <c r="E31" s="91"/>
-      <c r="F31" s="91"/>
-      <c r="G31" s="91"/>
-      <c r="H31" s="91"/>
-    </row>
-    <row r="32" spans="1:8" s="89" customFormat="1">
-      <c r="A32" s="90"/>
-      <c r="B32" s="91"/>
-      <c r="C32" s="91"/>
-      <c r="D32" s="91"/>
-      <c r="E32" s="91"/>
-      <c r="F32" s="91"/>
-      <c r="G32" s="91"/>
-      <c r="H32" s="91"/>
-    </row>
-    <row r="33" spans="1:8" s="95" customFormat="1" ht="30" customHeight="1">
-      <c r="A33" s="92" t="s">
-        <v>35</v>
-      </c>
-      <c r="B33" s="93"/>
-      <c r="C33" s="92" t="s">
-        <v>36</v>
-      </c>
-      <c r="D33" s="93"/>
-      <c r="E33" s="92" t="s">
-        <v>37</v>
-      </c>
-      <c r="F33" s="93"/>
-      <c r="G33" s="94" t="s">
-        <v>38</v>
-      </c>
-      <c r="H33" s="93"/>
-    </row>
-    <row r="34" spans="1:8" s="95" customFormat="1" ht="29.25" customHeight="1">
-      <c r="A34" s="92" t="s">
-        <v>39</v>
-      </c>
-      <c r="B34" s="104"/>
-      <c r="C34" s="104"/>
-      <c r="D34" s="104"/>
-      <c r="E34" s="92" t="s">
-        <v>40</v>
-      </c>
-      <c r="F34" s="104"/>
-      <c r="G34" s="104"/>
-      <c r="H34" s="104"/>
-    </row>
-    <row r="35" spans="1:8" s="72" customFormat="1" ht="18.75">
-      <c r="A35" s="77"/>
-      <c r="B35" s="78"/>
-      <c r="C35" s="78"/>
-      <c r="D35" s="78"/>
-      <c r="E35" s="78"/>
-      <c r="F35" s="78"/>
-      <c r="G35" s="78"/>
-      <c r="H35" s="78"/>
-    </row>
-    <row r="36" spans="1:8" s="72" customFormat="1" ht="19.5">
-      <c r="A36" s="96"/>
-      <c r="B36" s="78"/>
-      <c r="C36" s="78"/>
-      <c r="D36" s="78"/>
-      <c r="E36" s="78"/>
-      <c r="F36" s="78"/>
-      <c r="G36" s="78"/>
-      <c r="H36" s="78"/>
-    </row>
-    <row r="37" spans="1:8" s="72" customFormat="1" ht="19.5">
-      <c r="A37" s="97"/>
-      <c r="B37" s="78"/>
-      <c r="C37" s="78"/>
-      <c r="D37" s="78"/>
-      <c r="E37" s="78"/>
-      <c r="F37" s="78"/>
-      <c r="G37" s="78"/>
-      <c r="H37" s="78"/>
-    </row>
-    <row r="38" spans="1:8" s="72" customFormat="1"/>
-    <row r="55" spans="1:1">
-      <c r="A55" s="98"/>
-    </row>
-    <row r="56" spans="1:1">
-      <c r="A56" s="100"/>
-    </row>
-  </sheetData>
-  <mergeCells count="3">
-    <mergeCell ref="A16:H16"/>
-    <mergeCell ref="B34:D34"/>
-    <mergeCell ref="F34:H34"/>
-  </mergeCells>
-  <phoneticPr fontId="3" type="noConversion"/>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
-  <headerFooter alignWithMargins="0"/>
-  <drawing r:id="rId2"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:J27"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A16" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="D24" sqref="D24"/>
+    <sheetView showGridLines="0" topLeftCell="A2" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -16698,17 +16516,17 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:10" ht="47.25" customHeight="1">
-      <c r="B1" s="129" t="s">
+      <c r="B1" s="109" t="s">
         <v>13</v>
       </c>
-      <c r="C1" s="130"/>
-      <c r="D1" s="130"/>
-      <c r="E1" s="130"/>
-      <c r="F1" s="130"/>
-      <c r="G1" s="130"/>
-      <c r="H1" s="130"/>
-      <c r="I1" s="130"/>
-      <c r="J1" s="130"/>
+      <c r="C1" s="110"/>
+      <c r="D1" s="110"/>
+      <c r="E1" s="110"/>
+      <c r="F1" s="110"/>
+      <c r="G1" s="110"/>
+      <c r="H1" s="110"/>
+      <c r="I1" s="110"/>
+      <c r="J1" s="110"/>
     </row>
     <row r="2" spans="2:10" ht="7.5" customHeight="1">
       <c r="B2" s="2"/>
@@ -16725,732 +16543,328 @@
       <c r="B3" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="C3" s="6"/>
-      <c r="D3" s="7" t="s">
+      <c r="C3" s="102" t="s">
+        <v>86</v>
+      </c>
+      <c r="D3" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="E3" s="7"/>
-      <c r="F3" s="7" t="s">
+      <c r="E3" s="103">
+        <v>42954</v>
+      </c>
+      <c r="F3" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="G3" s="8"/>
-      <c r="H3" s="44" t="s">
+      <c r="G3" s="104" t="s">
+        <v>85</v>
+      </c>
+      <c r="H3" s="43" t="s">
         <v>17</v>
       </c>
-      <c r="I3" s="9"/>
-      <c r="J3" s="8"/>
-    </row>
-    <row r="4" spans="2:10" s="10" customFormat="1" ht="20.100000000000001" customHeight="1">
-      <c r="B4" s="11" t="s">
+      <c r="I3" s="8"/>
+      <c r="J3" s="7"/>
+    </row>
+    <row r="4" spans="2:10" s="9" customFormat="1" ht="20.100000000000001" customHeight="1">
+      <c r="B4" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="C4" s="12"/>
-      <c r="D4" s="12"/>
-      <c r="E4" s="12"/>
-      <c r="F4" s="12"/>
-      <c r="G4" s="12"/>
-      <c r="H4" s="12"/>
-      <c r="I4" s="12"/>
-      <c r="J4" s="13"/>
-    </row>
-    <row r="5" spans="2:10" s="14" customFormat="1" ht="20.100000000000001" customHeight="1">
-      <c r="B5" s="15" t="s">
+      <c r="C4" s="11"/>
+      <c r="D4" s="11"/>
+      <c r="E4" s="11"/>
+      <c r="F4" s="11"/>
+      <c r="G4" s="11"/>
+      <c r="H4" s="11"/>
+      <c r="I4" s="11"/>
+      <c r="J4" s="12"/>
+    </row>
+    <row r="5" spans="2:10" s="13" customFormat="1" ht="20.100000000000001" customHeight="1">
+      <c r="B5" s="14" t="s">
         <v>1</v>
       </c>
-      <c r="C5" s="144" t="s">
-        <v>50</v>
-      </c>
-      <c r="D5" s="131"/>
-      <c r="E5" s="131"/>
-      <c r="F5" s="131"/>
-      <c r="G5" s="131"/>
-      <c r="H5" s="131"/>
-      <c r="I5" s="131"/>
-      <c r="J5" s="132"/>
-    </row>
-    <row r="6" spans="2:10" s="14" customFormat="1" ht="20.100000000000001" customHeight="1">
-      <c r="B6" s="16" t="s">
+      <c r="C5" s="151" t="s">
+        <v>72</v>
+      </c>
+      <c r="D5" s="112"/>
+      <c r="E5" s="112"/>
+      <c r="F5" s="112"/>
+      <c r="G5" s="112"/>
+      <c r="H5" s="112"/>
+      <c r="I5" s="112"/>
+      <c r="J5" s="113"/>
+    </row>
+    <row r="6" spans="2:10" s="13" customFormat="1" ht="20.100000000000001" customHeight="1">
+      <c r="B6" s="15" t="s">
         <v>2</v>
       </c>
-      <c r="C6" s="142">
-        <v>42948</v>
-      </c>
-      <c r="D6" s="133"/>
-      <c r="E6" s="133"/>
-      <c r="F6" s="133"/>
-      <c r="G6" s="133"/>
-      <c r="H6" s="133"/>
-      <c r="I6" s="133"/>
-      <c r="J6" s="134"/>
-    </row>
-    <row r="7" spans="2:10" s="14" customFormat="1" ht="20.100000000000001" customHeight="1">
-      <c r="B7" s="17" t="s">
+      <c r="C6" s="114">
+        <v>42954</v>
+      </c>
+      <c r="D6" s="115"/>
+      <c r="E6" s="115"/>
+      <c r="F6" s="115"/>
+      <c r="G6" s="115"/>
+      <c r="H6" s="115"/>
+      <c r="I6" s="115"/>
+      <c r="J6" s="116"/>
+    </row>
+    <row r="7" spans="2:10" s="13" customFormat="1" ht="20.100000000000001" customHeight="1">
+      <c r="B7" s="16" t="s">
         <v>3</v>
       </c>
-      <c r="C7" s="143">
-        <v>42948</v>
-      </c>
-      <c r="D7" s="138"/>
-      <c r="E7" s="138"/>
-      <c r="F7" s="138"/>
-      <c r="G7" s="138"/>
-      <c r="H7" s="138"/>
-      <c r="I7" s="138"/>
-      <c r="J7" s="139"/>
-    </row>
-    <row r="8" spans="2:10" s="10" customFormat="1" ht="20.100000000000001" customHeight="1">
-      <c r="B8" s="18" t="s">
+      <c r="C7" s="120">
+        <v>42954</v>
+      </c>
+      <c r="D7" s="121"/>
+      <c r="E7" s="121"/>
+      <c r="F7" s="121"/>
+      <c r="G7" s="121"/>
+      <c r="H7" s="121"/>
+      <c r="I7" s="121"/>
+      <c r="J7" s="122"/>
+    </row>
+    <row r="8" spans="2:10" s="9" customFormat="1" ht="20.100000000000001" customHeight="1">
+      <c r="B8" s="17" t="s">
         <v>19</v>
       </c>
-      <c r="C8" s="19"/>
-      <c r="D8" s="19"/>
-      <c r="E8" s="19"/>
-      <c r="F8" s="19"/>
-      <c r="G8" s="19"/>
-      <c r="H8" s="19"/>
-      <c r="I8" s="19"/>
-      <c r="J8" s="20"/>
-    </row>
-    <row r="9" spans="2:10" s="21" customFormat="1" ht="20.100000000000001" customHeight="1">
-      <c r="B9" s="33" t="s">
+      <c r="C8" s="18"/>
+      <c r="D8" s="18"/>
+      <c r="E8" s="18"/>
+      <c r="F8" s="18"/>
+      <c r="G8" s="18"/>
+      <c r="H8" s="18"/>
+      <c r="I8" s="18"/>
+      <c r="J8" s="19"/>
+    </row>
+    <row r="9" spans="2:10" s="20" customFormat="1" ht="20.100000000000001" customHeight="1">
+      <c r="B9" s="32" t="s">
         <v>7</v>
       </c>
-      <c r="C9" s="135" t="s">
+      <c r="C9" s="117" t="s">
         <v>4</v>
       </c>
-      <c r="D9" s="136"/>
-      <c r="E9" s="137"/>
-      <c r="F9" s="42" t="s">
+      <c r="D9" s="118"/>
+      <c r="E9" s="119"/>
+      <c r="F9" s="41" t="s">
         <v>11</v>
       </c>
-      <c r="G9" s="135" t="s">
+      <c r="G9" s="117" t="s">
         <v>8</v>
       </c>
-      <c r="H9" s="136"/>
-      <c r="I9" s="137"/>
-      <c r="J9" s="34" t="s">
+      <c r="H9" s="118"/>
+      <c r="I9" s="119"/>
+      <c r="J9" s="33" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="10" spans="2:10" s="22" customFormat="1" ht="20.100000000000001" customHeight="1">
-      <c r="B10" s="37">
+    <row r="10" spans="2:10" s="21" customFormat="1" ht="20.100000000000001" customHeight="1">
+      <c r="B10" s="36">
         <v>1</v>
       </c>
-      <c r="C10" s="140" t="s">
-        <v>49</v>
-      </c>
-      <c r="D10" s="119"/>
-      <c r="E10" s="119"/>
-      <c r="F10" s="35">
+      <c r="C10" s="152" t="s">
+        <v>73</v>
+      </c>
+      <c r="D10" s="129"/>
+      <c r="E10" s="129"/>
+      <c r="F10" s="34">
+        <v>5</v>
+      </c>
+      <c r="G10" s="126" t="s">
+        <v>57</v>
+      </c>
+      <c r="H10" s="127"/>
+      <c r="I10" s="128"/>
+      <c r="J10" s="100" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="11" spans="2:10" s="21" customFormat="1" ht="20.100000000000001" customHeight="1">
+      <c r="B11" s="36">
         <v>2</v>
       </c>
-      <c r="G10" s="120" t="s">
-        <v>51</v>
-      </c>
-      <c r="H10" s="121"/>
-      <c r="I10" s="122"/>
-      <c r="J10" s="141" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="11" spans="2:10" s="22" customFormat="1" ht="20.100000000000001" customHeight="1">
-      <c r="B11" s="37">
+      <c r="C11" s="148" t="s">
+        <v>71</v>
+      </c>
+      <c r="D11" s="149"/>
+      <c r="E11" s="150"/>
+      <c r="F11" s="34">
+        <v>3</v>
+      </c>
+      <c r="G11" s="126"/>
+      <c r="H11" s="127"/>
+      <c r="I11" s="128"/>
+      <c r="J11" s="100" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="12" spans="2:10" s="21" customFormat="1" ht="20.100000000000001" customHeight="1">
+      <c r="B12" s="37">
+        <v>3</v>
+      </c>
+      <c r="C12" s="152" t="s">
+        <v>75</v>
+      </c>
+      <c r="D12" s="129"/>
+      <c r="E12" s="129"/>
+      <c r="F12" s="34">
         <v>2</v>
       </c>
-      <c r="C11" s="140" t="s">
-        <v>45</v>
-      </c>
-      <c r="D11" s="119"/>
-      <c r="E11" s="119"/>
-      <c r="F11" s="35">
-        <v>3</v>
-      </c>
-      <c r="G11" s="120" t="s">
-        <v>52</v>
-      </c>
-      <c r="H11" s="121"/>
-      <c r="I11" s="122"/>
-      <c r="J11" s="141" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="12" spans="2:10" s="22" customFormat="1" ht="20.100000000000001" customHeight="1">
-      <c r="B12" s="38">
-        <v>3</v>
-      </c>
-      <c r="C12" s="140" t="s">
-        <v>46</v>
-      </c>
-      <c r="D12" s="119"/>
-      <c r="E12" s="119"/>
-      <c r="F12" s="35">
-        <v>3</v>
-      </c>
-      <c r="G12" s="120" t="s">
-        <v>52</v>
-      </c>
-      <c r="H12" s="121"/>
-      <c r="I12" s="122"/>
-      <c r="J12" s="141" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="13" spans="2:10" s="22" customFormat="1" ht="20.100000000000001" customHeight="1">
-      <c r="B13" s="37">
+      <c r="G12" s="126" t="s">
+        <v>76</v>
+      </c>
+      <c r="H12" s="127"/>
+      <c r="I12" s="128"/>
+      <c r="J12" s="101" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="13" spans="2:10" s="21" customFormat="1" ht="20.100000000000001" customHeight="1">
+      <c r="B13" s="36">
         <v>4</v>
       </c>
-      <c r="C13" s="119"/>
-      <c r="D13" s="119"/>
-      <c r="E13" s="119"/>
-      <c r="F13" s="35"/>
-      <c r="G13" s="120"/>
-      <c r="H13" s="121"/>
-      <c r="I13" s="122"/>
-      <c r="J13" s="36"/>
-    </row>
-    <row r="14" spans="2:10" s="22" customFormat="1" ht="20.100000000000001" customHeight="1">
-      <c r="B14" s="37">
+      <c r="C13" s="129"/>
+      <c r="D13" s="129"/>
+      <c r="E13" s="129"/>
+      <c r="F13" s="34"/>
+      <c r="G13" s="126"/>
+      <c r="H13" s="127"/>
+      <c r="I13" s="128"/>
+      <c r="J13" s="35"/>
+    </row>
+    <row r="14" spans="2:10" s="21" customFormat="1" ht="20.100000000000001" customHeight="1">
+      <c r="B14" s="36">
         <v>5</v>
       </c>
-      <c r="C14" s="119"/>
-      <c r="D14" s="119"/>
-      <c r="E14" s="119"/>
-      <c r="F14" s="35"/>
-      <c r="G14" s="120"/>
-      <c r="H14" s="121"/>
-      <c r="I14" s="122"/>
-      <c r="J14" s="36"/>
-    </row>
-    <row r="15" spans="2:10" s="22" customFormat="1" ht="20.100000000000001" customHeight="1">
-      <c r="B15" s="38">
+      <c r="C14" s="129"/>
+      <c r="D14" s="129"/>
+      <c r="E14" s="129"/>
+      <c r="F14" s="34"/>
+      <c r="G14" s="126"/>
+      <c r="H14" s="127"/>
+      <c r="I14" s="128"/>
+      <c r="J14" s="35"/>
+    </row>
+    <row r="15" spans="2:10" s="21" customFormat="1" ht="20.100000000000001" customHeight="1">
+      <c r="B15" s="37">
         <v>6</v>
       </c>
-      <c r="C15" s="119"/>
-      <c r="D15" s="119"/>
-      <c r="E15" s="119"/>
-      <c r="F15" s="35"/>
-      <c r="G15" s="120"/>
-      <c r="H15" s="121"/>
-      <c r="I15" s="122"/>
-      <c r="J15" s="36"/>
-    </row>
-    <row r="16" spans="2:10" s="22" customFormat="1" ht="20.100000000000001" customHeight="1">
-      <c r="B16" s="37">
+      <c r="C15" s="129"/>
+      <c r="D15" s="129"/>
+      <c r="E15" s="129"/>
+      <c r="F15" s="34"/>
+      <c r="G15" s="126"/>
+      <c r="H15" s="127"/>
+      <c r="I15" s="128"/>
+      <c r="J15" s="35"/>
+    </row>
+    <row r="16" spans="2:10" s="21" customFormat="1" ht="20.100000000000001" customHeight="1">
+      <c r="B16" s="36">
         <v>7</v>
       </c>
-      <c r="C16" s="119"/>
-      <c r="D16" s="119"/>
-      <c r="E16" s="119"/>
-      <c r="F16" s="35"/>
-      <c r="G16" s="120"/>
-      <c r="H16" s="121"/>
-      <c r="I16" s="122"/>
-      <c r="J16" s="36"/>
-    </row>
-    <row r="17" spans="2:10" s="22" customFormat="1" ht="20.100000000000001" customHeight="1">
-      <c r="B17" s="126" t="s">
+      <c r="C16" s="129"/>
+      <c r="D16" s="129"/>
+      <c r="E16" s="129"/>
+      <c r="F16" s="34"/>
+      <c r="G16" s="126"/>
+      <c r="H16" s="127"/>
+      <c r="I16" s="128"/>
+      <c r="J16" s="35"/>
+    </row>
+    <row r="17" spans="2:10" s="21" customFormat="1" ht="20.100000000000001" customHeight="1">
+      <c r="B17" s="130" t="s">
         <v>18</v>
       </c>
-      <c r="C17" s="127"/>
-      <c r="D17" s="127"/>
-      <c r="E17" s="128"/>
-      <c r="F17" s="45">
+      <c r="C17" s="131"/>
+      <c r="D17" s="131"/>
+      <c r="E17" s="132"/>
+      <c r="F17" s="44">
         <f>SUM(F10:F16)</f>
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="G17" s="123"/>
       <c r="H17" s="124"/>
       <c r="I17" s="125"/>
-      <c r="J17" s="46"/>
-    </row>
-    <row r="18" spans="2:10" s="10" customFormat="1" ht="22.5" customHeight="1">
-      <c r="B18" s="18" t="s">
+      <c r="J17" s="45"/>
+    </row>
+    <row r="18" spans="2:10" s="9" customFormat="1" ht="22.5" customHeight="1">
+      <c r="B18" s="17" t="s">
         <v>5</v>
       </c>
-      <c r="C18" s="19"/>
-      <c r="D18" s="19"/>
-      <c r="E18" s="19"/>
-      <c r="F18" s="19"/>
-      <c r="G18" s="19"/>
-      <c r="H18" s="19"/>
-      <c r="I18" s="19"/>
-      <c r="J18" s="20"/>
-    </row>
-    <row r="19" spans="2:10" s="10" customFormat="1" ht="20.100000000000001" customHeight="1">
-      <c r="B19" s="33" t="s">
+      <c r="C18" s="18"/>
+      <c r="D18" s="18"/>
+      <c r="E18" s="18"/>
+      <c r="F18" s="18"/>
+      <c r="G18" s="18"/>
+      <c r="H18" s="18"/>
+      <c r="I18" s="18"/>
+      <c r="J18" s="19"/>
+    </row>
+    <row r="19" spans="2:10" s="9" customFormat="1" ht="20.100000000000001" customHeight="1">
+      <c r="B19" s="32" t="s">
         <v>7</v>
       </c>
-      <c r="C19" s="108" t="s">
+      <c r="C19" s="137" t="s">
         <v>20</v>
       </c>
-      <c r="D19" s="108"/>
-      <c r="E19" s="113" t="s">
+      <c r="D19" s="137"/>
+      <c r="E19" s="142" t="s">
         <v>21</v>
       </c>
-      <c r="F19" s="114"/>
-      <c r="G19" s="114"/>
-      <c r="H19" s="114"/>
-      <c r="I19" s="114"/>
-      <c r="J19" s="115"/>
-    </row>
-    <row r="20" spans="2:10" s="10" customFormat="1" ht="20.100000000000001" customHeight="1">
-      <c r="B20" s="39">
+      <c r="F19" s="143"/>
+      <c r="G19" s="143"/>
+      <c r="H19" s="143"/>
+      <c r="I19" s="143"/>
+      <c r="J19" s="144"/>
+    </row>
+    <row r="20" spans="2:10" s="9" customFormat="1" ht="20.100000000000001" customHeight="1">
+      <c r="B20" s="38">
         <v>1</v>
       </c>
-      <c r="C20" s="111"/>
-      <c r="D20" s="112"/>
-      <c r="E20" s="116"/>
-      <c r="F20" s="117"/>
-      <c r="G20" s="117"/>
-      <c r="H20" s="117"/>
-      <c r="I20" s="117"/>
-      <c r="J20" s="118"/>
-    </row>
-    <row r="21" spans="2:10" s="10" customFormat="1" ht="20.100000000000001" customHeight="1">
-      <c r="B21" s="40">
+      <c r="C20" s="140"/>
+      <c r="D20" s="141"/>
+      <c r="E20" s="145"/>
+      <c r="F20" s="146"/>
+      <c r="G20" s="146"/>
+      <c r="H20" s="146"/>
+      <c r="I20" s="146"/>
+      <c r="J20" s="147"/>
+    </row>
+    <row r="21" spans="2:10" s="9" customFormat="1" ht="20.100000000000001" customHeight="1">
+      <c r="B21" s="39">
         <v>2</v>
       </c>
-      <c r="C21" s="111"/>
-      <c r="D21" s="112"/>
-      <c r="E21" s="116"/>
-      <c r="F21" s="117"/>
-      <c r="G21" s="117"/>
-      <c r="H21" s="117"/>
-      <c r="I21" s="117"/>
-      <c r="J21" s="118"/>
-    </row>
-    <row r="22" spans="2:10" s="10" customFormat="1" ht="20.100000000000001" customHeight="1" thickBot="1">
-      <c r="B22" s="41">
+      <c r="C21" s="140"/>
+      <c r="D21" s="141"/>
+      <c r="E21" s="145"/>
+      <c r="F21" s="146"/>
+      <c r="G21" s="146"/>
+      <c r="H21" s="146"/>
+      <c r="I21" s="146"/>
+      <c r="J21" s="147"/>
+    </row>
+    <row r="22" spans="2:10" s="9" customFormat="1" ht="20.100000000000001" customHeight="1" thickBot="1">
+      <c r="B22" s="40">
         <v>3</v>
       </c>
-      <c r="C22" s="109"/>
-      <c r="D22" s="110"/>
-      <c r="E22" s="105"/>
-      <c r="F22" s="106"/>
-      <c r="G22" s="106"/>
-      <c r="H22" s="106"/>
-      <c r="I22" s="106"/>
-      <c r="J22" s="107"/>
+      <c r="C22" s="138"/>
+      <c r="D22" s="139"/>
+      <c r="E22" s="134"/>
+      <c r="F22" s="135"/>
+      <c r="G22" s="135"/>
+      <c r="H22" s="135"/>
+      <c r="I22" s="135"/>
+      <c r="J22" s="136"/>
     </row>
     <row r="24" spans="2:10">
-      <c r="B24" s="43"/>
+      <c r="B24" s="42"/>
     </row>
     <row r="25" spans="2:10">
-      <c r="B25" s="43"/>
+      <c r="B25" s="42"/>
     </row>
     <row r="26" spans="2:10">
-      <c r="B26" s="43"/>
+      <c r="B26" s="42"/>
     </row>
     <row r="27" spans="2:10">
-      <c r="B27" s="43"/>
-    </row>
-  </sheetData>
-  <mergeCells count="30">
-    <mergeCell ref="B1:J1"/>
-    <mergeCell ref="C5:J5"/>
-    <mergeCell ref="C6:J6"/>
-    <mergeCell ref="C9:E9"/>
-    <mergeCell ref="C7:J7"/>
-    <mergeCell ref="G9:I9"/>
-    <mergeCell ref="G17:I17"/>
-    <mergeCell ref="G15:I15"/>
-    <mergeCell ref="G16:I16"/>
-    <mergeCell ref="C16:E16"/>
-    <mergeCell ref="G12:I12"/>
-    <mergeCell ref="C14:E14"/>
-    <mergeCell ref="B17:E17"/>
-    <mergeCell ref="C15:E15"/>
-    <mergeCell ref="C10:E10"/>
-    <mergeCell ref="C11:E11"/>
-    <mergeCell ref="G13:I13"/>
-    <mergeCell ref="G14:I14"/>
-    <mergeCell ref="G10:I10"/>
-    <mergeCell ref="G11:I11"/>
-    <mergeCell ref="C12:E12"/>
-    <mergeCell ref="C13:E13"/>
-    <mergeCell ref="E22:J22"/>
-    <mergeCell ref="C19:D19"/>
-    <mergeCell ref="C22:D22"/>
-    <mergeCell ref="C20:D20"/>
-    <mergeCell ref="C21:D21"/>
-    <mergeCell ref="E19:J19"/>
-    <mergeCell ref="E20:J20"/>
-    <mergeCell ref="E21:J21"/>
-  </mergeCells>
-  <phoneticPr fontId="3" type="noConversion"/>
-  <dataValidations count="3">
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="计划调整时，请保留原来的计划。以类似如下格式修改“2005/1/12-〉1/15”。" sqref="B6"/>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="对于已完成的关键任务，请将背景标记为淡黄色。" sqref="B5"/>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="说明：" prompt="对整个项目周期中本模块的关键任务或里程碑进行跟踪。" sqref="B4"/>
-  </dataValidations>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup paperSize="9" scale="85" orientation="landscape" r:id="rId1"/>
-  <headerFooter alignWithMargins="0"/>
-  <drawing r:id="rId2"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B1:J27"/>
-  <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A4" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="G10" sqref="G10:I10"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <cols>
-    <col min="1" max="1" width="1.25" style="1" customWidth="1"/>
-    <col min="2" max="2" width="9.125" style="1" customWidth="1"/>
-    <col min="3" max="3" width="19.625" style="1" customWidth="1"/>
-    <col min="4" max="4" width="6.25" style="1" customWidth="1"/>
-    <col min="5" max="5" width="22.5" style="1" customWidth="1"/>
-    <col min="6" max="6" width="14.375" style="1" customWidth="1"/>
-    <col min="7" max="7" width="25.25" style="1" customWidth="1"/>
-    <col min="8" max="8" width="7.75" style="1" customWidth="1"/>
-    <col min="9" max="9" width="16.875" style="1" customWidth="1"/>
-    <col min="10" max="10" width="12.5" style="1" customWidth="1"/>
-    <col min="11" max="16384" width="9" style="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="2:10" ht="47.25" customHeight="1">
-      <c r="B1" s="129" t="s">
-        <v>13</v>
-      </c>
-      <c r="C1" s="130"/>
-      <c r="D1" s="130"/>
-      <c r="E1" s="130"/>
-      <c r="F1" s="130"/>
-      <c r="G1" s="130"/>
-      <c r="H1" s="130"/>
-      <c r="I1" s="130"/>
-      <c r="J1" s="130"/>
-    </row>
-    <row r="2" spans="2:10" ht="7.5" customHeight="1">
-      <c r="B2" s="2"/>
-      <c r="C2" s="3"/>
-      <c r="D2" s="3"/>
-      <c r="E2" s="3"/>
-      <c r="F2" s="3"/>
-      <c r="G2" s="3"/>
-      <c r="H2" s="3"/>
-      <c r="I2" s="3"/>
-      <c r="J2" s="3"/>
-    </row>
-    <row r="3" spans="2:10" s="4" customFormat="1" ht="21" customHeight="1" thickBot="1">
-      <c r="B3" s="5" t="s">
-        <v>0</v>
-      </c>
-      <c r="C3" s="6"/>
-      <c r="D3" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="E3" s="7"/>
-      <c r="F3" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="G3" s="8"/>
-      <c r="H3" s="44" t="s">
-        <v>17</v>
-      </c>
-      <c r="I3" s="9"/>
-      <c r="J3" s="8"/>
-    </row>
-    <row r="4" spans="2:10" s="10" customFormat="1" ht="20.100000000000001" customHeight="1">
-      <c r="B4" s="11" t="s">
-        <v>6</v>
-      </c>
-      <c r="C4" s="12"/>
-      <c r="D4" s="12"/>
-      <c r="E4" s="12"/>
-      <c r="F4" s="12"/>
-      <c r="G4" s="12"/>
-      <c r="H4" s="12"/>
-      <c r="I4" s="12"/>
-      <c r="J4" s="13"/>
-    </row>
-    <row r="5" spans="2:10" s="14" customFormat="1" ht="20.100000000000001" customHeight="1">
-      <c r="B5" s="15" t="s">
-        <v>1</v>
-      </c>
-      <c r="C5" s="144" t="s">
-        <v>53</v>
-      </c>
-      <c r="D5" s="131"/>
-      <c r="E5" s="131"/>
-      <c r="F5" s="131"/>
-      <c r="G5" s="131"/>
-      <c r="H5" s="131"/>
-      <c r="I5" s="131"/>
-      <c r="J5" s="132"/>
-    </row>
-    <row r="6" spans="2:10" s="14" customFormat="1" ht="20.100000000000001" customHeight="1">
-      <c r="B6" s="16" t="s">
-        <v>2</v>
-      </c>
-      <c r="C6" s="142">
-        <v>42949</v>
-      </c>
-      <c r="D6" s="133"/>
-      <c r="E6" s="133"/>
-      <c r="F6" s="133"/>
-      <c r="G6" s="133"/>
-      <c r="H6" s="133"/>
-      <c r="I6" s="133"/>
-      <c r="J6" s="134"/>
-    </row>
-    <row r="7" spans="2:10" s="14" customFormat="1" ht="20.100000000000001" customHeight="1">
-      <c r="B7" s="17" t="s">
-        <v>3</v>
-      </c>
-      <c r="C7" s="143">
-        <v>42949</v>
-      </c>
-      <c r="D7" s="138"/>
-      <c r="E7" s="138"/>
-      <c r="F7" s="138"/>
-      <c r="G7" s="138"/>
-      <c r="H7" s="138"/>
-      <c r="I7" s="138"/>
-      <c r="J7" s="139"/>
-    </row>
-    <row r="8" spans="2:10" s="10" customFormat="1" ht="20.100000000000001" customHeight="1">
-      <c r="B8" s="18" t="s">
-        <v>19</v>
-      </c>
-      <c r="C8" s="19"/>
-      <c r="D8" s="19"/>
-      <c r="E8" s="19"/>
-      <c r="F8" s="19"/>
-      <c r="G8" s="19"/>
-      <c r="H8" s="19"/>
-      <c r="I8" s="19"/>
-      <c r="J8" s="20"/>
-    </row>
-    <row r="9" spans="2:10" s="21" customFormat="1" ht="20.100000000000001" customHeight="1">
-      <c r="B9" s="33" t="s">
-        <v>7</v>
-      </c>
-      <c r="C9" s="135" t="s">
-        <v>4</v>
-      </c>
-      <c r="D9" s="136"/>
-      <c r="E9" s="137"/>
-      <c r="F9" s="42" t="s">
-        <v>11</v>
-      </c>
-      <c r="G9" s="135" t="s">
-        <v>8</v>
-      </c>
-      <c r="H9" s="136"/>
-      <c r="I9" s="137"/>
-      <c r="J9" s="34" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="10" spans="2:10" s="22" customFormat="1" ht="20.100000000000001" customHeight="1">
-      <c r="B10" s="37">
-        <v>1</v>
-      </c>
-      <c r="C10" s="140" t="s">
-        <v>55</v>
-      </c>
-      <c r="D10" s="119"/>
-      <c r="E10" s="119"/>
-      <c r="F10" s="35">
-        <v>2</v>
-      </c>
-      <c r="G10" s="120" t="s">
-        <v>56</v>
-      </c>
-      <c r="H10" s="121"/>
-      <c r="I10" s="122"/>
-      <c r="J10" s="141" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="11" spans="2:10" s="22" customFormat="1" ht="20.100000000000001" customHeight="1">
-      <c r="B11" s="37">
-        <v>2</v>
-      </c>
-      <c r="C11" s="140" t="s">
-        <v>54</v>
-      </c>
-      <c r="D11" s="119"/>
-      <c r="E11" s="119"/>
-      <c r="F11" s="35">
-        <v>5</v>
-      </c>
-      <c r="G11" s="120" t="s">
-        <v>52</v>
-      </c>
-      <c r="H11" s="121"/>
-      <c r="I11" s="122"/>
-      <c r="J11" s="141" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="12" spans="2:10" s="22" customFormat="1" ht="20.100000000000001" customHeight="1">
-      <c r="B12" s="38">
-        <v>3</v>
-      </c>
-      <c r="C12" s="140"/>
-      <c r="D12" s="119"/>
-      <c r="E12" s="119"/>
-      <c r="F12" s="35"/>
-      <c r="G12" s="120"/>
-      <c r="H12" s="121"/>
-      <c r="I12" s="122"/>
-      <c r="J12" s="141"/>
-    </row>
-    <row r="13" spans="2:10" s="22" customFormat="1" ht="20.100000000000001" customHeight="1">
-      <c r="B13" s="37">
-        <v>4</v>
-      </c>
-      <c r="C13" s="119"/>
-      <c r="D13" s="119"/>
-      <c r="E13" s="119"/>
-      <c r="F13" s="35"/>
-      <c r="G13" s="120"/>
-      <c r="H13" s="121"/>
-      <c r="I13" s="122"/>
-      <c r="J13" s="36"/>
-    </row>
-    <row r="14" spans="2:10" s="22" customFormat="1" ht="20.100000000000001" customHeight="1">
-      <c r="B14" s="37">
-        <v>5</v>
-      </c>
-      <c r="C14" s="119"/>
-      <c r="D14" s="119"/>
-      <c r="E14" s="119"/>
-      <c r="F14" s="35"/>
-      <c r="G14" s="120"/>
-      <c r="H14" s="121"/>
-      <c r="I14" s="122"/>
-      <c r="J14" s="36"/>
-    </row>
-    <row r="15" spans="2:10" s="22" customFormat="1" ht="20.100000000000001" customHeight="1">
-      <c r="B15" s="38">
-        <v>6</v>
-      </c>
-      <c r="C15" s="119"/>
-      <c r="D15" s="119"/>
-      <c r="E15" s="119"/>
-      <c r="F15" s="35"/>
-      <c r="G15" s="120"/>
-      <c r="H15" s="121"/>
-      <c r="I15" s="122"/>
-      <c r="J15" s="36"/>
-    </row>
-    <row r="16" spans="2:10" s="22" customFormat="1" ht="20.100000000000001" customHeight="1">
-      <c r="B16" s="37">
-        <v>7</v>
-      </c>
-      <c r="C16" s="119"/>
-      <c r="D16" s="119"/>
-      <c r="E16" s="119"/>
-      <c r="F16" s="35"/>
-      <c r="G16" s="120"/>
-      <c r="H16" s="121"/>
-      <c r="I16" s="122"/>
-      <c r="J16" s="36"/>
-    </row>
-    <row r="17" spans="2:10" s="22" customFormat="1" ht="20.100000000000001" customHeight="1">
-      <c r="B17" s="126" t="s">
-        <v>18</v>
-      </c>
-      <c r="C17" s="127"/>
-      <c r="D17" s="127"/>
-      <c r="E17" s="128"/>
-      <c r="F17" s="45">
-        <f>SUM(F10:F16)</f>
-        <v>7</v>
-      </c>
-      <c r="G17" s="123"/>
-      <c r="H17" s="124"/>
-      <c r="I17" s="125"/>
-      <c r="J17" s="46"/>
-    </row>
-    <row r="18" spans="2:10" s="10" customFormat="1" ht="22.5" customHeight="1">
-      <c r="B18" s="18" t="s">
-        <v>5</v>
-      </c>
-      <c r="C18" s="19"/>
-      <c r="D18" s="19"/>
-      <c r="E18" s="19"/>
-      <c r="F18" s="19"/>
-      <c r="G18" s="19"/>
-      <c r="H18" s="19"/>
-      <c r="I18" s="19"/>
-      <c r="J18" s="20"/>
-    </row>
-    <row r="19" spans="2:10" s="10" customFormat="1" ht="20.100000000000001" customHeight="1">
-      <c r="B19" s="33" t="s">
-        <v>7</v>
-      </c>
-      <c r="C19" s="108" t="s">
-        <v>20</v>
-      </c>
-      <c r="D19" s="108"/>
-      <c r="E19" s="113" t="s">
-        <v>21</v>
-      </c>
-      <c r="F19" s="114"/>
-      <c r="G19" s="114"/>
-      <c r="H19" s="114"/>
-      <c r="I19" s="114"/>
-      <c r="J19" s="115"/>
-    </row>
-    <row r="20" spans="2:10" s="10" customFormat="1" ht="20.100000000000001" customHeight="1">
-      <c r="B20" s="39">
-        <v>1</v>
-      </c>
-      <c r="C20" s="111"/>
-      <c r="D20" s="112"/>
-      <c r="E20" s="116"/>
-      <c r="F20" s="117"/>
-      <c r="G20" s="117"/>
-      <c r="H20" s="117"/>
-      <c r="I20" s="117"/>
-      <c r="J20" s="118"/>
-    </row>
-    <row r="21" spans="2:10" s="10" customFormat="1" ht="20.100000000000001" customHeight="1">
-      <c r="B21" s="40">
-        <v>2</v>
-      </c>
-      <c r="C21" s="111"/>
-      <c r="D21" s="112"/>
-      <c r="E21" s="116"/>
-      <c r="F21" s="117"/>
-      <c r="G21" s="117"/>
-      <c r="H21" s="117"/>
-      <c r="I21" s="117"/>
-      <c r="J21" s="118"/>
-    </row>
-    <row r="22" spans="2:10" s="10" customFormat="1" ht="20.100000000000001" customHeight="1" thickBot="1">
-      <c r="B22" s="41">
-        <v>3</v>
-      </c>
-      <c r="C22" s="109"/>
-      <c r="D22" s="110"/>
-      <c r="E22" s="105"/>
-      <c r="F22" s="106"/>
-      <c r="G22" s="106"/>
-      <c r="H22" s="106"/>
-      <c r="I22" s="106"/>
-      <c r="J22" s="107"/>
-    </row>
-    <row r="24" spans="2:10">
-      <c r="B24" s="43"/>
-    </row>
-    <row r="25" spans="2:10">
-      <c r="B25" s="43"/>
-    </row>
-    <row r="26" spans="2:10">
-      <c r="B26" s="43"/>
-    </row>
-    <row r="27" spans="2:10">
-      <c r="B27" s="43"/>
+      <c r="B27" s="42"/>
     </row>
   </sheetData>
   <mergeCells count="30">
@@ -17485,11 +16899,11 @@
     <mergeCell ref="C9:E9"/>
     <mergeCell ref="G9:I9"/>
   </mergeCells>
-  <phoneticPr fontId="63" type="noConversion"/>
+  <phoneticPr fontId="3" type="noConversion"/>
   <dataValidations count="3">
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="计划调整时，请保留原来的计划。以类似如下格式修改“2005/1/12-〉1/15”。" sqref="B6"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="对于已完成的关键任务，请将背景标记为淡黄色。" sqref="B5"/>
     <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="说明：" prompt="对整个项目周期中本模块的关键任务或里程碑进行跟踪。" sqref="B4"/>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="对于已完成的关键任务，请将背景标记为淡黄色。" sqref="B5"/>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="计划调整时，请保留原来的计划。以类似如下格式修改“2005/1/12-〉1/15”。" sqref="B6"/>
   </dataValidations>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" scale="85" orientation="landscape" r:id="rId1"/>
@@ -17498,12 +16912,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:J27"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="C13" sqref="C13:E13"/>
+      <selection activeCell="G3" sqref="G3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -17522,17 +16936,17 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:10" ht="47.25" customHeight="1">
-      <c r="B1" s="129" t="s">
+      <c r="B1" s="109" t="s">
         <v>13</v>
       </c>
-      <c r="C1" s="130"/>
-      <c r="D1" s="130"/>
-      <c r="E1" s="130"/>
-      <c r="F1" s="130"/>
-      <c r="G1" s="130"/>
-      <c r="H1" s="130"/>
-      <c r="I1" s="130"/>
-      <c r="J1" s="130"/>
+      <c r="C1" s="110"/>
+      <c r="D1" s="110"/>
+      <c r="E1" s="110"/>
+      <c r="F1" s="110"/>
+      <c r="G1" s="110"/>
+      <c r="H1" s="110"/>
+      <c r="I1" s="110"/>
+      <c r="J1" s="110"/>
     </row>
     <row r="2" spans="2:10" ht="7.5" customHeight="1">
       <c r="B2" s="2"/>
@@ -17549,322 +16963,318 @@
       <c r="B3" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="C3" s="6"/>
-      <c r="D3" s="7" t="s">
+      <c r="C3" s="102" t="s">
+        <v>83</v>
+      </c>
+      <c r="D3" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="E3" s="7"/>
-      <c r="F3" s="7" t="s">
+      <c r="E3" s="103">
+        <v>42955</v>
+      </c>
+      <c r="F3" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="G3" s="8"/>
-      <c r="H3" s="44" t="s">
+      <c r="G3" s="104" t="s">
+        <v>84</v>
+      </c>
+      <c r="H3" s="43" t="s">
         <v>17</v>
       </c>
-      <c r="I3" s="9"/>
-      <c r="J3" s="8"/>
-    </row>
-    <row r="4" spans="2:10" s="10" customFormat="1" ht="20.100000000000001" customHeight="1">
-      <c r="B4" s="11" t="s">
+      <c r="I3" s="8"/>
+      <c r="J3" s="7"/>
+    </row>
+    <row r="4" spans="2:10" s="9" customFormat="1" ht="20.100000000000001" customHeight="1">
+      <c r="B4" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="C4" s="12"/>
-      <c r="D4" s="12"/>
-      <c r="E4" s="12"/>
-      <c r="F4" s="12"/>
-      <c r="G4" s="12"/>
-      <c r="H4" s="12"/>
-      <c r="I4" s="12"/>
-      <c r="J4" s="13"/>
-    </row>
-    <row r="5" spans="2:10" s="14" customFormat="1" ht="20.100000000000001" customHeight="1">
-      <c r="B5" s="15" t="s">
+      <c r="C4" s="11"/>
+      <c r="D4" s="11"/>
+      <c r="E4" s="11"/>
+      <c r="F4" s="11"/>
+      <c r="G4" s="11"/>
+      <c r="H4" s="11"/>
+      <c r="I4" s="11"/>
+      <c r="J4" s="12"/>
+    </row>
+    <row r="5" spans="2:10" s="13" customFormat="1" ht="20.100000000000001" customHeight="1">
+      <c r="B5" s="14" t="s">
         <v>1</v>
       </c>
-      <c r="C5" s="144" t="s">
-        <v>64</v>
-      </c>
-      <c r="D5" s="131"/>
-      <c r="E5" s="131"/>
-      <c r="F5" s="131"/>
-      <c r="G5" s="131"/>
-      <c r="H5" s="131"/>
-      <c r="I5" s="131"/>
-      <c r="J5" s="132"/>
-    </row>
-    <row r="6" spans="2:10" s="14" customFormat="1" ht="20.100000000000001" customHeight="1">
-      <c r="B6" s="16" t="s">
+      <c r="C5" s="151" t="s">
+        <v>77</v>
+      </c>
+      <c r="D5" s="112"/>
+      <c r="E5" s="112"/>
+      <c r="F5" s="112"/>
+      <c r="G5" s="112"/>
+      <c r="H5" s="112"/>
+      <c r="I5" s="112"/>
+      <c r="J5" s="113"/>
+    </row>
+    <row r="6" spans="2:10" s="13" customFormat="1" ht="20.100000000000001" customHeight="1">
+      <c r="B6" s="15" t="s">
         <v>2</v>
       </c>
-      <c r="C6" s="142">
-        <v>42950</v>
-      </c>
-      <c r="D6" s="133"/>
-      <c r="E6" s="133"/>
-      <c r="F6" s="133"/>
-      <c r="G6" s="133"/>
-      <c r="H6" s="133"/>
-      <c r="I6" s="133"/>
-      <c r="J6" s="134"/>
-    </row>
-    <row r="7" spans="2:10" s="14" customFormat="1" ht="20.100000000000001" customHeight="1">
-      <c r="B7" s="17" t="s">
+      <c r="C6" s="114">
+        <v>42955</v>
+      </c>
+      <c r="D6" s="115"/>
+      <c r="E6" s="115"/>
+      <c r="F6" s="115"/>
+      <c r="G6" s="115"/>
+      <c r="H6" s="115"/>
+      <c r="I6" s="115"/>
+      <c r="J6" s="116"/>
+    </row>
+    <row r="7" spans="2:10" s="13" customFormat="1" ht="20.100000000000001" customHeight="1">
+      <c r="B7" s="16" t="s">
         <v>3</v>
       </c>
-      <c r="C7" s="143">
-        <v>42950</v>
-      </c>
-      <c r="D7" s="138"/>
-      <c r="E7" s="138"/>
-      <c r="F7" s="138"/>
-      <c r="G7" s="138"/>
-      <c r="H7" s="138"/>
-      <c r="I7" s="138"/>
-      <c r="J7" s="139"/>
-    </row>
-    <row r="8" spans="2:10" s="10" customFormat="1" ht="20.100000000000001" customHeight="1">
-      <c r="B8" s="18" t="s">
+      <c r="C7" s="120">
+        <v>42955</v>
+      </c>
+      <c r="D7" s="121"/>
+      <c r="E7" s="121"/>
+      <c r="F7" s="121"/>
+      <c r="G7" s="121"/>
+      <c r="H7" s="121"/>
+      <c r="I7" s="121"/>
+      <c r="J7" s="122"/>
+    </row>
+    <row r="8" spans="2:10" s="9" customFormat="1" ht="20.100000000000001" customHeight="1">
+      <c r="B8" s="17" t="s">
         <v>19</v>
       </c>
-      <c r="C8" s="19"/>
-      <c r="D8" s="19"/>
-      <c r="E8" s="19"/>
-      <c r="F8" s="19"/>
-      <c r="G8" s="19"/>
-      <c r="H8" s="19"/>
-      <c r="I8" s="19"/>
-      <c r="J8" s="20"/>
-    </row>
-    <row r="9" spans="2:10" s="21" customFormat="1" ht="20.100000000000001" customHeight="1">
-      <c r="B9" s="33" t="s">
+      <c r="C8" s="18"/>
+      <c r="D8" s="18"/>
+      <c r="E8" s="18"/>
+      <c r="F8" s="18"/>
+      <c r="G8" s="18"/>
+      <c r="H8" s="18"/>
+      <c r="I8" s="18"/>
+      <c r="J8" s="19"/>
+    </row>
+    <row r="9" spans="2:10" s="20" customFormat="1" ht="20.100000000000001" customHeight="1">
+      <c r="B9" s="32" t="s">
         <v>7</v>
       </c>
-      <c r="C9" s="135" t="s">
+      <c r="C9" s="117" t="s">
         <v>4</v>
       </c>
-      <c r="D9" s="136"/>
-      <c r="E9" s="137"/>
-      <c r="F9" s="42" t="s">
+      <c r="D9" s="118"/>
+      <c r="E9" s="119"/>
+      <c r="F9" s="41" t="s">
         <v>11</v>
       </c>
-      <c r="G9" s="135" t="s">
+      <c r="G9" s="117" t="s">
         <v>8</v>
       </c>
-      <c r="H9" s="136"/>
-      <c r="I9" s="137"/>
-      <c r="J9" s="34" t="s">
+      <c r="H9" s="118"/>
+      <c r="I9" s="119"/>
+      <c r="J9" s="33" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="10" spans="2:10" s="22" customFormat="1" ht="20.100000000000001" customHeight="1">
-      <c r="B10" s="37">
+    <row r="10" spans="2:10" s="21" customFormat="1" ht="20.100000000000001" customHeight="1">
+      <c r="B10" s="36">
         <v>1</v>
       </c>
-      <c r="C10" s="140" t="s">
-        <v>63</v>
-      </c>
-      <c r="D10" s="119"/>
-      <c r="E10" s="119"/>
-      <c r="F10" s="35">
+      <c r="C10" s="152" t="s">
+        <v>80</v>
+      </c>
+      <c r="D10" s="129"/>
+      <c r="E10" s="129"/>
+      <c r="F10" s="34">
+        <v>5</v>
+      </c>
+      <c r="G10" s="126"/>
+      <c r="H10" s="127"/>
+      <c r="I10" s="128"/>
+      <c r="J10" s="100" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="11" spans="2:10" s="21" customFormat="1" ht="20.100000000000001" customHeight="1">
+      <c r="B11" s="36">
         <v>2</v>
       </c>
-      <c r="G10" s="120" t="s">
-        <v>57</v>
-      </c>
-      <c r="H10" s="121"/>
-      <c r="I10" s="122"/>
-      <c r="J10" s="141" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="11" spans="2:10" s="22" customFormat="1" ht="20.100000000000001" customHeight="1">
-      <c r="B11" s="37">
-        <v>2</v>
-      </c>
-      <c r="C11" s="140" t="s">
-        <v>64</v>
-      </c>
-      <c r="D11" s="119"/>
-      <c r="E11" s="119"/>
-      <c r="F11" s="35">
+      <c r="C11" s="153" t="s">
+        <v>81</v>
+      </c>
+      <c r="D11" s="149"/>
+      <c r="E11" s="150"/>
+      <c r="F11" s="34">
         <v>3</v>
       </c>
-      <c r="G11" s="120" t="s">
-        <v>52</v>
-      </c>
-      <c r="H11" s="121"/>
-      <c r="I11" s="122"/>
-      <c r="J11" s="141" t="s">
+      <c r="G11" s="126"/>
+      <c r="H11" s="127"/>
+      <c r="I11" s="128"/>
+      <c r="J11" s="100" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="12" spans="2:10" s="22" customFormat="1" ht="20.100000000000001" customHeight="1">
-      <c r="B12" s="38">
+    <row r="12" spans="2:10" s="21" customFormat="1" ht="20.100000000000001" customHeight="1">
+      <c r="B12" s="37">
         <v>3</v>
       </c>
-      <c r="C12" s="140" t="s">
-        <v>58</v>
-      </c>
-      <c r="D12" s="119"/>
-      <c r="E12" s="119"/>
-      <c r="F12" s="35">
-        <v>3</v>
-      </c>
-      <c r="G12" s="120"/>
-      <c r="H12" s="121"/>
-      <c r="I12" s="122"/>
-      <c r="J12" s="141" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="13" spans="2:10" s="22" customFormat="1" ht="20.100000000000001" customHeight="1">
-      <c r="B13" s="37">
+      <c r="C12" s="152"/>
+      <c r="D12" s="129"/>
+      <c r="E12" s="129"/>
+      <c r="F12" s="34"/>
+      <c r="G12" s="126"/>
+      <c r="H12" s="127"/>
+      <c r="I12" s="128"/>
+      <c r="J12" s="101"/>
+    </row>
+    <row r="13" spans="2:10" s="21" customFormat="1" ht="20.100000000000001" customHeight="1">
+      <c r="B13" s="36">
         <v>4</v>
       </c>
-      <c r="C13" s="119"/>
-      <c r="D13" s="119"/>
-      <c r="E13" s="119"/>
-      <c r="F13" s="35"/>
-      <c r="G13" s="120"/>
-      <c r="H13" s="121"/>
-      <c r="I13" s="122"/>
-      <c r="J13" s="36"/>
-    </row>
-    <row r="14" spans="2:10" s="22" customFormat="1" ht="20.100000000000001" customHeight="1">
-      <c r="B14" s="37">
+      <c r="C13" s="129"/>
+      <c r="D13" s="129"/>
+      <c r="E13" s="129"/>
+      <c r="F13" s="34"/>
+      <c r="G13" s="126"/>
+      <c r="H13" s="127"/>
+      <c r="I13" s="128"/>
+      <c r="J13" s="35"/>
+    </row>
+    <row r="14" spans="2:10" s="21" customFormat="1" ht="20.100000000000001" customHeight="1">
+      <c r="B14" s="36">
         <v>5</v>
       </c>
-      <c r="C14" s="119"/>
-      <c r="D14" s="119"/>
-      <c r="E14" s="119"/>
-      <c r="F14" s="35"/>
-      <c r="G14" s="120"/>
-      <c r="H14" s="121"/>
-      <c r="I14" s="122"/>
-      <c r="J14" s="36"/>
-    </row>
-    <row r="15" spans="2:10" s="22" customFormat="1" ht="20.100000000000001" customHeight="1">
-      <c r="B15" s="38">
+      <c r="C14" s="129"/>
+      <c r="D14" s="129"/>
+      <c r="E14" s="129"/>
+      <c r="F14" s="34"/>
+      <c r="G14" s="126"/>
+      <c r="H14" s="127"/>
+      <c r="I14" s="128"/>
+      <c r="J14" s="35"/>
+    </row>
+    <row r="15" spans="2:10" s="21" customFormat="1" ht="20.100000000000001" customHeight="1">
+      <c r="B15" s="37">
         <v>6</v>
       </c>
-      <c r="C15" s="119"/>
-      <c r="D15" s="119"/>
-      <c r="E15" s="119"/>
-      <c r="F15" s="35"/>
-      <c r="G15" s="120"/>
-      <c r="H15" s="121"/>
-      <c r="I15" s="122"/>
-      <c r="J15" s="36"/>
-    </row>
-    <row r="16" spans="2:10" s="22" customFormat="1" ht="20.100000000000001" customHeight="1">
-      <c r="B16" s="37">
+      <c r="C15" s="129"/>
+      <c r="D15" s="129"/>
+      <c r="E15" s="129"/>
+      <c r="F15" s="34"/>
+      <c r="G15" s="126"/>
+      <c r="H15" s="127"/>
+      <c r="I15" s="128"/>
+      <c r="J15" s="35"/>
+    </row>
+    <row r="16" spans="2:10" s="21" customFormat="1" ht="20.100000000000001" customHeight="1">
+      <c r="B16" s="36">
         <v>7</v>
       </c>
-      <c r="C16" s="119"/>
-      <c r="D16" s="119"/>
-      <c r="E16" s="119"/>
-      <c r="F16" s="35"/>
-      <c r="G16" s="120"/>
-      <c r="H16" s="121"/>
-      <c r="I16" s="122"/>
-      <c r="J16" s="36"/>
-    </row>
-    <row r="17" spans="2:10" s="22" customFormat="1" ht="20.100000000000001" customHeight="1">
-      <c r="B17" s="126" t="s">
+      <c r="C16" s="129"/>
+      <c r="D16" s="129"/>
+      <c r="E16" s="129"/>
+      <c r="F16" s="34"/>
+      <c r="G16" s="126"/>
+      <c r="H16" s="127"/>
+      <c r="I16" s="128"/>
+      <c r="J16" s="35"/>
+    </row>
+    <row r="17" spans="2:10" s="21" customFormat="1" ht="20.100000000000001" customHeight="1">
+      <c r="B17" s="130" t="s">
         <v>18</v>
       </c>
-      <c r="C17" s="127"/>
-      <c r="D17" s="127"/>
-      <c r="E17" s="128"/>
-      <c r="F17" s="45">
+      <c r="C17" s="131"/>
+      <c r="D17" s="131"/>
+      <c r="E17" s="132"/>
+      <c r="F17" s="44">
         <f>SUM(F10:F16)</f>
         <v>8</v>
       </c>
       <c r="G17" s="123"/>
       <c r="H17" s="124"/>
       <c r="I17" s="125"/>
-      <c r="J17" s="46"/>
-    </row>
-    <row r="18" spans="2:10" s="10" customFormat="1" ht="22.5" customHeight="1">
-      <c r="B18" s="18" t="s">
+      <c r="J17" s="45"/>
+    </row>
+    <row r="18" spans="2:10" s="9" customFormat="1" ht="22.5" customHeight="1">
+      <c r="B18" s="17" t="s">
         <v>5</v>
       </c>
-      <c r="C18" s="19"/>
-      <c r="D18" s="19"/>
-      <c r="E18" s="19"/>
-      <c r="F18" s="19"/>
-      <c r="G18" s="19"/>
-      <c r="H18" s="19"/>
-      <c r="I18" s="19"/>
-      <c r="J18" s="20"/>
-    </row>
-    <row r="19" spans="2:10" s="10" customFormat="1" ht="20.100000000000001" customHeight="1">
-      <c r="B19" s="33" t="s">
+      <c r="C18" s="18"/>
+      <c r="D18" s="18"/>
+      <c r="E18" s="18"/>
+      <c r="F18" s="18"/>
+      <c r="G18" s="18"/>
+      <c r="H18" s="18"/>
+      <c r="I18" s="18"/>
+      <c r="J18" s="19"/>
+    </row>
+    <row r="19" spans="2:10" s="9" customFormat="1" ht="20.100000000000001" customHeight="1">
+      <c r="B19" s="32" t="s">
         <v>7</v>
       </c>
-      <c r="C19" s="108" t="s">
+      <c r="C19" s="137" t="s">
         <v>20</v>
       </c>
-      <c r="D19" s="108"/>
-      <c r="E19" s="113" t="s">
+      <c r="D19" s="137"/>
+      <c r="E19" s="142" t="s">
         <v>21</v>
       </c>
-      <c r="F19" s="114"/>
-      <c r="G19" s="114"/>
-      <c r="H19" s="114"/>
-      <c r="I19" s="114"/>
-      <c r="J19" s="115"/>
-    </row>
-    <row r="20" spans="2:10" s="10" customFormat="1" ht="20.100000000000001" customHeight="1">
-      <c r="B20" s="39">
+      <c r="F19" s="143"/>
+      <c r="G19" s="143"/>
+      <c r="H19" s="143"/>
+      <c r="I19" s="143"/>
+      <c r="J19" s="144"/>
+    </row>
+    <row r="20" spans="2:10" s="9" customFormat="1" ht="20.100000000000001" customHeight="1">
+      <c r="B20" s="38">
         <v>1</v>
       </c>
-      <c r="C20" s="111"/>
-      <c r="D20" s="112"/>
-      <c r="E20" s="116"/>
-      <c r="F20" s="117"/>
-      <c r="G20" s="117"/>
-      <c r="H20" s="117"/>
-      <c r="I20" s="117"/>
-      <c r="J20" s="118"/>
-    </row>
-    <row r="21" spans="2:10" s="10" customFormat="1" ht="20.100000000000001" customHeight="1">
-      <c r="B21" s="40">
+      <c r="C20" s="140"/>
+      <c r="D20" s="141"/>
+      <c r="E20" s="145"/>
+      <c r="F20" s="146"/>
+      <c r="G20" s="146"/>
+      <c r="H20" s="146"/>
+      <c r="I20" s="146"/>
+      <c r="J20" s="147"/>
+    </row>
+    <row r="21" spans="2:10" s="9" customFormat="1" ht="20.100000000000001" customHeight="1">
+      <c r="B21" s="39">
         <v>2</v>
       </c>
-      <c r="C21" s="111"/>
-      <c r="D21" s="112"/>
-      <c r="E21" s="116"/>
-      <c r="F21" s="117"/>
-      <c r="G21" s="117"/>
-      <c r="H21" s="117"/>
-      <c r="I21" s="117"/>
-      <c r="J21" s="118"/>
-    </row>
-    <row r="22" spans="2:10" s="10" customFormat="1" ht="20.100000000000001" customHeight="1" thickBot="1">
-      <c r="B22" s="41">
+      <c r="C21" s="140"/>
+      <c r="D21" s="141"/>
+      <c r="E21" s="145"/>
+      <c r="F21" s="146"/>
+      <c r="G21" s="146"/>
+      <c r="H21" s="146"/>
+      <c r="I21" s="146"/>
+      <c r="J21" s="147"/>
+    </row>
+    <row r="22" spans="2:10" s="9" customFormat="1" ht="20.100000000000001" customHeight="1" thickBot="1">
+      <c r="B22" s="40">
         <v>3</v>
       </c>
-      <c r="C22" s="109"/>
-      <c r="D22" s="110"/>
-      <c r="E22" s="105"/>
-      <c r="F22" s="106"/>
-      <c r="G22" s="106"/>
-      <c r="H22" s="106"/>
-      <c r="I22" s="106"/>
-      <c r="J22" s="107"/>
+      <c r="C22" s="138"/>
+      <c r="D22" s="139"/>
+      <c r="E22" s="134"/>
+      <c r="F22" s="135"/>
+      <c r="G22" s="135"/>
+      <c r="H22" s="135"/>
+      <c r="I22" s="135"/>
+      <c r="J22" s="136"/>
     </row>
     <row r="24" spans="2:10">
-      <c r="B24" s="43"/>
+      <c r="B24" s="42"/>
     </row>
     <row r="25" spans="2:10">
-      <c r="B25" s="43"/>
+      <c r="B25" s="42"/>
     </row>
     <row r="26" spans="2:10">
-      <c r="B26" s="43"/>
+      <c r="B26" s="42"/>
     </row>
     <row r="27" spans="2:10">
-      <c r="B27" s="43"/>
+      <c r="B27" s="42"/>
     </row>
   </sheetData>
   <mergeCells count="30">
@@ -17899,11 +17309,11 @@
     <mergeCell ref="C9:E9"/>
     <mergeCell ref="G9:I9"/>
   </mergeCells>
-  <phoneticPr fontId="63" type="noConversion"/>
+  <phoneticPr fontId="3" type="noConversion"/>
   <dataValidations count="3">
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="说明：" prompt="对整个项目周期中本模块的关键任务或里程碑进行跟踪。" sqref="B4"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="对于已完成的关键任务，请将背景标记为淡黄色。" sqref="B5"/>
     <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="计划调整时，请保留原来的计划。以类似如下格式修改“2005/1/12-〉1/15”。" sqref="B6"/>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="对于已完成的关键任务，请将背景标记为淡黄色。" sqref="B5"/>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="说明：" prompt="对整个项目周期中本模块的关键任务或里程碑进行跟踪。" sqref="B4"/>
   </dataValidations>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" scale="85" orientation="landscape" r:id="rId1"/>
@@ -17912,12 +17322,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:J27"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A4" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="C10" sqref="C10:E10"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="G11" sqref="G11:I11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -17936,17 +17346,17 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:10" ht="47.25" customHeight="1">
-      <c r="B1" s="129" t="s">
+      <c r="B1" s="109" t="s">
         <v>13</v>
       </c>
-      <c r="C1" s="130"/>
-      <c r="D1" s="130"/>
-      <c r="E1" s="130"/>
-      <c r="F1" s="130"/>
-      <c r="G1" s="130"/>
-      <c r="H1" s="130"/>
-      <c r="I1" s="130"/>
-      <c r="J1" s="130"/>
+      <c r="C1" s="110"/>
+      <c r="D1" s="110"/>
+      <c r="E1" s="110"/>
+      <c r="F1" s="110"/>
+      <c r="G1" s="110"/>
+      <c r="H1" s="110"/>
+      <c r="I1" s="110"/>
+      <c r="J1" s="110"/>
     </row>
     <row r="2" spans="2:10" ht="7.5" customHeight="1">
       <c r="B2" s="2"/>
@@ -17963,316 +17373,320 @@
       <c r="B3" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="C3" s="6"/>
-      <c r="D3" s="7" t="s">
+      <c r="C3" s="102" t="s">
+        <v>82</v>
+      </c>
+      <c r="D3" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="E3" s="7"/>
-      <c r="F3" s="7" t="s">
+      <c r="E3" s="103">
+        <v>42987</v>
+      </c>
+      <c r="F3" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="G3" s="8"/>
-      <c r="H3" s="44" t="s">
+      <c r="G3" s="104" t="s">
+        <v>93</v>
+      </c>
+      <c r="H3" s="43" t="s">
         <v>17</v>
       </c>
-      <c r="I3" s="9"/>
-      <c r="J3" s="8"/>
-    </row>
-    <row r="4" spans="2:10" s="10" customFormat="1" ht="20.100000000000001" customHeight="1">
-      <c r="B4" s="11" t="s">
+      <c r="I3" s="8"/>
+      <c r="J3" s="7"/>
+    </row>
+    <row r="4" spans="2:10" s="9" customFormat="1" ht="20.100000000000001" customHeight="1">
+      <c r="B4" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="C4" s="12"/>
-      <c r="D4" s="12"/>
-      <c r="E4" s="12"/>
-      <c r="F4" s="12"/>
-      <c r="G4" s="12"/>
-      <c r="H4" s="12"/>
-      <c r="I4" s="12"/>
-      <c r="J4" s="13"/>
-    </row>
-    <row r="5" spans="2:10" s="14" customFormat="1" ht="20.100000000000001" customHeight="1">
-      <c r="B5" s="15" t="s">
+      <c r="C4" s="11"/>
+      <c r="D4" s="11"/>
+      <c r="E4" s="11"/>
+      <c r="F4" s="11"/>
+      <c r="G4" s="11"/>
+      <c r="H4" s="11"/>
+      <c r="I4" s="11"/>
+      <c r="J4" s="12"/>
+    </row>
+    <row r="5" spans="2:10" s="13" customFormat="1" ht="20.100000000000001" customHeight="1">
+      <c r="B5" s="14" t="s">
         <v>1</v>
       </c>
-      <c r="C5" s="144" t="s">
-        <v>62</v>
-      </c>
-      <c r="D5" s="131"/>
-      <c r="E5" s="131"/>
-      <c r="F5" s="131"/>
-      <c r="G5" s="131"/>
-      <c r="H5" s="131"/>
-      <c r="I5" s="131"/>
-      <c r="J5" s="132"/>
-    </row>
-    <row r="6" spans="2:10" s="14" customFormat="1" ht="20.100000000000001" customHeight="1">
-      <c r="B6" s="16" t="s">
+      <c r="C5" s="151" t="s">
+        <v>94</v>
+      </c>
+      <c r="D5" s="112"/>
+      <c r="E5" s="112"/>
+      <c r="F5" s="112"/>
+      <c r="G5" s="112"/>
+      <c r="H5" s="112"/>
+      <c r="I5" s="112"/>
+      <c r="J5" s="113"/>
+    </row>
+    <row r="6" spans="2:10" s="13" customFormat="1" ht="20.100000000000001" customHeight="1">
+      <c r="B6" s="15" t="s">
         <v>2</v>
       </c>
-      <c r="C6" s="142">
-        <v>42951</v>
-      </c>
-      <c r="D6" s="133"/>
-      <c r="E6" s="133"/>
-      <c r="F6" s="133"/>
-      <c r="G6" s="133"/>
-      <c r="H6" s="133"/>
-      <c r="I6" s="133"/>
-      <c r="J6" s="134"/>
-    </row>
-    <row r="7" spans="2:10" s="14" customFormat="1" ht="20.100000000000001" customHeight="1">
-      <c r="B7" s="17" t="s">
+      <c r="C6" s="114">
+        <v>42956</v>
+      </c>
+      <c r="D6" s="115"/>
+      <c r="E6" s="115"/>
+      <c r="F6" s="115"/>
+      <c r="G6" s="115"/>
+      <c r="H6" s="115"/>
+      <c r="I6" s="115"/>
+      <c r="J6" s="116"/>
+    </row>
+    <row r="7" spans="2:10" s="13" customFormat="1" ht="20.100000000000001" customHeight="1">
+      <c r="B7" s="16" t="s">
         <v>3</v>
       </c>
-      <c r="C7" s="143">
-        <v>42951</v>
-      </c>
-      <c r="D7" s="138"/>
-      <c r="E7" s="138"/>
-      <c r="F7" s="138"/>
-      <c r="G7" s="138"/>
-      <c r="H7" s="138"/>
-      <c r="I7" s="138"/>
-      <c r="J7" s="139"/>
-    </row>
-    <row r="8" spans="2:10" s="10" customFormat="1" ht="20.100000000000001" customHeight="1">
-      <c r="B8" s="18" t="s">
+      <c r="C7" s="120">
+        <v>42956</v>
+      </c>
+      <c r="D7" s="121"/>
+      <c r="E7" s="121"/>
+      <c r="F7" s="121"/>
+      <c r="G7" s="121"/>
+      <c r="H7" s="121"/>
+      <c r="I7" s="121"/>
+      <c r="J7" s="122"/>
+    </row>
+    <row r="8" spans="2:10" s="9" customFormat="1" ht="20.100000000000001" customHeight="1">
+      <c r="B8" s="17" t="s">
         <v>19</v>
       </c>
-      <c r="C8" s="19"/>
-      <c r="D8" s="19"/>
-      <c r="E8" s="19"/>
-      <c r="F8" s="19"/>
-      <c r="G8" s="19"/>
-      <c r="H8" s="19"/>
-      <c r="I8" s="19"/>
-      <c r="J8" s="20"/>
-    </row>
-    <row r="9" spans="2:10" s="21" customFormat="1" ht="20.100000000000001" customHeight="1">
-      <c r="B9" s="33" t="s">
+      <c r="C8" s="18"/>
+      <c r="D8" s="18"/>
+      <c r="E8" s="18"/>
+      <c r="F8" s="18"/>
+      <c r="G8" s="18"/>
+      <c r="H8" s="18"/>
+      <c r="I8" s="18"/>
+      <c r="J8" s="19"/>
+    </row>
+    <row r="9" spans="2:10" s="20" customFormat="1" ht="20.100000000000001" customHeight="1">
+      <c r="B9" s="32" t="s">
         <v>7</v>
       </c>
-      <c r="C9" s="135" t="s">
+      <c r="C9" s="117" t="s">
         <v>4</v>
       </c>
-      <c r="D9" s="136"/>
-      <c r="E9" s="137"/>
-      <c r="F9" s="42" t="s">
+      <c r="D9" s="118"/>
+      <c r="E9" s="119"/>
+      <c r="F9" s="41" t="s">
         <v>11</v>
       </c>
-      <c r="G9" s="135" t="s">
+      <c r="G9" s="117" t="s">
         <v>8</v>
       </c>
-      <c r="H9" s="136"/>
-      <c r="I9" s="137"/>
-      <c r="J9" s="34" t="s">
+      <c r="H9" s="118"/>
+      <c r="I9" s="119"/>
+      <c r="J9" s="33" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="10" spans="2:10" s="22" customFormat="1" ht="20.100000000000001" customHeight="1">
-      <c r="B10" s="37">
+    <row r="10" spans="2:10" s="21" customFormat="1" ht="20.100000000000001" customHeight="1">
+      <c r="B10" s="36">
         <v>1</v>
       </c>
-      <c r="C10" s="140" t="s">
-        <v>61</v>
-      </c>
-      <c r="D10" s="119"/>
-      <c r="E10" s="119"/>
-      <c r="F10" s="35">
+      <c r="C10" s="152" t="s">
+        <v>79</v>
+      </c>
+      <c r="D10" s="129"/>
+      <c r="E10" s="129"/>
+      <c r="F10" s="34">
+        <v>5</v>
+      </c>
+      <c r="G10" s="126" t="s">
+        <v>57</v>
+      </c>
+      <c r="H10" s="127"/>
+      <c r="I10" s="128"/>
+      <c r="J10" s="100" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="11" spans="2:10" s="21" customFormat="1" ht="20.100000000000001" customHeight="1">
+      <c r="B11" s="36">
         <v>2</v>
       </c>
-      <c r="G10" s="120" t="s">
-        <v>57</v>
-      </c>
-      <c r="H10" s="121"/>
-      <c r="I10" s="122"/>
-      <c r="J10" s="141" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="11" spans="2:10" s="22" customFormat="1" ht="20.100000000000001" customHeight="1">
-      <c r="B11" s="37">
-        <v>2</v>
-      </c>
-      <c r="C11" s="140" t="s">
-        <v>60</v>
-      </c>
-      <c r="D11" s="119"/>
-      <c r="E11" s="119"/>
-      <c r="F11" s="35">
+      <c r="C11" s="153" t="s">
+        <v>78</v>
+      </c>
+      <c r="D11" s="149"/>
+      <c r="E11" s="150"/>
+      <c r="F11" s="34">
         <v>3</v>
       </c>
-      <c r="G11" s="120" t="s">
-        <v>52</v>
-      </c>
-      <c r="H11" s="121"/>
-      <c r="I11" s="122"/>
-      <c r="J11" s="141" t="s">
+      <c r="G11" s="126"/>
+      <c r="H11" s="127"/>
+      <c r="I11" s="128"/>
+      <c r="J11" s="100" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="12" spans="2:10" s="22" customFormat="1" ht="20.100000000000001" customHeight="1">
-      <c r="B12" s="38">
+    <row r="12" spans="2:10" s="21" customFormat="1" ht="20.100000000000001" customHeight="1">
+      <c r="B12" s="37">
         <v>3</v>
       </c>
-      <c r="C12" s="140"/>
-      <c r="D12" s="119"/>
-      <c r="E12" s="119"/>
-      <c r="F12" s="35"/>
-      <c r="G12" s="120"/>
-      <c r="H12" s="121"/>
-      <c r="I12" s="122"/>
-      <c r="J12" s="141"/>
-    </row>
-    <row r="13" spans="2:10" s="22" customFormat="1" ht="20.100000000000001" customHeight="1">
-      <c r="B13" s="37">
+      <c r="C12" s="152"/>
+      <c r="D12" s="129"/>
+      <c r="E12" s="129"/>
+      <c r="F12" s="34"/>
+      <c r="G12" s="126"/>
+      <c r="H12" s="127"/>
+      <c r="I12" s="128"/>
+      <c r="J12" s="101"/>
+    </row>
+    <row r="13" spans="2:10" s="21" customFormat="1" ht="20.100000000000001" customHeight="1">
+      <c r="B13" s="36">
         <v>4</v>
       </c>
-      <c r="C13" s="119"/>
-      <c r="D13" s="119"/>
-      <c r="E13" s="119"/>
-      <c r="F13" s="35"/>
-      <c r="G13" s="120"/>
-      <c r="H13" s="121"/>
-      <c r="I13" s="122"/>
-      <c r="J13" s="36"/>
-    </row>
-    <row r="14" spans="2:10" s="22" customFormat="1" ht="20.100000000000001" customHeight="1">
-      <c r="B14" s="37">
+      <c r="C13" s="129"/>
+      <c r="D13" s="129"/>
+      <c r="E13" s="129"/>
+      <c r="F13" s="34"/>
+      <c r="G13" s="126"/>
+      <c r="H13" s="127"/>
+      <c r="I13" s="128"/>
+      <c r="J13" s="35"/>
+    </row>
+    <row r="14" spans="2:10" s="21" customFormat="1" ht="20.100000000000001" customHeight="1">
+      <c r="B14" s="36">
         <v>5</v>
       </c>
-      <c r="C14" s="119"/>
-      <c r="D14" s="119"/>
-      <c r="E14" s="119"/>
-      <c r="F14" s="35"/>
-      <c r="G14" s="120"/>
-      <c r="H14" s="121"/>
-      <c r="I14" s="122"/>
-      <c r="J14" s="36"/>
-    </row>
-    <row r="15" spans="2:10" s="22" customFormat="1" ht="20.100000000000001" customHeight="1">
-      <c r="B15" s="38">
+      <c r="C14" s="129"/>
+      <c r="D14" s="129"/>
+      <c r="E14" s="129"/>
+      <c r="F14" s="34"/>
+      <c r="G14" s="126"/>
+      <c r="H14" s="127"/>
+      <c r="I14" s="128"/>
+      <c r="J14" s="35"/>
+    </row>
+    <row r="15" spans="2:10" s="21" customFormat="1" ht="20.100000000000001" customHeight="1">
+      <c r="B15" s="37">
         <v>6</v>
       </c>
-      <c r="C15" s="119"/>
-      <c r="D15" s="119"/>
-      <c r="E15" s="119"/>
-      <c r="F15" s="35"/>
-      <c r="G15" s="120"/>
-      <c r="H15" s="121"/>
-      <c r="I15" s="122"/>
-      <c r="J15" s="36"/>
-    </row>
-    <row r="16" spans="2:10" s="22" customFormat="1" ht="20.100000000000001" customHeight="1">
-      <c r="B16" s="37">
+      <c r="C15" s="129"/>
+      <c r="D15" s="129"/>
+      <c r="E15" s="129"/>
+      <c r="F15" s="34"/>
+      <c r="G15" s="126"/>
+      <c r="H15" s="127"/>
+      <c r="I15" s="128"/>
+      <c r="J15" s="35"/>
+    </row>
+    <row r="16" spans="2:10" s="21" customFormat="1" ht="20.100000000000001" customHeight="1">
+      <c r="B16" s="36">
         <v>7</v>
       </c>
-      <c r="C16" s="119"/>
-      <c r="D16" s="119"/>
-      <c r="E16" s="119"/>
-      <c r="F16" s="35"/>
-      <c r="G16" s="120"/>
-      <c r="H16" s="121"/>
-      <c r="I16" s="122"/>
-      <c r="J16" s="36"/>
-    </row>
-    <row r="17" spans="2:10" s="22" customFormat="1" ht="20.100000000000001" customHeight="1">
-      <c r="B17" s="126" t="s">
+      <c r="C16" s="129"/>
+      <c r="D16" s="129"/>
+      <c r="E16" s="129"/>
+      <c r="F16" s="34"/>
+      <c r="G16" s="126"/>
+      <c r="H16" s="127"/>
+      <c r="I16" s="128"/>
+      <c r="J16" s="35"/>
+    </row>
+    <row r="17" spans="2:10" s="21" customFormat="1" ht="20.100000000000001" customHeight="1">
+      <c r="B17" s="130" t="s">
         <v>18</v>
       </c>
-      <c r="C17" s="127"/>
-      <c r="D17" s="127"/>
-      <c r="E17" s="128"/>
-      <c r="F17" s="45">
+      <c r="C17" s="131"/>
+      <c r="D17" s="131"/>
+      <c r="E17" s="132"/>
+      <c r="F17" s="44">
         <f>SUM(F10:F16)</f>
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="G17" s="123"/>
       <c r="H17" s="124"/>
       <c r="I17" s="125"/>
-      <c r="J17" s="46"/>
-    </row>
-    <row r="18" spans="2:10" s="10" customFormat="1" ht="22.5" customHeight="1">
-      <c r="B18" s="18" t="s">
+      <c r="J17" s="45"/>
+    </row>
+    <row r="18" spans="2:10" s="9" customFormat="1" ht="22.5" customHeight="1">
+      <c r="B18" s="17" t="s">
         <v>5</v>
       </c>
-      <c r="C18" s="19"/>
-      <c r="D18" s="19"/>
-      <c r="E18" s="19"/>
-      <c r="F18" s="19"/>
-      <c r="G18" s="19"/>
-      <c r="H18" s="19"/>
-      <c r="I18" s="19"/>
-      <c r="J18" s="20"/>
-    </row>
-    <row r="19" spans="2:10" s="10" customFormat="1" ht="20.100000000000001" customHeight="1">
-      <c r="B19" s="33" t="s">
+      <c r="C18" s="18"/>
+      <c r="D18" s="18"/>
+      <c r="E18" s="18"/>
+      <c r="F18" s="18"/>
+      <c r="G18" s="18"/>
+      <c r="H18" s="18"/>
+      <c r="I18" s="18"/>
+      <c r="J18" s="19"/>
+    </row>
+    <row r="19" spans="2:10" s="9" customFormat="1" ht="20.100000000000001" customHeight="1">
+      <c r="B19" s="32" t="s">
         <v>7</v>
       </c>
-      <c r="C19" s="108" t="s">
+      <c r="C19" s="137" t="s">
         <v>20</v>
       </c>
-      <c r="D19" s="108"/>
-      <c r="E19" s="113" t="s">
+      <c r="D19" s="137"/>
+      <c r="E19" s="142" t="s">
         <v>21</v>
       </c>
-      <c r="F19" s="114"/>
-      <c r="G19" s="114"/>
-      <c r="H19" s="114"/>
-      <c r="I19" s="114"/>
-      <c r="J19" s="115"/>
-    </row>
-    <row r="20" spans="2:10" s="10" customFormat="1" ht="20.100000000000001" customHeight="1">
-      <c r="B20" s="39">
+      <c r="F19" s="143"/>
+      <c r="G19" s="143"/>
+      <c r="H19" s="143"/>
+      <c r="I19" s="143"/>
+      <c r="J19" s="144"/>
+    </row>
+    <row r="20" spans="2:10" s="9" customFormat="1" ht="20.100000000000001" customHeight="1">
+      <c r="B20" s="38">
         <v>1</v>
       </c>
-      <c r="C20" s="111"/>
-      <c r="D20" s="112"/>
-      <c r="E20" s="116"/>
-      <c r="F20" s="117"/>
-      <c r="G20" s="117"/>
-      <c r="H20" s="117"/>
-      <c r="I20" s="117"/>
-      <c r="J20" s="118"/>
-    </row>
-    <row r="21" spans="2:10" s="10" customFormat="1" ht="20.100000000000001" customHeight="1">
-      <c r="B21" s="40">
+      <c r="C20" s="140"/>
+      <c r="D20" s="141"/>
+      <c r="E20" s="145"/>
+      <c r="F20" s="146"/>
+      <c r="G20" s="146"/>
+      <c r="H20" s="146"/>
+      <c r="I20" s="146"/>
+      <c r="J20" s="147"/>
+    </row>
+    <row r="21" spans="2:10" s="9" customFormat="1" ht="20.100000000000001" customHeight="1">
+      <c r="B21" s="39">
         <v>2</v>
       </c>
-      <c r="C21" s="111"/>
-      <c r="D21" s="112"/>
-      <c r="E21" s="116"/>
-      <c r="F21" s="117"/>
-      <c r="G21" s="117"/>
-      <c r="H21" s="117"/>
-      <c r="I21" s="117"/>
-      <c r="J21" s="118"/>
-    </row>
-    <row r="22" spans="2:10" s="10" customFormat="1" ht="20.100000000000001" customHeight="1" thickBot="1">
-      <c r="B22" s="41">
+      <c r="C21" s="140"/>
+      <c r="D21" s="141"/>
+      <c r="E21" s="145"/>
+      <c r="F21" s="146"/>
+      <c r="G21" s="146"/>
+      <c r="H21" s="146"/>
+      <c r="I21" s="146"/>
+      <c r="J21" s="147"/>
+    </row>
+    <row r="22" spans="2:10" s="9" customFormat="1" ht="20.100000000000001" customHeight="1" thickBot="1">
+      <c r="B22" s="40">
         <v>3</v>
       </c>
-      <c r="C22" s="109"/>
-      <c r="D22" s="110"/>
-      <c r="E22" s="105"/>
-      <c r="F22" s="106"/>
-      <c r="G22" s="106"/>
-      <c r="H22" s="106"/>
-      <c r="I22" s="106"/>
-      <c r="J22" s="107"/>
+      <c r="C22" s="138"/>
+      <c r="D22" s="139"/>
+      <c r="E22" s="134"/>
+      <c r="F22" s="135"/>
+      <c r="G22" s="135"/>
+      <c r="H22" s="135"/>
+      <c r="I22" s="135"/>
+      <c r="J22" s="136"/>
     </row>
     <row r="24" spans="2:10">
-      <c r="B24" s="43"/>
+      <c r="B24" s="42"/>
     </row>
     <row r="25" spans="2:10">
-      <c r="B25" s="43"/>
+      <c r="B25" s="42"/>
     </row>
     <row r="26" spans="2:10">
-      <c r="B26" s="43"/>
+      <c r="B26" s="42"/>
     </row>
     <row r="27" spans="2:10">
-      <c r="B27" s="43"/>
+      <c r="B27" s="42"/>
     </row>
   </sheetData>
   <mergeCells count="30">
@@ -18307,11 +17721,11 @@
     <mergeCell ref="C9:E9"/>
     <mergeCell ref="G9:I9"/>
   </mergeCells>
-  <phoneticPr fontId="63" type="noConversion"/>
+  <phoneticPr fontId="3" type="noConversion"/>
   <dataValidations count="3">
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="计划调整时，请保留原来的计划。以类似如下格式修改“2005/1/12-〉1/15”。" sqref="B6"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="对于已完成的关键任务，请将背景标记为淡黄色。" sqref="B5"/>
     <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="说明：" prompt="对整个项目周期中本模块的关键任务或里程碑进行跟踪。" sqref="B4"/>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="对于已完成的关键任务，请将背景标记为淡黄色。" sqref="B5"/>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="计划调整时，请保留原来的计划。以类似如下格式修改“2005/1/12-〉1/15”。" sqref="B6"/>
   </dataValidations>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" scale="85" orientation="landscape" r:id="rId1"/>
@@ -18320,12 +17734,577 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:E111"/>
+  <sheetViews>
+    <sheetView showGridLines="0" workbookViewId="0">
+      <selection activeCell="G10" sqref="G10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="12.625" style="57" customWidth="1"/>
+    <col min="2" max="2" width="10.75" style="57" customWidth="1"/>
+    <col min="3" max="3" width="46.25" style="57" customWidth="1"/>
+    <col min="4" max="4" width="11.25" style="57" customWidth="1"/>
+    <col min="5" max="16384" width="9" style="57"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" ht="27">
+      <c r="A1" s="54" t="s">
+        <v>28</v>
+      </c>
+      <c r="B1" s="55"/>
+      <c r="C1" s="55"/>
+      <c r="D1" s="55"/>
+      <c r="E1" s="56"/>
+    </row>
+    <row r="2" spans="1:5" ht="19.899999999999999" customHeight="1">
+      <c r="A2" s="58"/>
+      <c r="B2" s="55"/>
+      <c r="C2" s="55"/>
+      <c r="D2" s="55"/>
+    </row>
+    <row r="3" spans="1:5">
+      <c r="A3" s="59" t="s">
+        <v>14</v>
+      </c>
+      <c r="B3" s="59" t="s">
+        <v>15</v>
+      </c>
+      <c r="C3" s="59" t="s">
+        <v>16</v>
+      </c>
+      <c r="D3" s="59" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" s="63" customFormat="1">
+      <c r="A4" s="60">
+        <v>1</v>
+      </c>
+      <c r="B4" s="60" t="s">
+        <v>29</v>
+      </c>
+      <c r="C4" s="61" t="s">
+        <v>30</v>
+      </c>
+      <c r="D4" s="62">
+        <v>40142</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" s="63" customFormat="1">
+      <c r="A5" s="60"/>
+      <c r="B5" s="60"/>
+      <c r="C5" s="64"/>
+      <c r="D5" s="62"/>
+    </row>
+    <row r="6" spans="1:5" s="63" customFormat="1">
+      <c r="A6" s="60"/>
+      <c r="B6" s="60"/>
+      <c r="C6" s="61"/>
+      <c r="D6" s="62"/>
+    </row>
+    <row r="7" spans="1:5" s="63" customFormat="1">
+      <c r="A7" s="60"/>
+      <c r="B7" s="60"/>
+      <c r="C7" s="61"/>
+      <c r="D7" s="62"/>
+    </row>
+    <row r="8" spans="1:5" s="63" customFormat="1">
+      <c r="A8" s="60"/>
+      <c r="B8" s="60"/>
+      <c r="C8" s="64"/>
+      <c r="D8" s="62"/>
+    </row>
+    <row r="9" spans="1:5" s="63" customFormat="1">
+      <c r="A9" s="60"/>
+      <c r="B9" s="60"/>
+      <c r="C9" s="61"/>
+      <c r="D9" s="62"/>
+    </row>
+    <row r="10" spans="1:5" s="63" customFormat="1">
+      <c r="A10" s="60"/>
+      <c r="B10" s="65"/>
+      <c r="C10" s="61"/>
+      <c r="D10" s="62"/>
+    </row>
+    <row r="11" spans="1:5" s="63" customFormat="1">
+      <c r="A11" s="60"/>
+      <c r="B11" s="65"/>
+      <c r="C11" s="64"/>
+      <c r="D11" s="62"/>
+    </row>
+    <row r="12" spans="1:5" s="63" customFormat="1">
+      <c r="A12" s="60"/>
+      <c r="B12" s="65"/>
+      <c r="C12" s="61"/>
+      <c r="D12" s="62"/>
+    </row>
+    <row r="13" spans="1:5" s="63" customFormat="1">
+      <c r="A13" s="60"/>
+      <c r="B13" s="65"/>
+      <c r="C13" s="64"/>
+      <c r="D13" s="62"/>
+    </row>
+    <row r="14" spans="1:5" s="63" customFormat="1">
+      <c r="A14" s="60"/>
+      <c r="B14" s="65"/>
+      <c r="C14" s="61"/>
+      <c r="D14" s="62"/>
+    </row>
+    <row r="15" spans="1:5" s="63" customFormat="1">
+      <c r="A15" s="60"/>
+      <c r="B15" s="65"/>
+      <c r="C15" s="64"/>
+      <c r="D15" s="62"/>
+    </row>
+    <row r="16" spans="1:5" s="63" customFormat="1">
+      <c r="A16" s="60"/>
+      <c r="B16" s="65"/>
+      <c r="C16" s="64"/>
+      <c r="D16" s="62"/>
+    </row>
+    <row r="17" spans="1:4" s="63" customFormat="1">
+      <c r="A17" s="60"/>
+      <c r="B17" s="65"/>
+      <c r="C17" s="64"/>
+      <c r="D17" s="62"/>
+    </row>
+    <row r="18" spans="1:4" s="63" customFormat="1">
+      <c r="A18" s="60"/>
+      <c r="B18" s="65"/>
+      <c r="C18" s="66"/>
+      <c r="D18" s="62"/>
+    </row>
+    <row r="19" spans="1:4" ht="15.75">
+      <c r="A19" s="60"/>
+      <c r="B19" s="65"/>
+      <c r="C19" s="67"/>
+      <c r="D19" s="62"/>
+    </row>
+    <row r="20" spans="1:4">
+      <c r="A20" s="60"/>
+      <c r="B20" s="65"/>
+      <c r="C20" s="68"/>
+      <c r="D20" s="62"/>
+    </row>
+    <row r="21" spans="1:4">
+      <c r="A21" s="60"/>
+      <c r="B21" s="65"/>
+      <c r="C21" s="68"/>
+      <c r="D21" s="62"/>
+    </row>
+    <row r="95" spans="1:1">
+      <c r="A95" s="69"/>
+    </row>
+    <row r="96" spans="1:1">
+      <c r="A96" s="69"/>
+    </row>
+    <row r="97" spans="1:1">
+      <c r="A97" s="69"/>
+    </row>
+    <row r="98" spans="1:1">
+      <c r="A98" s="69"/>
+    </row>
+    <row r="99" spans="1:1">
+      <c r="A99" s="69"/>
+    </row>
+    <row r="100" spans="1:1">
+      <c r="A100" s="69"/>
+    </row>
+    <row r="101" spans="1:1">
+      <c r="A101" s="69"/>
+    </row>
+    <row r="102" spans="1:1">
+      <c r="A102" s="69"/>
+    </row>
+    <row r="103" spans="1:1">
+      <c r="A103" s="69"/>
+    </row>
+    <row r="104" spans="1:1">
+      <c r="A104" s="69"/>
+    </row>
+    <row r="105" spans="1:1">
+      <c r="A105" s="69"/>
+    </row>
+    <row r="106" spans="1:1">
+      <c r="A106" s="69"/>
+    </row>
+    <row r="107" spans="1:1">
+      <c r="A107" s="69"/>
+    </row>
+    <row r="108" spans="1:1">
+      <c r="A108" s="69"/>
+    </row>
+    <row r="109" spans="1:1">
+      <c r="A109" s="69"/>
+    </row>
+    <row r="110" spans="1:1">
+      <c r="A110" s="69"/>
+    </row>
+    <row r="111" spans="1:1">
+      <c r="A111" s="69"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="3" type="noConversion"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+  <headerFooter alignWithMargins="0"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:I56"/>
+  <sheetViews>
+    <sheetView showGridLines="0" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="8" defaultRowHeight="15.75"/>
+  <cols>
+    <col min="1" max="1" width="9.25" style="98" customWidth="1"/>
+    <col min="2" max="4" width="9.625" style="98" customWidth="1"/>
+    <col min="5" max="5" width="13.125" style="98" customWidth="1"/>
+    <col min="6" max="6" width="9.625" style="98" customWidth="1"/>
+    <col min="7" max="7" width="15.5" style="98" customWidth="1"/>
+    <col min="8" max="8" width="9.625" style="98" customWidth="1"/>
+    <col min="9" max="16384" width="8" style="98"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" s="71" customFormat="1" ht="22.5">
+      <c r="A1" s="70"/>
+    </row>
+    <row r="2" spans="1:9" s="71" customFormat="1" ht="25.5" customHeight="1">
+      <c r="A2" s="22" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" s="74" customFormat="1" ht="22.5">
+      <c r="A3" s="72" t="s">
+        <v>32</v>
+      </c>
+      <c r="B3" s="73"/>
+      <c r="C3" s="72"/>
+      <c r="D3" s="73"/>
+      <c r="E3" s="73"/>
+      <c r="F3" s="73"/>
+      <c r="G3" s="73"/>
+      <c r="H3" s="73"/>
+      <c r="I3" s="73"/>
+    </row>
+    <row r="4" spans="1:9" s="71" customFormat="1" ht="18.75">
+      <c r="A4" s="46" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" s="71" customFormat="1" ht="18.75">
+      <c r="A5" s="75"/>
+    </row>
+    <row r="6" spans="1:9" s="71" customFormat="1" ht="18.75">
+      <c r="A6" s="75"/>
+    </row>
+    <row r="7" spans="1:9" s="71" customFormat="1" ht="18.75">
+      <c r="A7" s="75"/>
+    </row>
+    <row r="8" spans="1:9" s="71" customFormat="1" ht="18.75">
+      <c r="A8" s="75"/>
+    </row>
+    <row r="9" spans="1:9" s="71" customFormat="1" ht="9.75" customHeight="1">
+      <c r="A9" s="75"/>
+    </row>
+    <row r="10" spans="1:9" s="71" customFormat="1" ht="18.75">
+      <c r="A10" s="75"/>
+    </row>
+    <row r="11" spans="1:9" s="71" customFormat="1" ht="18.75">
+      <c r="A11" s="75"/>
+    </row>
+    <row r="12" spans="1:9" s="71" customFormat="1" ht="18.75">
+      <c r="A12" s="75"/>
+    </row>
+    <row r="13" spans="1:9" s="71" customFormat="1" ht="18.75">
+      <c r="A13" s="75"/>
+    </row>
+    <row r="14" spans="1:9" s="71" customFormat="1" ht="18.75">
+      <c r="A14" s="75"/>
+    </row>
+    <row r="15" spans="1:9" s="71" customFormat="1" ht="18.75">
+      <c r="A15" s="76"/>
+      <c r="B15" s="77"/>
+      <c r="C15" s="77"/>
+      <c r="D15" s="77"/>
+      <c r="E15" s="77"/>
+      <c r="F15" s="77"/>
+      <c r="G15" s="77"/>
+      <c r="H15" s="77"/>
+    </row>
+    <row r="16" spans="1:9" s="78" customFormat="1" ht="46.5">
+      <c r="A16" s="107" t="s">
+        <v>23</v>
+      </c>
+      <c r="B16" s="107"/>
+      <c r="C16" s="107"/>
+      <c r="D16" s="107"/>
+      <c r="E16" s="107"/>
+      <c r="F16" s="107"/>
+      <c r="G16" s="107"/>
+      <c r="H16" s="107"/>
+    </row>
+    <row r="17" spans="1:8" s="78" customFormat="1">
+      <c r="A17" s="79"/>
+      <c r="B17" s="80"/>
+      <c r="C17" s="81"/>
+      <c r="D17" s="81"/>
+      <c r="E17" s="81"/>
+      <c r="F17" s="81"/>
+      <c r="G17" s="81"/>
+      <c r="H17" s="81"/>
+    </row>
+    <row r="18" spans="1:8" s="71" customFormat="1" ht="53.25">
+      <c r="A18" s="82" t="s">
+        <v>43</v>
+      </c>
+      <c r="B18" s="77"/>
+      <c r="C18" s="77"/>
+      <c r="D18" s="77"/>
+      <c r="E18" s="77"/>
+      <c r="F18" s="77"/>
+      <c r="G18" s="77"/>
+      <c r="H18" s="77"/>
+    </row>
+    <row r="19" spans="1:8" s="71" customFormat="1" ht="18.75">
+      <c r="A19" s="76"/>
+      <c r="B19" s="77"/>
+      <c r="C19" s="77"/>
+      <c r="D19" s="77"/>
+      <c r="E19" s="77"/>
+      <c r="F19" s="77"/>
+      <c r="G19" s="77"/>
+      <c r="H19" s="77"/>
+    </row>
+    <row r="20" spans="1:8" s="71" customFormat="1" ht="45.75">
+      <c r="A20" s="83"/>
+      <c r="B20" s="77"/>
+      <c r="C20" s="77"/>
+      <c r="D20" s="77"/>
+      <c r="E20" s="77"/>
+      <c r="F20" s="77"/>
+      <c r="G20" s="77"/>
+      <c r="H20" s="77"/>
+    </row>
+    <row r="21" spans="1:8" s="71" customFormat="1" ht="18.75">
+      <c r="A21" s="49"/>
+      <c r="B21" s="77"/>
+      <c r="C21" s="77"/>
+      <c r="D21" s="77"/>
+      <c r="E21" s="77"/>
+      <c r="F21" s="77"/>
+      <c r="G21" s="77"/>
+      <c r="H21" s="77"/>
+    </row>
+    <row r="22" spans="1:8" s="71" customFormat="1" ht="22.15" customHeight="1">
+      <c r="A22" s="84" t="s">
+        <v>33</v>
+      </c>
+      <c r="B22" s="85"/>
+      <c r="C22" s="85"/>
+      <c r="D22" s="85"/>
+      <c r="E22" s="85"/>
+      <c r="F22" s="85"/>
+      <c r="G22" s="85"/>
+      <c r="H22" s="85"/>
+    </row>
+    <row r="23" spans="1:8" s="71" customFormat="1" ht="18.75">
+      <c r="A23" s="76"/>
+      <c r="B23" s="77"/>
+      <c r="C23" s="77"/>
+      <c r="D23" s="77"/>
+      <c r="E23" s="77"/>
+      <c r="F23" s="77"/>
+      <c r="G23" s="77"/>
+      <c r="H23" s="77"/>
+    </row>
+    <row r="24" spans="1:8" s="71" customFormat="1" ht="18" customHeight="1">
+      <c r="A24" s="76"/>
+      <c r="B24" s="77"/>
+      <c r="C24" s="77"/>
+      <c r="D24" s="77"/>
+      <c r="E24" s="77"/>
+      <c r="F24" s="77"/>
+      <c r="G24" s="77"/>
+      <c r="H24" s="77"/>
+    </row>
+    <row r="25" spans="1:8" s="71" customFormat="1" ht="18" customHeight="1">
+      <c r="A25" s="76"/>
+      <c r="B25" s="77"/>
+      <c r="C25" s="77"/>
+      <c r="D25" s="77"/>
+      <c r="E25" s="77"/>
+      <c r="F25" s="77"/>
+      <c r="G25" s="77"/>
+      <c r="H25" s="77"/>
+    </row>
+    <row r="26" spans="1:8" s="71" customFormat="1" ht="18" customHeight="1">
+      <c r="A26" s="76"/>
+      <c r="B26" s="77"/>
+      <c r="C26" s="77"/>
+      <c r="D26" s="77"/>
+      <c r="E26" s="77"/>
+      <c r="F26" s="77"/>
+      <c r="G26" s="77"/>
+      <c r="H26" s="77"/>
+    </row>
+    <row r="27" spans="1:8" s="71" customFormat="1" ht="18" customHeight="1">
+      <c r="A27" s="76"/>
+      <c r="B27" s="77"/>
+      <c r="C27" s="77"/>
+      <c r="D27" s="77"/>
+      <c r="E27" s="77"/>
+      <c r="F27" s="77"/>
+      <c r="G27" s="77"/>
+      <c r="H27" s="77"/>
+    </row>
+    <row r="28" spans="1:8" s="71" customFormat="1" ht="18" customHeight="1">
+      <c r="A28" s="76"/>
+      <c r="B28" s="77"/>
+      <c r="C28" s="77"/>
+      <c r="D28" s="77"/>
+      <c r="E28" s="77"/>
+      <c r="F28" s="77"/>
+      <c r="G28" s="77"/>
+      <c r="H28" s="77"/>
+    </row>
+    <row r="29" spans="1:8" s="88" customFormat="1" ht="22.15" customHeight="1">
+      <c r="A29" s="86" t="s">
+        <v>34</v>
+      </c>
+      <c r="B29" s="87"/>
+      <c r="C29" s="87"/>
+      <c r="D29" s="87"/>
+      <c r="E29" s="87"/>
+      <c r="F29" s="87"/>
+      <c r="G29" s="87"/>
+      <c r="H29" s="87"/>
+    </row>
+    <row r="30" spans="1:8" s="88" customFormat="1">
+      <c r="A30" s="89"/>
+      <c r="B30" s="90"/>
+      <c r="C30" s="90"/>
+      <c r="D30" s="90"/>
+      <c r="E30" s="90"/>
+      <c r="F30" s="90"/>
+      <c r="G30" s="90"/>
+      <c r="H30" s="90"/>
+    </row>
+    <row r="31" spans="1:8" s="88" customFormat="1">
+      <c r="A31" s="89"/>
+      <c r="B31" s="90"/>
+      <c r="C31" s="90"/>
+      <c r="D31" s="90"/>
+      <c r="E31" s="90"/>
+      <c r="F31" s="90"/>
+      <c r="G31" s="90"/>
+      <c r="H31" s="90"/>
+    </row>
+    <row r="32" spans="1:8" s="88" customFormat="1">
+      <c r="A32" s="89"/>
+      <c r="B32" s="90"/>
+      <c r="C32" s="90"/>
+      <c r="D32" s="90"/>
+      <c r="E32" s="90"/>
+      <c r="F32" s="90"/>
+      <c r="G32" s="90"/>
+      <c r="H32" s="90"/>
+    </row>
+    <row r="33" spans="1:8" s="94" customFormat="1" ht="30" customHeight="1">
+      <c r="A33" s="91" t="s">
+        <v>35</v>
+      </c>
+      <c r="B33" s="92"/>
+      <c r="C33" s="91" t="s">
+        <v>36</v>
+      </c>
+      <c r="D33" s="92"/>
+      <c r="E33" s="91" t="s">
+        <v>37</v>
+      </c>
+      <c r="F33" s="92"/>
+      <c r="G33" s="93" t="s">
+        <v>38</v>
+      </c>
+      <c r="H33" s="92"/>
+    </row>
+    <row r="34" spans="1:8" s="94" customFormat="1" ht="29.25" customHeight="1">
+      <c r="A34" s="91" t="s">
+        <v>39</v>
+      </c>
+      <c r="B34" s="108"/>
+      <c r="C34" s="108"/>
+      <c r="D34" s="108"/>
+      <c r="E34" s="91" t="s">
+        <v>40</v>
+      </c>
+      <c r="F34" s="108"/>
+      <c r="G34" s="108"/>
+      <c r="H34" s="108"/>
+    </row>
+    <row r="35" spans="1:8" s="71" customFormat="1" ht="18.75">
+      <c r="A35" s="76"/>
+      <c r="B35" s="77"/>
+      <c r="C35" s="77"/>
+      <c r="D35" s="77"/>
+      <c r="E35" s="77"/>
+      <c r="F35" s="77"/>
+      <c r="G35" s="77"/>
+      <c r="H35" s="77"/>
+    </row>
+    <row r="36" spans="1:8" s="71" customFormat="1" ht="19.5">
+      <c r="A36" s="95"/>
+      <c r="B36" s="77"/>
+      <c r="C36" s="77"/>
+      <c r="D36" s="77"/>
+      <c r="E36" s="77"/>
+      <c r="F36" s="77"/>
+      <c r="G36" s="77"/>
+      <c r="H36" s="77"/>
+    </row>
+    <row r="37" spans="1:8" s="71" customFormat="1" ht="19.5">
+      <c r="A37" s="96"/>
+      <c r="B37" s="77"/>
+      <c r="C37" s="77"/>
+      <c r="D37" s="77"/>
+      <c r="E37" s="77"/>
+      <c r="F37" s="77"/>
+      <c r="G37" s="77"/>
+      <c r="H37" s="77"/>
+    </row>
+    <row r="38" spans="1:8" s="71" customFormat="1"/>
+    <row r="55" spans="1:1">
+      <c r="A55" s="97"/>
+    </row>
+    <row r="56" spans="1:1">
+      <c r="A56" s="99"/>
+    </row>
+  </sheetData>
+  <mergeCells count="3">
+    <mergeCell ref="A16:H16"/>
+    <mergeCell ref="B34:D34"/>
+    <mergeCell ref="F34:H34"/>
+  </mergeCells>
+  <phoneticPr fontId="3" type="noConversion"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
+  <headerFooter alignWithMargins="0"/>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:J27"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="G12" sqref="G12:I12"/>
+    <sheetView showGridLines="0" topLeftCell="A10" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -18344,17 +18323,17 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:10" ht="47.25" customHeight="1">
-      <c r="B1" s="129" t="s">
+      <c r="B1" s="109" t="s">
         <v>13</v>
       </c>
-      <c r="C1" s="130"/>
-      <c r="D1" s="130"/>
-      <c r="E1" s="130"/>
-      <c r="F1" s="130"/>
-      <c r="G1" s="130"/>
-      <c r="H1" s="130"/>
-      <c r="I1" s="130"/>
-      <c r="J1" s="130"/>
+      <c r="C1" s="110"/>
+      <c r="D1" s="110"/>
+      <c r="E1" s="110"/>
+      <c r="F1" s="110"/>
+      <c r="G1" s="110"/>
+      <c r="H1" s="110"/>
+      <c r="I1" s="110"/>
+      <c r="J1" s="110"/>
     </row>
     <row r="2" spans="2:10" ht="7.5" customHeight="1">
       <c r="B2" s="2"/>
@@ -18371,357 +18350,365 @@
       <c r="B3" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="C3" s="6"/>
-      <c r="D3" s="7" t="s">
+      <c r="C3" s="102" t="s">
+        <v>91</v>
+      </c>
+      <c r="D3" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="E3" s="7"/>
-      <c r="F3" s="7" t="s">
+      <c r="E3" s="103">
+        <v>42948</v>
+      </c>
+      <c r="F3" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="G3" s="8"/>
-      <c r="H3" s="44" t="s">
+      <c r="G3" s="104" t="s">
+        <v>85</v>
+      </c>
+      <c r="H3" s="43" t="s">
         <v>17</v>
       </c>
-      <c r="I3" s="9"/>
-      <c r="J3" s="8"/>
-    </row>
-    <row r="4" spans="2:10" s="10" customFormat="1" ht="20.100000000000001" customHeight="1">
-      <c r="B4" s="11" t="s">
+      <c r="I3" s="8"/>
+      <c r="J3" s="7"/>
+    </row>
+    <row r="4" spans="2:10" s="9" customFormat="1" ht="20.100000000000001" customHeight="1">
+      <c r="B4" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="C4" s="12"/>
-      <c r="D4" s="12"/>
-      <c r="E4" s="12"/>
-      <c r="F4" s="12"/>
-      <c r="G4" s="12"/>
-      <c r="H4" s="12"/>
-      <c r="I4" s="12"/>
-      <c r="J4" s="13"/>
-    </row>
-    <row r="5" spans="2:10" s="14" customFormat="1" ht="20.100000000000001" customHeight="1">
-      <c r="B5" s="15" t="s">
+      <c r="C4" s="11"/>
+      <c r="D4" s="11"/>
+      <c r="E4" s="11"/>
+      <c r="F4" s="11"/>
+      <c r="G4" s="11"/>
+      <c r="H4" s="11"/>
+      <c r="I4" s="11"/>
+      <c r="J4" s="12"/>
+    </row>
+    <row r="5" spans="2:10" s="13" customFormat="1" ht="20.100000000000001" customHeight="1">
+      <c r="B5" s="14" t="s">
         <v>1</v>
       </c>
-      <c r="C5" s="144" t="s">
-        <v>68</v>
-      </c>
-      <c r="D5" s="131"/>
-      <c r="E5" s="131"/>
-      <c r="F5" s="131"/>
-      <c r="G5" s="131"/>
-      <c r="H5" s="131"/>
-      <c r="I5" s="131"/>
-      <c r="J5" s="132"/>
-    </row>
-    <row r="6" spans="2:10" s="14" customFormat="1" ht="20.100000000000001" customHeight="1">
-      <c r="B6" s="16" t="s">
+      <c r="C5" s="111" t="s">
+        <v>50</v>
+      </c>
+      <c r="D5" s="112"/>
+      <c r="E5" s="112"/>
+      <c r="F5" s="112"/>
+      <c r="G5" s="112"/>
+      <c r="H5" s="112"/>
+      <c r="I5" s="112"/>
+      <c r="J5" s="113"/>
+    </row>
+    <row r="6" spans="2:10" s="13" customFormat="1" ht="20.100000000000001" customHeight="1">
+      <c r="B6" s="15" t="s">
         <v>2</v>
       </c>
-      <c r="C6" s="142">
-        <v>42952</v>
-      </c>
-      <c r="D6" s="133"/>
-      <c r="E6" s="133"/>
-      <c r="F6" s="133"/>
-      <c r="G6" s="133"/>
-      <c r="H6" s="133"/>
-      <c r="I6" s="133"/>
-      <c r="J6" s="134"/>
-    </row>
-    <row r="7" spans="2:10" s="14" customFormat="1" ht="20.100000000000001" customHeight="1">
-      <c r="B7" s="17" t="s">
+      <c r="C6" s="114">
+        <v>42948</v>
+      </c>
+      <c r="D6" s="115"/>
+      <c r="E6" s="115"/>
+      <c r="F6" s="115"/>
+      <c r="G6" s="115"/>
+      <c r="H6" s="115"/>
+      <c r="I6" s="115"/>
+      <c r="J6" s="116"/>
+    </row>
+    <row r="7" spans="2:10" s="13" customFormat="1" ht="20.100000000000001" customHeight="1">
+      <c r="B7" s="16" t="s">
         <v>3</v>
       </c>
-      <c r="C7" s="143">
-        <v>42952</v>
-      </c>
-      <c r="D7" s="138"/>
-      <c r="E7" s="138"/>
-      <c r="F7" s="138"/>
-      <c r="G7" s="138"/>
-      <c r="H7" s="138"/>
-      <c r="I7" s="138"/>
-      <c r="J7" s="139"/>
-    </row>
-    <row r="8" spans="2:10" s="10" customFormat="1" ht="20.100000000000001" customHeight="1">
-      <c r="B8" s="18" t="s">
+      <c r="C7" s="120">
+        <v>42948</v>
+      </c>
+      <c r="D7" s="121"/>
+      <c r="E7" s="121"/>
+      <c r="F7" s="121"/>
+      <c r="G7" s="121"/>
+      <c r="H7" s="121"/>
+      <c r="I7" s="121"/>
+      <c r="J7" s="122"/>
+    </row>
+    <row r="8" spans="2:10" s="9" customFormat="1" ht="20.100000000000001" customHeight="1">
+      <c r="B8" s="17" t="s">
         <v>19</v>
       </c>
-      <c r="C8" s="19"/>
-      <c r="D8" s="19"/>
-      <c r="E8" s="19"/>
-      <c r="F8" s="19"/>
-      <c r="G8" s="19"/>
-      <c r="H8" s="19"/>
-      <c r="I8" s="19"/>
-      <c r="J8" s="20"/>
-    </row>
-    <row r="9" spans="2:10" s="21" customFormat="1" ht="20.100000000000001" customHeight="1">
-      <c r="B9" s="33" t="s">
+      <c r="C8" s="18"/>
+      <c r="D8" s="18"/>
+      <c r="E8" s="18"/>
+      <c r="F8" s="18"/>
+      <c r="G8" s="18"/>
+      <c r="H8" s="18"/>
+      <c r="I8" s="18"/>
+      <c r="J8" s="19"/>
+    </row>
+    <row r="9" spans="2:10" s="20" customFormat="1" ht="20.100000000000001" customHeight="1">
+      <c r="B9" s="32" t="s">
         <v>7</v>
       </c>
-      <c r="C9" s="135" t="s">
+      <c r="C9" s="117" t="s">
         <v>4</v>
       </c>
-      <c r="D9" s="136"/>
-      <c r="E9" s="137"/>
-      <c r="F9" s="42" t="s">
+      <c r="D9" s="118"/>
+      <c r="E9" s="119"/>
+      <c r="F9" s="41" t="s">
         <v>11</v>
       </c>
-      <c r="G9" s="135" t="s">
+      <c r="G9" s="117" t="s">
         <v>8</v>
       </c>
-      <c r="H9" s="136"/>
-      <c r="I9" s="137"/>
-      <c r="J9" s="34" t="s">
+      <c r="H9" s="118"/>
+      <c r="I9" s="119"/>
+      <c r="J9" s="33" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="10" spans="2:10" s="22" customFormat="1" ht="20.100000000000001" customHeight="1">
-      <c r="B10" s="37">
+    <row r="10" spans="2:10" s="21" customFormat="1" ht="20.100000000000001" customHeight="1">
+      <c r="B10" s="36">
         <v>1</v>
       </c>
-      <c r="C10" s="140" t="s">
-        <v>65</v>
-      </c>
-      <c r="D10" s="119"/>
-      <c r="E10" s="119"/>
-      <c r="F10" s="35">
+      <c r="C10" s="133" t="s">
+        <v>49</v>
+      </c>
+      <c r="D10" s="129"/>
+      <c r="E10" s="129"/>
+      <c r="F10" s="34">
+        <v>2</v>
+      </c>
+      <c r="G10" s="126" t="s">
+        <v>51</v>
+      </c>
+      <c r="H10" s="127"/>
+      <c r="I10" s="128"/>
+      <c r="J10" s="100" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="11" spans="2:10" s="21" customFormat="1" ht="20.100000000000001" customHeight="1">
+      <c r="B11" s="36">
+        <v>2</v>
+      </c>
+      <c r="C11" s="133" t="s">
+        <v>45</v>
+      </c>
+      <c r="D11" s="129"/>
+      <c r="E11" s="129"/>
+      <c r="F11" s="34">
+        <v>3</v>
+      </c>
+      <c r="G11" s="126" t="s">
+        <v>52</v>
+      </c>
+      <c r="H11" s="127"/>
+      <c r="I11" s="128"/>
+      <c r="J11" s="100" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="12" spans="2:10" s="21" customFormat="1" ht="20.100000000000001" customHeight="1">
+      <c r="B12" s="37">
+        <v>3</v>
+      </c>
+      <c r="C12" s="133" t="s">
+        <v>46</v>
+      </c>
+      <c r="D12" s="129"/>
+      <c r="E12" s="129"/>
+      <c r="F12" s="34">
+        <v>3</v>
+      </c>
+      <c r="G12" s="126" t="s">
+        <v>52</v>
+      </c>
+      <c r="H12" s="127"/>
+      <c r="I12" s="128"/>
+      <c r="J12" s="100" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="13" spans="2:10" s="21" customFormat="1" ht="20.100000000000001" customHeight="1">
+      <c r="B13" s="36">
+        <v>4</v>
+      </c>
+      <c r="C13" s="129"/>
+      <c r="D13" s="129"/>
+      <c r="E13" s="129"/>
+      <c r="F13" s="34"/>
+      <c r="G13" s="126"/>
+      <c r="H13" s="127"/>
+      <c r="I13" s="128"/>
+      <c r="J13" s="35"/>
+    </row>
+    <row r="14" spans="2:10" s="21" customFormat="1" ht="20.100000000000001" customHeight="1">
+      <c r="B14" s="36">
         <v>5</v>
       </c>
-      <c r="G10" s="120" t="s">
-        <v>57</v>
-      </c>
-      <c r="H10" s="121"/>
-      <c r="I10" s="122"/>
-      <c r="J10" s="141" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="11" spans="2:10" s="22" customFormat="1" ht="20.100000000000001" customHeight="1">
-      <c r="B11" s="37">
-        <v>2</v>
-      </c>
-      <c r="C11" s="140" t="s">
-        <v>66</v>
-      </c>
-      <c r="D11" s="119"/>
-      <c r="E11" s="119"/>
-      <c r="F11" s="35">
-        <v>3</v>
-      </c>
-      <c r="G11" s="120" t="s">
-        <v>52</v>
-      </c>
-      <c r="H11" s="121"/>
-      <c r="I11" s="122"/>
-      <c r="J11" s="141" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="12" spans="2:10" s="22" customFormat="1" ht="20.100000000000001" customHeight="1">
-      <c r="B12" s="38">
-        <v>3</v>
-      </c>
-      <c r="C12" s="140" t="s">
-        <v>69</v>
-      </c>
-      <c r="D12" s="119"/>
-      <c r="E12" s="119"/>
-      <c r="F12" s="35">
-        <v>3</v>
-      </c>
-      <c r="G12" s="120"/>
-      <c r="H12" s="121"/>
-      <c r="I12" s="122"/>
-      <c r="J12" s="141" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="13" spans="2:10" s="22" customFormat="1" ht="20.100000000000001" customHeight="1">
-      <c r="B13" s="37">
-        <v>4</v>
-      </c>
-      <c r="C13" s="119"/>
-      <c r="D13" s="119"/>
-      <c r="E13" s="119"/>
-      <c r="F13" s="35"/>
-      <c r="G13" s="120"/>
-      <c r="H13" s="121"/>
-      <c r="I13" s="122"/>
-      <c r="J13" s="36"/>
-    </row>
-    <row r="14" spans="2:10" s="22" customFormat="1" ht="20.100000000000001" customHeight="1">
-      <c r="B14" s="37">
-        <v>5</v>
-      </c>
-      <c r="C14" s="119"/>
-      <c r="D14" s="119"/>
-      <c r="E14" s="119"/>
-      <c r="F14" s="35"/>
-      <c r="G14" s="120"/>
-      <c r="H14" s="121"/>
-      <c r="I14" s="122"/>
-      <c r="J14" s="36"/>
-    </row>
-    <row r="15" spans="2:10" s="22" customFormat="1" ht="20.100000000000001" customHeight="1">
-      <c r="B15" s="38">
+      <c r="C14" s="129"/>
+      <c r="D14" s="129"/>
+      <c r="E14" s="129"/>
+      <c r="F14" s="34"/>
+      <c r="G14" s="126"/>
+      <c r="H14" s="127"/>
+      <c r="I14" s="128"/>
+      <c r="J14" s="35"/>
+    </row>
+    <row r="15" spans="2:10" s="21" customFormat="1" ht="20.100000000000001" customHeight="1">
+      <c r="B15" s="37">
         <v>6</v>
       </c>
-      <c r="C15" s="119"/>
-      <c r="D15" s="119"/>
-      <c r="E15" s="119"/>
-      <c r="F15" s="35"/>
-      <c r="G15" s="120"/>
-      <c r="H15" s="121"/>
-      <c r="I15" s="122"/>
-      <c r="J15" s="36"/>
-    </row>
-    <row r="16" spans="2:10" s="22" customFormat="1" ht="20.100000000000001" customHeight="1">
-      <c r="B16" s="37">
+      <c r="C15" s="129"/>
+      <c r="D15" s="129"/>
+      <c r="E15" s="129"/>
+      <c r="F15" s="34"/>
+      <c r="G15" s="126"/>
+      <c r="H15" s="127"/>
+      <c r="I15" s="128"/>
+      <c r="J15" s="35"/>
+    </row>
+    <row r="16" spans="2:10" s="21" customFormat="1" ht="20.100000000000001" customHeight="1">
+      <c r="B16" s="36">
         <v>7</v>
       </c>
-      <c r="C16" s="119"/>
-      <c r="D16" s="119"/>
-      <c r="E16" s="119"/>
-      <c r="F16" s="35"/>
-      <c r="G16" s="120"/>
-      <c r="H16" s="121"/>
-      <c r="I16" s="122"/>
-      <c r="J16" s="36"/>
-    </row>
-    <row r="17" spans="2:10" s="22" customFormat="1" ht="20.100000000000001" customHeight="1">
-      <c r="B17" s="126" t="s">
+      <c r="C16" s="129"/>
+      <c r="D16" s="129"/>
+      <c r="E16" s="129"/>
+      <c r="F16" s="34"/>
+      <c r="G16" s="126"/>
+      <c r="H16" s="127"/>
+      <c r="I16" s="128"/>
+      <c r="J16" s="35"/>
+    </row>
+    <row r="17" spans="2:10" s="21" customFormat="1" ht="20.100000000000001" customHeight="1">
+      <c r="B17" s="130" t="s">
         <v>18</v>
       </c>
-      <c r="C17" s="127"/>
-      <c r="D17" s="127"/>
-      <c r="E17" s="128"/>
-      <c r="F17" s="45">
+      <c r="C17" s="131"/>
+      <c r="D17" s="131"/>
+      <c r="E17" s="132"/>
+      <c r="F17" s="44">
         <f>SUM(F10:F16)</f>
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="G17" s="123"/>
       <c r="H17" s="124"/>
       <c r="I17" s="125"/>
-      <c r="J17" s="46"/>
-    </row>
-    <row r="18" spans="2:10" s="10" customFormat="1" ht="22.5" customHeight="1">
-      <c r="B18" s="18" t="s">
+      <c r="J17" s="45"/>
+    </row>
+    <row r="18" spans="2:10" s="9" customFormat="1" ht="22.5" customHeight="1">
+      <c r="B18" s="17" t="s">
         <v>5</v>
       </c>
-      <c r="C18" s="19"/>
-      <c r="D18" s="19"/>
-      <c r="E18" s="19"/>
-      <c r="F18" s="19"/>
-      <c r="G18" s="19"/>
-      <c r="H18" s="19"/>
-      <c r="I18" s="19"/>
-      <c r="J18" s="20"/>
-    </row>
-    <row r="19" spans="2:10" s="10" customFormat="1" ht="20.100000000000001" customHeight="1">
-      <c r="B19" s="33" t="s">
+      <c r="C18" s="18"/>
+      <c r="D18" s="18"/>
+      <c r="E18" s="18"/>
+      <c r="F18" s="18"/>
+      <c r="G18" s="18"/>
+      <c r="H18" s="18"/>
+      <c r="I18" s="18"/>
+      <c r="J18" s="19"/>
+    </row>
+    <row r="19" spans="2:10" s="9" customFormat="1" ht="20.100000000000001" customHeight="1">
+      <c r="B19" s="32" t="s">
         <v>7</v>
       </c>
-      <c r="C19" s="108" t="s">
+      <c r="C19" s="137" t="s">
         <v>20</v>
       </c>
-      <c r="D19" s="108"/>
-      <c r="E19" s="113" t="s">
+      <c r="D19" s="137"/>
+      <c r="E19" s="142" t="s">
         <v>21</v>
       </c>
-      <c r="F19" s="114"/>
-      <c r="G19" s="114"/>
-      <c r="H19" s="114"/>
-      <c r="I19" s="114"/>
-      <c r="J19" s="115"/>
-    </row>
-    <row r="20" spans="2:10" s="10" customFormat="1" ht="20.100000000000001" customHeight="1">
-      <c r="B20" s="39">
+      <c r="F19" s="143"/>
+      <c r="G19" s="143"/>
+      <c r="H19" s="143"/>
+      <c r="I19" s="143"/>
+      <c r="J19" s="144"/>
+    </row>
+    <row r="20" spans="2:10" s="9" customFormat="1" ht="20.100000000000001" customHeight="1">
+      <c r="B20" s="38">
         <v>1</v>
       </c>
-      <c r="C20" s="111"/>
-      <c r="D20" s="112"/>
-      <c r="E20" s="116"/>
-      <c r="F20" s="117"/>
-      <c r="G20" s="117"/>
-      <c r="H20" s="117"/>
-      <c r="I20" s="117"/>
-      <c r="J20" s="118"/>
-    </row>
-    <row r="21" spans="2:10" s="10" customFormat="1" ht="20.100000000000001" customHeight="1">
-      <c r="B21" s="40">
+      <c r="C20" s="140"/>
+      <c r="D20" s="141"/>
+      <c r="E20" s="145"/>
+      <c r="F20" s="146"/>
+      <c r="G20" s="146"/>
+      <c r="H20" s="146"/>
+      <c r="I20" s="146"/>
+      <c r="J20" s="147"/>
+    </row>
+    <row r="21" spans="2:10" s="9" customFormat="1" ht="20.100000000000001" customHeight="1">
+      <c r="B21" s="39">
         <v>2</v>
       </c>
-      <c r="C21" s="111"/>
-      <c r="D21" s="112"/>
-      <c r="E21" s="116"/>
-      <c r="F21" s="117"/>
-      <c r="G21" s="117"/>
-      <c r="H21" s="117"/>
-      <c r="I21" s="117"/>
-      <c r="J21" s="118"/>
-    </row>
-    <row r="22" spans="2:10" s="10" customFormat="1" ht="20.100000000000001" customHeight="1" thickBot="1">
-      <c r="B22" s="41">
+      <c r="C21" s="140"/>
+      <c r="D21" s="141"/>
+      <c r="E21" s="145"/>
+      <c r="F21" s="146"/>
+      <c r="G21" s="146"/>
+      <c r="H21" s="146"/>
+      <c r="I21" s="146"/>
+      <c r="J21" s="147"/>
+    </row>
+    <row r="22" spans="2:10" s="9" customFormat="1" ht="20.100000000000001" customHeight="1" thickBot="1">
+      <c r="B22" s="40">
         <v>3</v>
       </c>
-      <c r="C22" s="109"/>
-      <c r="D22" s="110"/>
-      <c r="E22" s="105"/>
-      <c r="F22" s="106"/>
-      <c r="G22" s="106"/>
-      <c r="H22" s="106"/>
-      <c r="I22" s="106"/>
-      <c r="J22" s="107"/>
+      <c r="C22" s="138"/>
+      <c r="D22" s="139"/>
+      <c r="E22" s="134"/>
+      <c r="F22" s="135"/>
+      <c r="G22" s="135"/>
+      <c r="H22" s="135"/>
+      <c r="I22" s="135"/>
+      <c r="J22" s="136"/>
     </row>
     <row r="24" spans="2:10">
-      <c r="B24" s="43"/>
+      <c r="B24" s="42"/>
     </row>
     <row r="25" spans="2:10">
-      <c r="B25" s="43"/>
+      <c r="B25" s="42"/>
     </row>
     <row r="26" spans="2:10">
-      <c r="B26" s="43"/>
+      <c r="B26" s="42"/>
     </row>
     <row r="27" spans="2:10">
-      <c r="B27" s="43"/>
+      <c r="B27" s="42"/>
     </row>
   </sheetData>
   <mergeCells count="30">
+    <mergeCell ref="E22:J22"/>
+    <mergeCell ref="C19:D19"/>
+    <mergeCell ref="C22:D22"/>
     <mergeCell ref="C20:D20"/>
+    <mergeCell ref="C21:D21"/>
+    <mergeCell ref="E19:J19"/>
     <mergeCell ref="E20:J20"/>
-    <mergeCell ref="C21:D21"/>
     <mergeCell ref="E21:J21"/>
-    <mergeCell ref="C22:D22"/>
-    <mergeCell ref="E22:J22"/>
-    <mergeCell ref="C16:E16"/>
-    <mergeCell ref="G16:I16"/>
-    <mergeCell ref="B17:E17"/>
-    <mergeCell ref="G17:I17"/>
-    <mergeCell ref="C19:D19"/>
-    <mergeCell ref="E19:J19"/>
-    <mergeCell ref="C13:E13"/>
+    <mergeCell ref="C10:E10"/>
+    <mergeCell ref="C11:E11"/>
     <mergeCell ref="G13:I13"/>
-    <mergeCell ref="C14:E14"/>
     <mergeCell ref="G14:I14"/>
-    <mergeCell ref="C15:E15"/>
-    <mergeCell ref="G15:I15"/>
-    <mergeCell ref="C10:E10"/>
     <mergeCell ref="G10:I10"/>
-    <mergeCell ref="C11:E11"/>
     <mergeCell ref="G11:I11"/>
     <mergeCell ref="C12:E12"/>
+    <mergeCell ref="C13:E13"/>
+    <mergeCell ref="G17:I17"/>
+    <mergeCell ref="G15:I15"/>
+    <mergeCell ref="G16:I16"/>
+    <mergeCell ref="C16:E16"/>
     <mergeCell ref="G12:I12"/>
+    <mergeCell ref="C14:E14"/>
+    <mergeCell ref="B17:E17"/>
+    <mergeCell ref="C15:E15"/>
     <mergeCell ref="B1:J1"/>
     <mergeCell ref="C5:J5"/>
     <mergeCell ref="C6:J6"/>
+    <mergeCell ref="C9:E9"/>
     <mergeCell ref="C7:J7"/>
-    <mergeCell ref="C9:E9"/>
     <mergeCell ref="G9:I9"/>
   </mergeCells>
-  <phoneticPr fontId="63" type="noConversion"/>
+  <phoneticPr fontId="3" type="noConversion"/>
   <dataValidations count="3">
     <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="计划调整时，请保留原来的计划。以类似如下格式修改“2005/1/12-〉1/15”。" sqref="B6"/>
     <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="对于已完成的关键任务，请将背景标记为淡黄色。" sqref="B5"/>
@@ -18734,12 +18721,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:J27"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A2" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="M10" sqref="M10"/>
+    <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="E4" sqref="E4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -18758,17 +18745,17 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:10" ht="47.25" customHeight="1">
-      <c r="B1" s="129" t="s">
+      <c r="B1" s="109" t="s">
         <v>13</v>
       </c>
-      <c r="C1" s="130"/>
-      <c r="D1" s="130"/>
-      <c r="E1" s="130"/>
-      <c r="F1" s="130"/>
-      <c r="G1" s="130"/>
-      <c r="H1" s="130"/>
-      <c r="I1" s="130"/>
-      <c r="J1" s="130"/>
+      <c r="C1" s="110"/>
+      <c r="D1" s="110"/>
+      <c r="E1" s="110"/>
+      <c r="F1" s="110"/>
+      <c r="G1" s="110"/>
+      <c r="H1" s="110"/>
+      <c r="I1" s="110"/>
+      <c r="J1" s="110"/>
     </row>
     <row r="2" spans="2:10" ht="7.5" customHeight="1">
       <c r="B2" s="2"/>
@@ -18785,349 +18772,2023 @@
       <c r="B3" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="C3" s="6"/>
-      <c r="D3" s="7" t="s">
+      <c r="C3" s="102" t="s">
+        <v>92</v>
+      </c>
+      <c r="D3" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="E3" s="7"/>
-      <c r="F3" s="7" t="s">
+      <c r="E3" s="103">
+        <v>42949</v>
+      </c>
+      <c r="F3" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="G3" s="8"/>
-      <c r="H3" s="44" t="s">
+      <c r="G3" s="104" t="s">
+        <v>90</v>
+      </c>
+      <c r="H3" s="43" t="s">
         <v>17</v>
       </c>
-      <c r="I3" s="9"/>
-      <c r="J3" s="8"/>
-    </row>
-    <row r="4" spans="2:10" s="10" customFormat="1" ht="20.100000000000001" customHeight="1">
-      <c r="B4" s="11" t="s">
+      <c r="I3" s="8"/>
+      <c r="J3" s="7"/>
+    </row>
+    <row r="4" spans="2:10" s="9" customFormat="1" ht="20.100000000000001" customHeight="1">
+      <c r="B4" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="C4" s="12"/>
-      <c r="D4" s="12"/>
-      <c r="E4" s="12"/>
-      <c r="F4" s="12"/>
-      <c r="G4" s="12"/>
-      <c r="H4" s="12"/>
-      <c r="I4" s="12"/>
-      <c r="J4" s="13"/>
-    </row>
-    <row r="5" spans="2:10" s="14" customFormat="1" ht="20.100000000000001" customHeight="1">
-      <c r="B5" s="15" t="s">
+      <c r="C4" s="11"/>
+      <c r="D4" s="11"/>
+      <c r="E4" s="11"/>
+      <c r="F4" s="11"/>
+      <c r="G4" s="11"/>
+      <c r="H4" s="11"/>
+      <c r="I4" s="11"/>
+      <c r="J4" s="12"/>
+    </row>
+    <row r="5" spans="2:10" s="13" customFormat="1" ht="20.100000000000001" customHeight="1">
+      <c r="B5" s="14" t="s">
         <v>1</v>
       </c>
-      <c r="C5" s="144" t="s">
-        <v>68</v>
-      </c>
-      <c r="D5" s="131"/>
-      <c r="E5" s="131"/>
-      <c r="F5" s="131"/>
-      <c r="G5" s="131"/>
-      <c r="H5" s="131"/>
-      <c r="I5" s="131"/>
-      <c r="J5" s="132"/>
-    </row>
-    <row r="6" spans="2:10" s="14" customFormat="1" ht="20.100000000000001" customHeight="1">
-      <c r="B6" s="16" t="s">
+      <c r="C5" s="111" t="s">
+        <v>53</v>
+      </c>
+      <c r="D5" s="112"/>
+      <c r="E5" s="112"/>
+      <c r="F5" s="112"/>
+      <c r="G5" s="112"/>
+      <c r="H5" s="112"/>
+      <c r="I5" s="112"/>
+      <c r="J5" s="113"/>
+    </row>
+    <row r="6" spans="2:10" s="13" customFormat="1" ht="20.100000000000001" customHeight="1">
+      <c r="B6" s="15" t="s">
         <v>2</v>
       </c>
-      <c r="C6" s="142">
-        <v>42953</v>
-      </c>
-      <c r="D6" s="133"/>
-      <c r="E6" s="133"/>
-      <c r="F6" s="133"/>
-      <c r="G6" s="133"/>
-      <c r="H6" s="133"/>
-      <c r="I6" s="133"/>
-      <c r="J6" s="134"/>
-    </row>
-    <row r="7" spans="2:10" s="14" customFormat="1" ht="20.100000000000001" customHeight="1">
-      <c r="B7" s="17" t="s">
+      <c r="C6" s="114">
+        <v>42949</v>
+      </c>
+      <c r="D6" s="115"/>
+      <c r="E6" s="115"/>
+      <c r="F6" s="115"/>
+      <c r="G6" s="115"/>
+      <c r="H6" s="115"/>
+      <c r="I6" s="115"/>
+      <c r="J6" s="116"/>
+    </row>
+    <row r="7" spans="2:10" s="13" customFormat="1" ht="20.100000000000001" customHeight="1">
+      <c r="B7" s="16" t="s">
         <v>3</v>
       </c>
-      <c r="C7" s="143">
-        <v>42953</v>
-      </c>
-      <c r="D7" s="138"/>
-      <c r="E7" s="138"/>
-      <c r="F7" s="138"/>
-      <c r="G7" s="138"/>
-      <c r="H7" s="138"/>
-      <c r="I7" s="138"/>
-      <c r="J7" s="139"/>
-    </row>
-    <row r="8" spans="2:10" s="10" customFormat="1" ht="20.100000000000001" customHeight="1">
-      <c r="B8" s="18" t="s">
+      <c r="C7" s="120">
+        <v>42949</v>
+      </c>
+      <c r="D7" s="121"/>
+      <c r="E7" s="121"/>
+      <c r="F7" s="121"/>
+      <c r="G7" s="121"/>
+      <c r="H7" s="121"/>
+      <c r="I7" s="121"/>
+      <c r="J7" s="122"/>
+    </row>
+    <row r="8" spans="2:10" s="9" customFormat="1" ht="20.100000000000001" customHeight="1">
+      <c r="B8" s="17" t="s">
         <v>19</v>
       </c>
-      <c r="C8" s="19"/>
-      <c r="D8" s="19"/>
-      <c r="E8" s="19"/>
-      <c r="F8" s="19"/>
-      <c r="G8" s="19"/>
-      <c r="H8" s="19"/>
-      <c r="I8" s="19"/>
-      <c r="J8" s="20"/>
-    </row>
-    <row r="9" spans="2:10" s="21" customFormat="1" ht="20.100000000000001" customHeight="1">
-      <c r="B9" s="33" t="s">
+      <c r="C8" s="18"/>
+      <c r="D8" s="18"/>
+      <c r="E8" s="18"/>
+      <c r="F8" s="18"/>
+      <c r="G8" s="18"/>
+      <c r="H8" s="18"/>
+      <c r="I8" s="18"/>
+      <c r="J8" s="19"/>
+    </row>
+    <row r="9" spans="2:10" s="20" customFormat="1" ht="20.100000000000001" customHeight="1">
+      <c r="B9" s="32" t="s">
         <v>7</v>
       </c>
-      <c r="C9" s="135" t="s">
+      <c r="C9" s="117" t="s">
         <v>4</v>
       </c>
-      <c r="D9" s="136"/>
-      <c r="E9" s="137"/>
-      <c r="F9" s="42" t="s">
+      <c r="D9" s="118"/>
+      <c r="E9" s="119"/>
+      <c r="F9" s="41" t="s">
         <v>11</v>
       </c>
-      <c r="G9" s="135" t="s">
+      <c r="G9" s="117" t="s">
         <v>8</v>
       </c>
-      <c r="H9" s="136"/>
-      <c r="I9" s="137"/>
-      <c r="J9" s="34" t="s">
+      <c r="H9" s="118"/>
+      <c r="I9" s="119"/>
+      <c r="J9" s="33" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="10" spans="2:10" s="22" customFormat="1" ht="20.100000000000001" customHeight="1">
-      <c r="B10" s="37">
+    <row r="10" spans="2:10" s="21" customFormat="1" ht="20.100000000000001" customHeight="1">
+      <c r="B10" s="36">
         <v>1</v>
       </c>
-      <c r="C10" s="140" t="s">
-        <v>70</v>
-      </c>
-      <c r="D10" s="119"/>
-      <c r="E10" s="119"/>
-      <c r="F10" s="35">
+      <c r="C10" s="133" t="s">
+        <v>55</v>
+      </c>
+      <c r="D10" s="129"/>
+      <c r="E10" s="129"/>
+      <c r="F10" s="34">
+        <v>2</v>
+      </c>
+      <c r="G10" s="126" t="s">
+        <v>56</v>
+      </c>
+      <c r="H10" s="127"/>
+      <c r="I10" s="128"/>
+      <c r="J10" s="100" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="11" spans="2:10" s="21" customFormat="1" ht="20.100000000000001" customHeight="1">
+      <c r="B11" s="36">
+        <v>2</v>
+      </c>
+      <c r="C11" s="133" t="s">
+        <v>54</v>
+      </c>
+      <c r="D11" s="129"/>
+      <c r="E11" s="129"/>
+      <c r="F11" s="34">
         <v>5</v>
       </c>
-      <c r="G10" s="120" t="s">
-        <v>57</v>
-      </c>
-      <c r="H10" s="121"/>
-      <c r="I10" s="122"/>
-      <c r="J10" s="141" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="11" spans="2:10" s="22" customFormat="1" ht="20.100000000000001" customHeight="1">
-      <c r="B11" s="37">
-        <v>2</v>
-      </c>
-      <c r="C11" s="145" t="s">
-        <v>71</v>
-      </c>
-      <c r="D11" s="146"/>
-      <c r="E11" s="147"/>
-      <c r="F11" s="35">
+      <c r="G11" s="126" t="s">
+        <v>52</v>
+      </c>
+      <c r="H11" s="127"/>
+      <c r="I11" s="128"/>
+      <c r="J11" s="100" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="12" spans="2:10" s="21" customFormat="1" ht="20.100000000000001" customHeight="1">
+      <c r="B12" s="37">
         <v>3</v>
       </c>
-      <c r="G11" s="120"/>
-      <c r="H11" s="121"/>
-      <c r="I11" s="122"/>
-      <c r="J11" s="141" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="12" spans="2:10" s="22" customFormat="1" ht="20.100000000000001" customHeight="1">
-      <c r="B12" s="38">
-        <v>3</v>
-      </c>
-      <c r="C12" s="140"/>
-      <c r="D12" s="119"/>
-      <c r="E12" s="119"/>
-      <c r="F12" s="35"/>
-      <c r="G12" s="120"/>
-      <c r="H12" s="121"/>
-      <c r="I12" s="122"/>
-      <c r="J12" s="141"/>
-    </row>
-    <row r="13" spans="2:10" s="22" customFormat="1" ht="20.100000000000001" customHeight="1">
-      <c r="B13" s="37">
+      <c r="C12" s="133"/>
+      <c r="D12" s="129"/>
+      <c r="E12" s="129"/>
+      <c r="F12" s="34"/>
+      <c r="G12" s="126"/>
+      <c r="H12" s="127"/>
+      <c r="I12" s="128"/>
+      <c r="J12" s="100"/>
+    </row>
+    <row r="13" spans="2:10" s="21" customFormat="1" ht="20.100000000000001" customHeight="1">
+      <c r="B13" s="36">
         <v>4</v>
       </c>
-      <c r="C13" s="119"/>
-      <c r="D13" s="119"/>
-      <c r="E13" s="119"/>
-      <c r="F13" s="35"/>
-      <c r="G13" s="120"/>
-      <c r="H13" s="121"/>
-      <c r="I13" s="122"/>
-      <c r="J13" s="36"/>
-    </row>
-    <row r="14" spans="2:10" s="22" customFormat="1" ht="20.100000000000001" customHeight="1">
-      <c r="B14" s="37">
+      <c r="C13" s="129"/>
+      <c r="D13" s="129"/>
+      <c r="E13" s="129"/>
+      <c r="F13" s="34"/>
+      <c r="G13" s="126"/>
+      <c r="H13" s="127"/>
+      <c r="I13" s="128"/>
+      <c r="J13" s="35"/>
+    </row>
+    <row r="14" spans="2:10" s="21" customFormat="1" ht="20.100000000000001" customHeight="1">
+      <c r="B14" s="36">
         <v>5</v>
       </c>
-      <c r="C14" s="119"/>
-      <c r="D14" s="119"/>
-      <c r="E14" s="119"/>
-      <c r="F14" s="35"/>
-      <c r="G14" s="120"/>
-      <c r="H14" s="121"/>
-      <c r="I14" s="122"/>
-      <c r="J14" s="36"/>
-    </row>
-    <row r="15" spans="2:10" s="22" customFormat="1" ht="20.100000000000001" customHeight="1">
-      <c r="B15" s="38">
+      <c r="C14" s="129"/>
+      <c r="D14" s="129"/>
+      <c r="E14" s="129"/>
+      <c r="F14" s="34"/>
+      <c r="G14" s="126"/>
+      <c r="H14" s="127"/>
+      <c r="I14" s="128"/>
+      <c r="J14" s="35"/>
+    </row>
+    <row r="15" spans="2:10" s="21" customFormat="1" ht="20.100000000000001" customHeight="1">
+      <c r="B15" s="37">
         <v>6</v>
       </c>
-      <c r="C15" s="119"/>
-      <c r="D15" s="119"/>
-      <c r="E15" s="119"/>
-      <c r="F15" s="35"/>
-      <c r="G15" s="120"/>
-      <c r="H15" s="121"/>
-      <c r="I15" s="122"/>
-      <c r="J15" s="36"/>
-    </row>
-    <row r="16" spans="2:10" s="22" customFormat="1" ht="20.100000000000001" customHeight="1">
-      <c r="B16" s="37">
+      <c r="C15" s="129"/>
+      <c r="D15" s="129"/>
+      <c r="E15" s="129"/>
+      <c r="F15" s="34"/>
+      <c r="G15" s="126"/>
+      <c r="H15" s="127"/>
+      <c r="I15" s="128"/>
+      <c r="J15" s="35"/>
+    </row>
+    <row r="16" spans="2:10" s="21" customFormat="1" ht="20.100000000000001" customHeight="1">
+      <c r="B16" s="36">
         <v>7</v>
       </c>
-      <c r="C16" s="119"/>
-      <c r="D16" s="119"/>
-      <c r="E16" s="119"/>
-      <c r="F16" s="35"/>
-      <c r="G16" s="120"/>
-      <c r="H16" s="121"/>
-      <c r="I16" s="122"/>
-      <c r="J16" s="36"/>
-    </row>
-    <row r="17" spans="2:10" s="22" customFormat="1" ht="20.100000000000001" customHeight="1">
-      <c r="B17" s="126" t="s">
+      <c r="C16" s="129"/>
+      <c r="D16" s="129"/>
+      <c r="E16" s="129"/>
+      <c r="F16" s="34"/>
+      <c r="G16" s="126"/>
+      <c r="H16" s="127"/>
+      <c r="I16" s="128"/>
+      <c r="J16" s="35"/>
+    </row>
+    <row r="17" spans="2:10" s="21" customFormat="1" ht="20.100000000000001" customHeight="1">
+      <c r="B17" s="130" t="s">
         <v>18</v>
       </c>
-      <c r="C17" s="127"/>
-      <c r="D17" s="127"/>
-      <c r="E17" s="128"/>
-      <c r="F17" s="45">
+      <c r="C17" s="131"/>
+      <c r="D17" s="131"/>
+      <c r="E17" s="132"/>
+      <c r="F17" s="44">
         <f>SUM(F10:F16)</f>
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="G17" s="123"/>
       <c r="H17" s="124"/>
       <c r="I17" s="125"/>
-      <c r="J17" s="46"/>
-    </row>
-    <row r="18" spans="2:10" s="10" customFormat="1" ht="22.5" customHeight="1">
-      <c r="B18" s="18" t="s">
+      <c r="J17" s="45"/>
+    </row>
+    <row r="18" spans="2:10" s="9" customFormat="1" ht="22.5" customHeight="1">
+      <c r="B18" s="17" t="s">
         <v>5</v>
       </c>
-      <c r="C18" s="19"/>
-      <c r="D18" s="19"/>
-      <c r="E18" s="19"/>
-      <c r="F18" s="19"/>
-      <c r="G18" s="19"/>
-      <c r="H18" s="19"/>
-      <c r="I18" s="19"/>
-      <c r="J18" s="20"/>
-    </row>
-    <row r="19" spans="2:10" s="10" customFormat="1" ht="20.100000000000001" customHeight="1">
-      <c r="B19" s="33" t="s">
+      <c r="C18" s="18"/>
+      <c r="D18" s="18"/>
+      <c r="E18" s="18"/>
+      <c r="F18" s="18"/>
+      <c r="G18" s="18"/>
+      <c r="H18" s="18"/>
+      <c r="I18" s="18"/>
+      <c r="J18" s="19"/>
+    </row>
+    <row r="19" spans="2:10" s="9" customFormat="1" ht="20.100000000000001" customHeight="1">
+      <c r="B19" s="32" t="s">
         <v>7</v>
       </c>
-      <c r="C19" s="108" t="s">
+      <c r="C19" s="137" t="s">
         <v>20</v>
       </c>
-      <c r="D19" s="108"/>
-      <c r="E19" s="113" t="s">
+      <c r="D19" s="137"/>
+      <c r="E19" s="142" t="s">
         <v>21</v>
       </c>
-      <c r="F19" s="114"/>
-      <c r="G19" s="114"/>
-      <c r="H19" s="114"/>
-      <c r="I19" s="114"/>
-      <c r="J19" s="115"/>
-    </row>
-    <row r="20" spans="2:10" s="10" customFormat="1" ht="20.100000000000001" customHeight="1">
-      <c r="B20" s="39">
+      <c r="F19" s="143"/>
+      <c r="G19" s="143"/>
+      <c r="H19" s="143"/>
+      <c r="I19" s="143"/>
+      <c r="J19" s="144"/>
+    </row>
+    <row r="20" spans="2:10" s="9" customFormat="1" ht="20.100000000000001" customHeight="1">
+      <c r="B20" s="38">
         <v>1</v>
       </c>
-      <c r="C20" s="111"/>
-      <c r="D20" s="112"/>
-      <c r="E20" s="116"/>
-      <c r="F20" s="117"/>
-      <c r="G20" s="117"/>
-      <c r="H20" s="117"/>
-      <c r="I20" s="117"/>
-      <c r="J20" s="118"/>
-    </row>
-    <row r="21" spans="2:10" s="10" customFormat="1" ht="20.100000000000001" customHeight="1">
-      <c r="B21" s="40">
+      <c r="C20" s="140"/>
+      <c r="D20" s="141"/>
+      <c r="E20" s="145"/>
+      <c r="F20" s="146"/>
+      <c r="G20" s="146"/>
+      <c r="H20" s="146"/>
+      <c r="I20" s="146"/>
+      <c r="J20" s="147"/>
+    </row>
+    <row r="21" spans="2:10" s="9" customFormat="1" ht="20.100000000000001" customHeight="1">
+      <c r="B21" s="39">
         <v>2</v>
       </c>
-      <c r="C21" s="111"/>
-      <c r="D21" s="112"/>
-      <c r="E21" s="116"/>
-      <c r="F21" s="117"/>
-      <c r="G21" s="117"/>
-      <c r="H21" s="117"/>
-      <c r="I21" s="117"/>
-      <c r="J21" s="118"/>
-    </row>
-    <row r="22" spans="2:10" s="10" customFormat="1" ht="20.100000000000001" customHeight="1" thickBot="1">
-      <c r="B22" s="41">
+      <c r="C21" s="140"/>
+      <c r="D21" s="141"/>
+      <c r="E21" s="145"/>
+      <c r="F21" s="146"/>
+      <c r="G21" s="146"/>
+      <c r="H21" s="146"/>
+      <c r="I21" s="146"/>
+      <c r="J21" s="147"/>
+    </row>
+    <row r="22" spans="2:10" s="9" customFormat="1" ht="20.100000000000001" customHeight="1" thickBot="1">
+      <c r="B22" s="40">
         <v>3</v>
       </c>
-      <c r="C22" s="109"/>
-      <c r="D22" s="110"/>
-      <c r="E22" s="105"/>
-      <c r="F22" s="106"/>
-      <c r="G22" s="106"/>
-      <c r="H22" s="106"/>
-      <c r="I22" s="106"/>
-      <c r="J22" s="107"/>
+      <c r="C22" s="138"/>
+      <c r="D22" s="139"/>
+      <c r="E22" s="134"/>
+      <c r="F22" s="135"/>
+      <c r="G22" s="135"/>
+      <c r="H22" s="135"/>
+      <c r="I22" s="135"/>
+      <c r="J22" s="136"/>
     </row>
     <row r="24" spans="2:10">
-      <c r="B24" s="43"/>
+      <c r="B24" s="42"/>
     </row>
     <row r="25" spans="2:10">
-      <c r="B25" s="43"/>
+      <c r="B25" s="42"/>
     </row>
     <row r="26" spans="2:10">
-      <c r="B26" s="43"/>
+      <c r="B26" s="42"/>
     </row>
     <row r="27" spans="2:10">
-      <c r="B27" s="43"/>
+      <c r="B27" s="42"/>
     </row>
   </sheetData>
   <mergeCells count="30">
+    <mergeCell ref="B1:J1"/>
+    <mergeCell ref="C5:J5"/>
+    <mergeCell ref="C6:J6"/>
+    <mergeCell ref="C7:J7"/>
+    <mergeCell ref="C9:E9"/>
+    <mergeCell ref="G9:I9"/>
+    <mergeCell ref="C10:E10"/>
+    <mergeCell ref="G10:I10"/>
+    <mergeCell ref="C11:E11"/>
+    <mergeCell ref="G11:I11"/>
+    <mergeCell ref="C12:E12"/>
+    <mergeCell ref="G12:I12"/>
+    <mergeCell ref="C13:E13"/>
+    <mergeCell ref="G13:I13"/>
+    <mergeCell ref="C14:E14"/>
+    <mergeCell ref="G14:I14"/>
+    <mergeCell ref="C15:E15"/>
+    <mergeCell ref="G15:I15"/>
+    <mergeCell ref="C16:E16"/>
+    <mergeCell ref="G16:I16"/>
+    <mergeCell ref="B17:E17"/>
+    <mergeCell ref="G17:I17"/>
+    <mergeCell ref="C19:D19"/>
+    <mergeCell ref="E19:J19"/>
     <mergeCell ref="C20:D20"/>
     <mergeCell ref="E20:J20"/>
     <mergeCell ref="C21:D21"/>
     <mergeCell ref="E21:J21"/>
     <mergeCell ref="C22:D22"/>
     <mergeCell ref="E22:J22"/>
+  </mergeCells>
+  <phoneticPr fontId="62" type="noConversion"/>
+  <dataValidations count="3">
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="说明：" prompt="对整个项目周期中本模块的关键任务或里程碑进行跟踪。" sqref="B4"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="对于已完成的关键任务，请将背景标记为淡黄色。" sqref="B5"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="计划调整时，请保留原来的计划。以类似如下格式修改“2005/1/12-〉1/15”。" sqref="B6"/>
+  </dataValidations>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup paperSize="9" scale="85" orientation="landscape" r:id="rId1"/>
+  <headerFooter alignWithMargins="0"/>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B1:J27"/>
+  <sheetViews>
+    <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="E4" sqref="E4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="1.25" style="1" customWidth="1"/>
+    <col min="2" max="2" width="9.125" style="1" customWidth="1"/>
+    <col min="3" max="3" width="19.625" style="1" customWidth="1"/>
+    <col min="4" max="4" width="6.25" style="1" customWidth="1"/>
+    <col min="5" max="5" width="22.5" style="1" customWidth="1"/>
+    <col min="6" max="6" width="14.375" style="1" customWidth="1"/>
+    <col min="7" max="7" width="25.25" style="1" customWidth="1"/>
+    <col min="8" max="8" width="7.75" style="1" customWidth="1"/>
+    <col min="9" max="9" width="16.875" style="1" customWidth="1"/>
+    <col min="10" max="10" width="12.5" style="1" customWidth="1"/>
+    <col min="11" max="16384" width="9" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="2:10" ht="47.25" customHeight="1">
+      <c r="B1" s="109" t="s">
+        <v>13</v>
+      </c>
+      <c r="C1" s="110"/>
+      <c r="D1" s="110"/>
+      <c r="E1" s="110"/>
+      <c r="F1" s="110"/>
+      <c r="G1" s="110"/>
+      <c r="H1" s="110"/>
+      <c r="I1" s="110"/>
+      <c r="J1" s="110"/>
+    </row>
+    <row r="2" spans="2:10" ht="7.5" customHeight="1">
+      <c r="B2" s="2"/>
+      <c r="C2" s="3"/>
+      <c r="D2" s="3"/>
+      <c r="E2" s="3"/>
+      <c r="F2" s="3"/>
+      <c r="G2" s="3"/>
+      <c r="H2" s="3"/>
+      <c r="I2" s="3"/>
+      <c r="J2" s="3"/>
+    </row>
+    <row r="3" spans="2:10" s="4" customFormat="1" ht="21" customHeight="1" thickBot="1">
+      <c r="B3" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" s="102" t="s">
+        <v>89</v>
+      </c>
+      <c r="D3" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="E3" s="103">
+        <v>42950</v>
+      </c>
+      <c r="F3" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="G3" s="104" t="s">
+        <v>90</v>
+      </c>
+      <c r="H3" s="43" t="s">
+        <v>17</v>
+      </c>
+      <c r="I3" s="8"/>
+      <c r="J3" s="7"/>
+    </row>
+    <row r="4" spans="2:10" s="9" customFormat="1" ht="20.100000000000001" customHeight="1">
+      <c r="B4" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="C4" s="11"/>
+      <c r="D4" s="11"/>
+      <c r="E4" s="11"/>
+      <c r="F4" s="11"/>
+      <c r="G4" s="11"/>
+      <c r="H4" s="11"/>
+      <c r="I4" s="11"/>
+      <c r="J4" s="12"/>
+    </row>
+    <row r="5" spans="2:10" s="13" customFormat="1" ht="20.100000000000001" customHeight="1">
+      <c r="B5" s="14" t="s">
+        <v>1</v>
+      </c>
+      <c r="C5" s="111" t="s">
+        <v>64</v>
+      </c>
+      <c r="D5" s="112"/>
+      <c r="E5" s="112"/>
+      <c r="F5" s="112"/>
+      <c r="G5" s="112"/>
+      <c r="H5" s="112"/>
+      <c r="I5" s="112"/>
+      <c r="J5" s="113"/>
+    </row>
+    <row r="6" spans="2:10" s="13" customFormat="1" ht="20.100000000000001" customHeight="1">
+      <c r="B6" s="15" t="s">
+        <v>2</v>
+      </c>
+      <c r="C6" s="114">
+        <v>42950</v>
+      </c>
+      <c r="D6" s="115"/>
+      <c r="E6" s="115"/>
+      <c r="F6" s="115"/>
+      <c r="G6" s="115"/>
+      <c r="H6" s="115"/>
+      <c r="I6" s="115"/>
+      <c r="J6" s="116"/>
+    </row>
+    <row r="7" spans="2:10" s="13" customFormat="1" ht="20.100000000000001" customHeight="1">
+      <c r="B7" s="16" t="s">
+        <v>3</v>
+      </c>
+      <c r="C7" s="120">
+        <v>42950</v>
+      </c>
+      <c r="D7" s="121"/>
+      <c r="E7" s="121"/>
+      <c r="F7" s="121"/>
+      <c r="G7" s="121"/>
+      <c r="H7" s="121"/>
+      <c r="I7" s="121"/>
+      <c r="J7" s="122"/>
+    </row>
+    <row r="8" spans="2:10" s="9" customFormat="1" ht="20.100000000000001" customHeight="1">
+      <c r="B8" s="17" t="s">
+        <v>19</v>
+      </c>
+      <c r="C8" s="18"/>
+      <c r="D8" s="18"/>
+      <c r="E8" s="18"/>
+      <c r="F8" s="18"/>
+      <c r="G8" s="18"/>
+      <c r="H8" s="18"/>
+      <c r="I8" s="18"/>
+      <c r="J8" s="19"/>
+    </row>
+    <row r="9" spans="2:10" s="20" customFormat="1" ht="20.100000000000001" customHeight="1">
+      <c r="B9" s="32" t="s">
+        <v>7</v>
+      </c>
+      <c r="C9" s="117" t="s">
+        <v>4</v>
+      </c>
+      <c r="D9" s="118"/>
+      <c r="E9" s="119"/>
+      <c r="F9" s="41" t="s">
+        <v>11</v>
+      </c>
+      <c r="G9" s="117" t="s">
+        <v>8</v>
+      </c>
+      <c r="H9" s="118"/>
+      <c r="I9" s="119"/>
+      <c r="J9" s="33" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="10" spans="2:10" s="21" customFormat="1" ht="20.100000000000001" customHeight="1">
+      <c r="B10" s="36">
+        <v>1</v>
+      </c>
+      <c r="C10" s="133" t="s">
+        <v>63</v>
+      </c>
+      <c r="D10" s="129"/>
+      <c r="E10" s="129"/>
+      <c r="F10" s="34">
+        <v>2</v>
+      </c>
+      <c r="G10" s="126" t="s">
+        <v>57</v>
+      </c>
+      <c r="H10" s="127"/>
+      <c r="I10" s="128"/>
+      <c r="J10" s="100" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="11" spans="2:10" s="21" customFormat="1" ht="20.100000000000001" customHeight="1">
+      <c r="B11" s="36">
+        <v>2</v>
+      </c>
+      <c r="C11" s="133" t="s">
+        <v>64</v>
+      </c>
+      <c r="D11" s="129"/>
+      <c r="E11" s="129"/>
+      <c r="F11" s="34">
+        <v>3</v>
+      </c>
+      <c r="G11" s="126" t="s">
+        <v>52</v>
+      </c>
+      <c r="H11" s="127"/>
+      <c r="I11" s="128"/>
+      <c r="J11" s="100" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="12" spans="2:10" s="21" customFormat="1" ht="20.100000000000001" customHeight="1">
+      <c r="B12" s="37">
+        <v>3</v>
+      </c>
+      <c r="C12" s="133" t="s">
+        <v>58</v>
+      </c>
+      <c r="D12" s="129"/>
+      <c r="E12" s="129"/>
+      <c r="F12" s="34">
+        <v>3</v>
+      </c>
+      <c r="G12" s="126"/>
+      <c r="H12" s="127"/>
+      <c r="I12" s="128"/>
+      <c r="J12" s="100" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="13" spans="2:10" s="21" customFormat="1" ht="20.100000000000001" customHeight="1">
+      <c r="B13" s="36">
+        <v>4</v>
+      </c>
+      <c r="C13" s="129"/>
+      <c r="D13" s="129"/>
+      <c r="E13" s="129"/>
+      <c r="F13" s="34"/>
+      <c r="G13" s="126"/>
+      <c r="H13" s="127"/>
+      <c r="I13" s="128"/>
+      <c r="J13" s="35"/>
+    </row>
+    <row r="14" spans="2:10" s="21" customFormat="1" ht="20.100000000000001" customHeight="1">
+      <c r="B14" s="36">
+        <v>5</v>
+      </c>
+      <c r="C14" s="129"/>
+      <c r="D14" s="129"/>
+      <c r="E14" s="129"/>
+      <c r="F14" s="34"/>
+      <c r="G14" s="126"/>
+      <c r="H14" s="127"/>
+      <c r="I14" s="128"/>
+      <c r="J14" s="35"/>
+    </row>
+    <row r="15" spans="2:10" s="21" customFormat="1" ht="20.100000000000001" customHeight="1">
+      <c r="B15" s="37">
+        <v>6</v>
+      </c>
+      <c r="C15" s="129"/>
+      <c r="D15" s="129"/>
+      <c r="E15" s="129"/>
+      <c r="F15" s="34"/>
+      <c r="G15" s="126"/>
+      <c r="H15" s="127"/>
+      <c r="I15" s="128"/>
+      <c r="J15" s="35"/>
+    </row>
+    <row r="16" spans="2:10" s="21" customFormat="1" ht="20.100000000000001" customHeight="1">
+      <c r="B16" s="36">
+        <v>7</v>
+      </c>
+      <c r="C16" s="129"/>
+      <c r="D16" s="129"/>
+      <c r="E16" s="129"/>
+      <c r="F16" s="34"/>
+      <c r="G16" s="126"/>
+      <c r="H16" s="127"/>
+      <c r="I16" s="128"/>
+      <c r="J16" s="35"/>
+    </row>
+    <row r="17" spans="2:10" s="21" customFormat="1" ht="20.100000000000001" customHeight="1">
+      <c r="B17" s="130" t="s">
+        <v>18</v>
+      </c>
+      <c r="C17" s="131"/>
+      <c r="D17" s="131"/>
+      <c r="E17" s="132"/>
+      <c r="F17" s="44">
+        <f>SUM(F10:F16)</f>
+        <v>8</v>
+      </c>
+      <c r="G17" s="123"/>
+      <c r="H17" s="124"/>
+      <c r="I17" s="125"/>
+      <c r="J17" s="45"/>
+    </row>
+    <row r="18" spans="2:10" s="9" customFormat="1" ht="22.5" customHeight="1">
+      <c r="B18" s="17" t="s">
+        <v>5</v>
+      </c>
+      <c r="C18" s="18"/>
+      <c r="D18" s="18"/>
+      <c r="E18" s="18"/>
+      <c r="F18" s="18"/>
+      <c r="G18" s="18"/>
+      <c r="H18" s="18"/>
+      <c r="I18" s="18"/>
+      <c r="J18" s="19"/>
+    </row>
+    <row r="19" spans="2:10" s="9" customFormat="1" ht="20.100000000000001" customHeight="1">
+      <c r="B19" s="32" t="s">
+        <v>7</v>
+      </c>
+      <c r="C19" s="137" t="s">
+        <v>20</v>
+      </c>
+      <c r="D19" s="137"/>
+      <c r="E19" s="142" t="s">
+        <v>21</v>
+      </c>
+      <c r="F19" s="143"/>
+      <c r="G19" s="143"/>
+      <c r="H19" s="143"/>
+      <c r="I19" s="143"/>
+      <c r="J19" s="144"/>
+    </row>
+    <row r="20" spans="2:10" s="9" customFormat="1" ht="20.100000000000001" customHeight="1">
+      <c r="B20" s="38">
+        <v>1</v>
+      </c>
+      <c r="C20" s="140"/>
+      <c r="D20" s="141"/>
+      <c r="E20" s="145"/>
+      <c r="F20" s="146"/>
+      <c r="G20" s="146"/>
+      <c r="H20" s="146"/>
+      <c r="I20" s="146"/>
+      <c r="J20" s="147"/>
+    </row>
+    <row r="21" spans="2:10" s="9" customFormat="1" ht="20.100000000000001" customHeight="1">
+      <c r="B21" s="39">
+        <v>2</v>
+      </c>
+      <c r="C21" s="140"/>
+      <c r="D21" s="141"/>
+      <c r="E21" s="145"/>
+      <c r="F21" s="146"/>
+      <c r="G21" s="146"/>
+      <c r="H21" s="146"/>
+      <c r="I21" s="146"/>
+      <c r="J21" s="147"/>
+    </row>
+    <row r="22" spans="2:10" s="9" customFormat="1" ht="20.100000000000001" customHeight="1" thickBot="1">
+      <c r="B22" s="40">
+        <v>3</v>
+      </c>
+      <c r="C22" s="138"/>
+      <c r="D22" s="139"/>
+      <c r="E22" s="134"/>
+      <c r="F22" s="135"/>
+      <c r="G22" s="135"/>
+      <c r="H22" s="135"/>
+      <c r="I22" s="135"/>
+      <c r="J22" s="136"/>
+    </row>
+    <row r="24" spans="2:10">
+      <c r="B24" s="42"/>
+    </row>
+    <row r="25" spans="2:10">
+      <c r="B25" s="42"/>
+    </row>
+    <row r="26" spans="2:10">
+      <c r="B26" s="42"/>
+    </row>
+    <row r="27" spans="2:10">
+      <c r="B27" s="42"/>
+    </row>
+  </sheetData>
+  <mergeCells count="30">
+    <mergeCell ref="B1:J1"/>
+    <mergeCell ref="C5:J5"/>
+    <mergeCell ref="C6:J6"/>
+    <mergeCell ref="C7:J7"/>
+    <mergeCell ref="C9:E9"/>
+    <mergeCell ref="G9:I9"/>
+    <mergeCell ref="C10:E10"/>
+    <mergeCell ref="G10:I10"/>
+    <mergeCell ref="C11:E11"/>
+    <mergeCell ref="G11:I11"/>
+    <mergeCell ref="C12:E12"/>
+    <mergeCell ref="G12:I12"/>
+    <mergeCell ref="C13:E13"/>
+    <mergeCell ref="G13:I13"/>
+    <mergeCell ref="C14:E14"/>
+    <mergeCell ref="G14:I14"/>
+    <mergeCell ref="C15:E15"/>
+    <mergeCell ref="G15:I15"/>
     <mergeCell ref="C16:E16"/>
     <mergeCell ref="G16:I16"/>
     <mergeCell ref="B17:E17"/>
     <mergeCell ref="G17:I17"/>
     <mergeCell ref="C19:D19"/>
     <mergeCell ref="E19:J19"/>
+    <mergeCell ref="C20:D20"/>
+    <mergeCell ref="E20:J20"/>
+    <mergeCell ref="C21:D21"/>
+    <mergeCell ref="E21:J21"/>
+    <mergeCell ref="C22:D22"/>
+    <mergeCell ref="E22:J22"/>
+  </mergeCells>
+  <phoneticPr fontId="62" type="noConversion"/>
+  <dataValidations count="3">
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="计划调整时，请保留原来的计划。以类似如下格式修改“2005/1/12-〉1/15”。" sqref="B6"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="对于已完成的关键任务，请将背景标记为淡黄色。" sqref="B5"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="说明：" prompt="对整个项目周期中本模块的关键任务或里程碑进行跟踪。" sqref="B4"/>
+  </dataValidations>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup paperSize="9" scale="85" orientation="landscape" r:id="rId1"/>
+  <headerFooter alignWithMargins="0"/>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B1:J27"/>
+  <sheetViews>
+    <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="C3" sqref="C3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="1.25" style="1" customWidth="1"/>
+    <col min="2" max="2" width="9.125" style="1" customWidth="1"/>
+    <col min="3" max="3" width="19.625" style="1" customWidth="1"/>
+    <col min="4" max="4" width="6.25" style="1" customWidth="1"/>
+    <col min="5" max="5" width="22.5" style="1" customWidth="1"/>
+    <col min="6" max="6" width="14.375" style="1" customWidth="1"/>
+    <col min="7" max="7" width="25.25" style="1" customWidth="1"/>
+    <col min="8" max="8" width="7.75" style="1" customWidth="1"/>
+    <col min="9" max="9" width="16.875" style="1" customWidth="1"/>
+    <col min="10" max="10" width="12.5" style="1" customWidth="1"/>
+    <col min="11" max="16384" width="9" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="2:10" ht="47.25" customHeight="1">
+      <c r="B1" s="109" t="s">
+        <v>13</v>
+      </c>
+      <c r="C1" s="110"/>
+      <c r="D1" s="110"/>
+      <c r="E1" s="110"/>
+      <c r="F1" s="110"/>
+      <c r="G1" s="110"/>
+      <c r="H1" s="110"/>
+      <c r="I1" s="110"/>
+      <c r="J1" s="110"/>
+    </row>
+    <row r="2" spans="2:10" ht="7.5" customHeight="1">
+      <c r="B2" s="2"/>
+      <c r="C2" s="3"/>
+      <c r="D2" s="3"/>
+      <c r="E2" s="3"/>
+      <c r="F2" s="3"/>
+      <c r="G2" s="3"/>
+      <c r="H2" s="3"/>
+      <c r="I2" s="3"/>
+      <c r="J2" s="3"/>
+    </row>
+    <row r="3" spans="2:10" s="4" customFormat="1" ht="21" customHeight="1" thickBot="1">
+      <c r="B3" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" s="102" t="s">
+        <v>88</v>
+      </c>
+      <c r="D3" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="E3" s="103">
+        <v>42951</v>
+      </c>
+      <c r="F3" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="G3" s="104" t="s">
+        <v>87</v>
+      </c>
+      <c r="H3" s="43" t="s">
+        <v>17</v>
+      </c>
+      <c r="I3" s="8"/>
+      <c r="J3" s="7"/>
+    </row>
+    <row r="4" spans="2:10" s="9" customFormat="1" ht="20.100000000000001" customHeight="1">
+      <c r="B4" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="C4" s="11"/>
+      <c r="D4" s="11"/>
+      <c r="E4" s="11"/>
+      <c r="F4" s="11"/>
+      <c r="G4" s="11"/>
+      <c r="H4" s="11"/>
+      <c r="I4" s="11"/>
+      <c r="J4" s="12"/>
+    </row>
+    <row r="5" spans="2:10" s="13" customFormat="1" ht="20.100000000000001" customHeight="1">
+      <c r="B5" s="14" t="s">
+        <v>1</v>
+      </c>
+      <c r="C5" s="111" t="s">
+        <v>62</v>
+      </c>
+      <c r="D5" s="112"/>
+      <c r="E5" s="112"/>
+      <c r="F5" s="112"/>
+      <c r="G5" s="112"/>
+      <c r="H5" s="112"/>
+      <c r="I5" s="112"/>
+      <c r="J5" s="113"/>
+    </row>
+    <row r="6" spans="2:10" s="13" customFormat="1" ht="20.100000000000001" customHeight="1">
+      <c r="B6" s="15" t="s">
+        <v>2</v>
+      </c>
+      <c r="C6" s="114">
+        <v>42951</v>
+      </c>
+      <c r="D6" s="115"/>
+      <c r="E6" s="115"/>
+      <c r="F6" s="115"/>
+      <c r="G6" s="115"/>
+      <c r="H6" s="115"/>
+      <c r="I6" s="115"/>
+      <c r="J6" s="116"/>
+    </row>
+    <row r="7" spans="2:10" s="13" customFormat="1" ht="20.100000000000001" customHeight="1">
+      <c r="B7" s="16" t="s">
+        <v>3</v>
+      </c>
+      <c r="C7" s="120">
+        <v>42951</v>
+      </c>
+      <c r="D7" s="121"/>
+      <c r="E7" s="121"/>
+      <c r="F7" s="121"/>
+      <c r="G7" s="121"/>
+      <c r="H7" s="121"/>
+      <c r="I7" s="121"/>
+      <c r="J7" s="122"/>
+    </row>
+    <row r="8" spans="2:10" s="9" customFormat="1" ht="20.100000000000001" customHeight="1">
+      <c r="B8" s="17" t="s">
+        <v>19</v>
+      </c>
+      <c r="C8" s="18"/>
+      <c r="D8" s="18"/>
+      <c r="E8" s="18"/>
+      <c r="F8" s="18"/>
+      <c r="G8" s="18"/>
+      <c r="H8" s="18"/>
+      <c r="I8" s="18"/>
+      <c r="J8" s="19"/>
+    </row>
+    <row r="9" spans="2:10" s="20" customFormat="1" ht="20.100000000000001" customHeight="1">
+      <c r="B9" s="32" t="s">
+        <v>7</v>
+      </c>
+      <c r="C9" s="117" t="s">
+        <v>4</v>
+      </c>
+      <c r="D9" s="118"/>
+      <c r="E9" s="119"/>
+      <c r="F9" s="41" t="s">
+        <v>11</v>
+      </c>
+      <c r="G9" s="117" t="s">
+        <v>8</v>
+      </c>
+      <c r="H9" s="118"/>
+      <c r="I9" s="119"/>
+      <c r="J9" s="33" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="10" spans="2:10" s="21" customFormat="1" ht="20.100000000000001" customHeight="1">
+      <c r="B10" s="36">
+        <v>1</v>
+      </c>
+      <c r="C10" s="133" t="s">
+        <v>61</v>
+      </c>
+      <c r="D10" s="129"/>
+      <c r="E10" s="129"/>
+      <c r="F10" s="34">
+        <v>2</v>
+      </c>
+      <c r="G10" s="126" t="s">
+        <v>57</v>
+      </c>
+      <c r="H10" s="127"/>
+      <c r="I10" s="128"/>
+      <c r="J10" s="100" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="11" spans="2:10" s="21" customFormat="1" ht="20.100000000000001" customHeight="1">
+      <c r="B11" s="36">
+        <v>2</v>
+      </c>
+      <c r="C11" s="133" t="s">
+        <v>60</v>
+      </c>
+      <c r="D11" s="129"/>
+      <c r="E11" s="129"/>
+      <c r="F11" s="34">
+        <v>3</v>
+      </c>
+      <c r="G11" s="126" t="s">
+        <v>52</v>
+      </c>
+      <c r="H11" s="127"/>
+      <c r="I11" s="128"/>
+      <c r="J11" s="100" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="12" spans="2:10" s="21" customFormat="1" ht="20.100000000000001" customHeight="1">
+      <c r="B12" s="37">
+        <v>3</v>
+      </c>
+      <c r="C12" s="133"/>
+      <c r="D12" s="129"/>
+      <c r="E12" s="129"/>
+      <c r="F12" s="34"/>
+      <c r="G12" s="126"/>
+      <c r="H12" s="127"/>
+      <c r="I12" s="128"/>
+      <c r="J12" s="100"/>
+    </row>
+    <row r="13" spans="2:10" s="21" customFormat="1" ht="20.100000000000001" customHeight="1">
+      <c r="B13" s="36">
+        <v>4</v>
+      </c>
+      <c r="C13" s="129"/>
+      <c r="D13" s="129"/>
+      <c r="E13" s="129"/>
+      <c r="F13" s="34"/>
+      <c r="G13" s="126"/>
+      <c r="H13" s="127"/>
+      <c r="I13" s="128"/>
+      <c r="J13" s="35"/>
+    </row>
+    <row r="14" spans="2:10" s="21" customFormat="1" ht="20.100000000000001" customHeight="1">
+      <c r="B14" s="36">
+        <v>5</v>
+      </c>
+      <c r="C14" s="129"/>
+      <c r="D14" s="129"/>
+      <c r="E14" s="129"/>
+      <c r="F14" s="34"/>
+      <c r="G14" s="126"/>
+      <c r="H14" s="127"/>
+      <c r="I14" s="128"/>
+      <c r="J14" s="35"/>
+    </row>
+    <row r="15" spans="2:10" s="21" customFormat="1" ht="20.100000000000001" customHeight="1">
+      <c r="B15" s="37">
+        <v>6</v>
+      </c>
+      <c r="C15" s="129"/>
+      <c r="D15" s="129"/>
+      <c r="E15" s="129"/>
+      <c r="F15" s="34"/>
+      <c r="G15" s="126"/>
+      <c r="H15" s="127"/>
+      <c r="I15" s="128"/>
+      <c r="J15" s="35"/>
+    </row>
+    <row r="16" spans="2:10" s="21" customFormat="1" ht="20.100000000000001" customHeight="1">
+      <c r="B16" s="36">
+        <v>7</v>
+      </c>
+      <c r="C16" s="129"/>
+      <c r="D16" s="129"/>
+      <c r="E16" s="129"/>
+      <c r="F16" s="34"/>
+      <c r="G16" s="126"/>
+      <c r="H16" s="127"/>
+      <c r="I16" s="128"/>
+      <c r="J16" s="35"/>
+    </row>
+    <row r="17" spans="2:10" s="21" customFormat="1" ht="20.100000000000001" customHeight="1">
+      <c r="B17" s="130" t="s">
+        <v>18</v>
+      </c>
+      <c r="C17" s="131"/>
+      <c r="D17" s="131"/>
+      <c r="E17" s="132"/>
+      <c r="F17" s="44">
+        <f>SUM(F10:F16)</f>
+        <v>5</v>
+      </c>
+      <c r="G17" s="123"/>
+      <c r="H17" s="124"/>
+      <c r="I17" s="125"/>
+      <c r="J17" s="45"/>
+    </row>
+    <row r="18" spans="2:10" s="9" customFormat="1" ht="22.5" customHeight="1">
+      <c r="B18" s="17" t="s">
+        <v>5</v>
+      </c>
+      <c r="C18" s="18"/>
+      <c r="D18" s="18"/>
+      <c r="E18" s="18"/>
+      <c r="F18" s="18"/>
+      <c r="G18" s="18"/>
+      <c r="H18" s="18"/>
+      <c r="I18" s="18"/>
+      <c r="J18" s="19"/>
+    </row>
+    <row r="19" spans="2:10" s="9" customFormat="1" ht="20.100000000000001" customHeight="1">
+      <c r="B19" s="32" t="s">
+        <v>7</v>
+      </c>
+      <c r="C19" s="137" t="s">
+        <v>20</v>
+      </c>
+      <c r="D19" s="137"/>
+      <c r="E19" s="142" t="s">
+        <v>21</v>
+      </c>
+      <c r="F19" s="143"/>
+      <c r="G19" s="143"/>
+      <c r="H19" s="143"/>
+      <c r="I19" s="143"/>
+      <c r="J19" s="144"/>
+    </row>
+    <row r="20" spans="2:10" s="9" customFormat="1" ht="20.100000000000001" customHeight="1">
+      <c r="B20" s="38">
+        <v>1</v>
+      </c>
+      <c r="C20" s="140"/>
+      <c r="D20" s="141"/>
+      <c r="E20" s="145"/>
+      <c r="F20" s="146"/>
+      <c r="G20" s="146"/>
+      <c r="H20" s="146"/>
+      <c r="I20" s="146"/>
+      <c r="J20" s="147"/>
+    </row>
+    <row r="21" spans="2:10" s="9" customFormat="1" ht="20.100000000000001" customHeight="1">
+      <c r="B21" s="39">
+        <v>2</v>
+      </c>
+      <c r="C21" s="140"/>
+      <c r="D21" s="141"/>
+      <c r="E21" s="145"/>
+      <c r="F21" s="146"/>
+      <c r="G21" s="146"/>
+      <c r="H21" s="146"/>
+      <c r="I21" s="146"/>
+      <c r="J21" s="147"/>
+    </row>
+    <row r="22" spans="2:10" s="9" customFormat="1" ht="20.100000000000001" customHeight="1" thickBot="1">
+      <c r="B22" s="40">
+        <v>3</v>
+      </c>
+      <c r="C22" s="138"/>
+      <c r="D22" s="139"/>
+      <c r="E22" s="134"/>
+      <c r="F22" s="135"/>
+      <c r="G22" s="135"/>
+      <c r="H22" s="135"/>
+      <c r="I22" s="135"/>
+      <c r="J22" s="136"/>
+    </row>
+    <row r="24" spans="2:10">
+      <c r="B24" s="42"/>
+    </row>
+    <row r="25" spans="2:10">
+      <c r="B25" s="42"/>
+    </row>
+    <row r="26" spans="2:10">
+      <c r="B26" s="42"/>
+    </row>
+    <row r="27" spans="2:10">
+      <c r="B27" s="42"/>
+    </row>
+  </sheetData>
+  <mergeCells count="30">
+    <mergeCell ref="B1:J1"/>
+    <mergeCell ref="C5:J5"/>
+    <mergeCell ref="C6:J6"/>
+    <mergeCell ref="C7:J7"/>
+    <mergeCell ref="C9:E9"/>
+    <mergeCell ref="G9:I9"/>
+    <mergeCell ref="C10:E10"/>
+    <mergeCell ref="G10:I10"/>
+    <mergeCell ref="C11:E11"/>
+    <mergeCell ref="G11:I11"/>
+    <mergeCell ref="C12:E12"/>
+    <mergeCell ref="G12:I12"/>
     <mergeCell ref="C13:E13"/>
     <mergeCell ref="G13:I13"/>
     <mergeCell ref="C14:E14"/>
     <mergeCell ref="G14:I14"/>
     <mergeCell ref="C15:E15"/>
     <mergeCell ref="G15:I15"/>
+    <mergeCell ref="C16:E16"/>
+    <mergeCell ref="G16:I16"/>
+    <mergeCell ref="B17:E17"/>
+    <mergeCell ref="G17:I17"/>
+    <mergeCell ref="C19:D19"/>
+    <mergeCell ref="E19:J19"/>
+    <mergeCell ref="C20:D20"/>
+    <mergeCell ref="E20:J20"/>
+    <mergeCell ref="C21:D21"/>
+    <mergeCell ref="E21:J21"/>
+    <mergeCell ref="C22:D22"/>
+    <mergeCell ref="E22:J22"/>
+  </mergeCells>
+  <phoneticPr fontId="62" type="noConversion"/>
+  <dataValidations count="3">
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="说明：" prompt="对整个项目周期中本模块的关键任务或里程碑进行跟踪。" sqref="B4"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="对于已完成的关键任务，请将背景标记为淡黄色。" sqref="B5"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="计划调整时，请保留原来的计划。以类似如下格式修改“2005/1/12-〉1/15”。" sqref="B6"/>
+  </dataValidations>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup paperSize="9" scale="85" orientation="landscape" r:id="rId1"/>
+  <headerFooter alignWithMargins="0"/>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B1:J27"/>
+  <sheetViews>
+    <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="G3" sqref="G3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="1.25" style="1" customWidth="1"/>
+    <col min="2" max="2" width="9.125" style="1" customWidth="1"/>
+    <col min="3" max="3" width="19.625" style="1" customWidth="1"/>
+    <col min="4" max="4" width="6.25" style="1" customWidth="1"/>
+    <col min="5" max="5" width="22.5" style="1" customWidth="1"/>
+    <col min="6" max="6" width="14.375" style="1" customWidth="1"/>
+    <col min="7" max="7" width="25.25" style="1" customWidth="1"/>
+    <col min="8" max="8" width="7.75" style="1" customWidth="1"/>
+    <col min="9" max="9" width="16.875" style="1" customWidth="1"/>
+    <col min="10" max="10" width="12.5" style="1" customWidth="1"/>
+    <col min="11" max="16384" width="9" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="2:10" ht="47.25" customHeight="1">
+      <c r="B1" s="109" t="s">
+        <v>13</v>
+      </c>
+      <c r="C1" s="110"/>
+      <c r="D1" s="110"/>
+      <c r="E1" s="110"/>
+      <c r="F1" s="110"/>
+      <c r="G1" s="110"/>
+      <c r="H1" s="110"/>
+      <c r="I1" s="110"/>
+      <c r="J1" s="110"/>
+    </row>
+    <row r="2" spans="2:10" ht="7.5" customHeight="1">
+      <c r="B2" s="2"/>
+      <c r="C2" s="3"/>
+      <c r="D2" s="3"/>
+      <c r="E2" s="3"/>
+      <c r="F2" s="3"/>
+      <c r="G2" s="3"/>
+      <c r="H2" s="3"/>
+      <c r="I2" s="3"/>
+      <c r="J2" s="3"/>
+    </row>
+    <row r="3" spans="2:10" s="4" customFormat="1" ht="21" customHeight="1" thickBot="1">
+      <c r="B3" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" s="102" t="s">
+        <v>89</v>
+      </c>
+      <c r="D3" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="E3" s="103">
+        <v>42952</v>
+      </c>
+      <c r="F3" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="G3" s="104" t="s">
+        <v>90</v>
+      </c>
+      <c r="H3" s="43" t="s">
+        <v>17</v>
+      </c>
+      <c r="I3" s="8"/>
+      <c r="J3" s="7"/>
+    </row>
+    <row r="4" spans="2:10" s="9" customFormat="1" ht="20.100000000000001" customHeight="1">
+      <c r="B4" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="C4" s="11"/>
+      <c r="D4" s="11"/>
+      <c r="E4" s="11"/>
+      <c r="F4" s="11"/>
+      <c r="G4" s="11"/>
+      <c r="H4" s="11"/>
+      <c r="I4" s="11"/>
+      <c r="J4" s="12"/>
+    </row>
+    <row r="5" spans="2:10" s="13" customFormat="1" ht="20.100000000000001" customHeight="1">
+      <c r="B5" s="14" t="s">
+        <v>1</v>
+      </c>
+      <c r="C5" s="111" t="s">
+        <v>68</v>
+      </c>
+      <c r="D5" s="112"/>
+      <c r="E5" s="112"/>
+      <c r="F5" s="112"/>
+      <c r="G5" s="112"/>
+      <c r="H5" s="112"/>
+      <c r="I5" s="112"/>
+      <c r="J5" s="113"/>
+    </row>
+    <row r="6" spans="2:10" s="13" customFormat="1" ht="20.100000000000001" customHeight="1">
+      <c r="B6" s="15" t="s">
+        <v>2</v>
+      </c>
+      <c r="C6" s="114">
+        <v>42952</v>
+      </c>
+      <c r="D6" s="115"/>
+      <c r="E6" s="115"/>
+      <c r="F6" s="115"/>
+      <c r="G6" s="115"/>
+      <c r="H6" s="115"/>
+      <c r="I6" s="115"/>
+      <c r="J6" s="116"/>
+    </row>
+    <row r="7" spans="2:10" s="13" customFormat="1" ht="20.100000000000001" customHeight="1">
+      <c r="B7" s="16" t="s">
+        <v>3</v>
+      </c>
+      <c r="C7" s="120">
+        <v>42952</v>
+      </c>
+      <c r="D7" s="121"/>
+      <c r="E7" s="121"/>
+      <c r="F7" s="121"/>
+      <c r="G7" s="121"/>
+      <c r="H7" s="121"/>
+      <c r="I7" s="121"/>
+      <c r="J7" s="122"/>
+    </row>
+    <row r="8" spans="2:10" s="9" customFormat="1" ht="20.100000000000001" customHeight="1">
+      <c r="B8" s="17" t="s">
+        <v>19</v>
+      </c>
+      <c r="C8" s="18"/>
+      <c r="D8" s="18"/>
+      <c r="E8" s="18"/>
+      <c r="F8" s="18"/>
+      <c r="G8" s="18"/>
+      <c r="H8" s="18"/>
+      <c r="I8" s="18"/>
+      <c r="J8" s="19"/>
+    </row>
+    <row r="9" spans="2:10" s="20" customFormat="1" ht="20.100000000000001" customHeight="1">
+      <c r="B9" s="32" t="s">
+        <v>7</v>
+      </c>
+      <c r="C9" s="117" t="s">
+        <v>4</v>
+      </c>
+      <c r="D9" s="118"/>
+      <c r="E9" s="119"/>
+      <c r="F9" s="41" t="s">
+        <v>11</v>
+      </c>
+      <c r="G9" s="117" t="s">
+        <v>8</v>
+      </c>
+      <c r="H9" s="118"/>
+      <c r="I9" s="119"/>
+      <c r="J9" s="33" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="10" spans="2:10" s="21" customFormat="1" ht="20.100000000000001" customHeight="1">
+      <c r="B10" s="36">
+        <v>1</v>
+      </c>
+      <c r="C10" s="133" t="s">
+        <v>65</v>
+      </c>
+      <c r="D10" s="129"/>
+      <c r="E10" s="129"/>
+      <c r="F10" s="34">
+        <v>5</v>
+      </c>
+      <c r="G10" s="126" t="s">
+        <v>57</v>
+      </c>
+      <c r="H10" s="127"/>
+      <c r="I10" s="128"/>
+      <c r="J10" s="100" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="11" spans="2:10" s="21" customFormat="1" ht="20.100000000000001" customHeight="1">
+      <c r="B11" s="36">
+        <v>2</v>
+      </c>
+      <c r="C11" s="133" t="s">
+        <v>66</v>
+      </c>
+      <c r="D11" s="129"/>
+      <c r="E11" s="129"/>
+      <c r="F11" s="34">
+        <v>3</v>
+      </c>
+      <c r="G11" s="126" t="s">
+        <v>52</v>
+      </c>
+      <c r="H11" s="127"/>
+      <c r="I11" s="128"/>
+      <c r="J11" s="100" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="12" spans="2:10" s="21" customFormat="1" ht="20.100000000000001" customHeight="1">
+      <c r="B12" s="37">
+        <v>3</v>
+      </c>
+      <c r="C12" s="133" t="s">
+        <v>69</v>
+      </c>
+      <c r="D12" s="129"/>
+      <c r="E12" s="129"/>
+      <c r="F12" s="34">
+        <v>3</v>
+      </c>
+      <c r="G12" s="126"/>
+      <c r="H12" s="127"/>
+      <c r="I12" s="128"/>
+      <c r="J12" s="100" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="13" spans="2:10" s="21" customFormat="1" ht="20.100000000000001" customHeight="1">
+      <c r="B13" s="36">
+        <v>4</v>
+      </c>
+      <c r="C13" s="129"/>
+      <c r="D13" s="129"/>
+      <c r="E13" s="129"/>
+      <c r="F13" s="34"/>
+      <c r="G13" s="126"/>
+      <c r="H13" s="127"/>
+      <c r="I13" s="128"/>
+      <c r="J13" s="35"/>
+    </row>
+    <row r="14" spans="2:10" s="21" customFormat="1" ht="20.100000000000001" customHeight="1">
+      <c r="B14" s="36">
+        <v>5</v>
+      </c>
+      <c r="C14" s="129"/>
+      <c r="D14" s="129"/>
+      <c r="E14" s="129"/>
+      <c r="F14" s="34"/>
+      <c r="G14" s="126"/>
+      <c r="H14" s="127"/>
+      <c r="I14" s="128"/>
+      <c r="J14" s="35"/>
+    </row>
+    <row r="15" spans="2:10" s="21" customFormat="1" ht="20.100000000000001" customHeight="1">
+      <c r="B15" s="37">
+        <v>6</v>
+      </c>
+      <c r="C15" s="129"/>
+      <c r="D15" s="129"/>
+      <c r="E15" s="129"/>
+      <c r="F15" s="34"/>
+      <c r="G15" s="126"/>
+      <c r="H15" s="127"/>
+      <c r="I15" s="128"/>
+      <c r="J15" s="35"/>
+    </row>
+    <row r="16" spans="2:10" s="21" customFormat="1" ht="20.100000000000001" customHeight="1">
+      <c r="B16" s="36">
+        <v>7</v>
+      </c>
+      <c r="C16" s="129"/>
+      <c r="D16" s="129"/>
+      <c r="E16" s="129"/>
+      <c r="F16" s="34"/>
+      <c r="G16" s="126"/>
+      <c r="H16" s="127"/>
+      <c r="I16" s="128"/>
+      <c r="J16" s="35"/>
+    </row>
+    <row r="17" spans="2:10" s="21" customFormat="1" ht="20.100000000000001" customHeight="1">
+      <c r="B17" s="130" t="s">
+        <v>18</v>
+      </c>
+      <c r="C17" s="131"/>
+      <c r="D17" s="131"/>
+      <c r="E17" s="132"/>
+      <c r="F17" s="44">
+        <f>SUM(F10:F16)</f>
+        <v>11</v>
+      </c>
+      <c r="G17" s="123"/>
+      <c r="H17" s="124"/>
+      <c r="I17" s="125"/>
+      <c r="J17" s="45"/>
+    </row>
+    <row r="18" spans="2:10" s="9" customFormat="1" ht="22.5" customHeight="1">
+      <c r="B18" s="17" t="s">
+        <v>5</v>
+      </c>
+      <c r="C18" s="18"/>
+      <c r="D18" s="18"/>
+      <c r="E18" s="18"/>
+      <c r="F18" s="18"/>
+      <c r="G18" s="18"/>
+      <c r="H18" s="18"/>
+      <c r="I18" s="18"/>
+      <c r="J18" s="19"/>
+    </row>
+    <row r="19" spans="2:10" s="9" customFormat="1" ht="20.100000000000001" customHeight="1">
+      <c r="B19" s="32" t="s">
+        <v>7</v>
+      </c>
+      <c r="C19" s="137" t="s">
+        <v>20</v>
+      </c>
+      <c r="D19" s="137"/>
+      <c r="E19" s="142" t="s">
+        <v>21</v>
+      </c>
+      <c r="F19" s="143"/>
+      <c r="G19" s="143"/>
+      <c r="H19" s="143"/>
+      <c r="I19" s="143"/>
+      <c r="J19" s="144"/>
+    </row>
+    <row r="20" spans="2:10" s="9" customFormat="1" ht="20.100000000000001" customHeight="1">
+      <c r="B20" s="38">
+        <v>1</v>
+      </c>
+      <c r="C20" s="140"/>
+      <c r="D20" s="141"/>
+      <c r="E20" s="145"/>
+      <c r="F20" s="146"/>
+      <c r="G20" s="146"/>
+      <c r="H20" s="146"/>
+      <c r="I20" s="146"/>
+      <c r="J20" s="147"/>
+    </row>
+    <row r="21" spans="2:10" s="9" customFormat="1" ht="20.100000000000001" customHeight="1">
+      <c r="B21" s="39">
+        <v>2</v>
+      </c>
+      <c r="C21" s="140"/>
+      <c r="D21" s="141"/>
+      <c r="E21" s="145"/>
+      <c r="F21" s="146"/>
+      <c r="G21" s="146"/>
+      <c r="H21" s="146"/>
+      <c r="I21" s="146"/>
+      <c r="J21" s="147"/>
+    </row>
+    <row r="22" spans="2:10" s="9" customFormat="1" ht="20.100000000000001" customHeight="1" thickBot="1">
+      <c r="B22" s="40">
+        <v>3</v>
+      </c>
+      <c r="C22" s="138"/>
+      <c r="D22" s="139"/>
+      <c r="E22" s="134"/>
+      <c r="F22" s="135"/>
+      <c r="G22" s="135"/>
+      <c r="H22" s="135"/>
+      <c r="I22" s="135"/>
+      <c r="J22" s="136"/>
+    </row>
+    <row r="24" spans="2:10">
+      <c r="B24" s="42"/>
+    </row>
+    <row r="25" spans="2:10">
+      <c r="B25" s="42"/>
+    </row>
+    <row r="26" spans="2:10">
+      <c r="B26" s="42"/>
+    </row>
+    <row r="27" spans="2:10">
+      <c r="B27" s="42"/>
+    </row>
+  </sheetData>
+  <mergeCells count="30">
+    <mergeCell ref="B1:J1"/>
+    <mergeCell ref="C5:J5"/>
+    <mergeCell ref="C6:J6"/>
+    <mergeCell ref="C7:J7"/>
+    <mergeCell ref="C9:E9"/>
+    <mergeCell ref="G9:I9"/>
     <mergeCell ref="C10:E10"/>
     <mergeCell ref="G10:I10"/>
     <mergeCell ref="C11:E11"/>
     <mergeCell ref="G11:I11"/>
     <mergeCell ref="C12:E12"/>
     <mergeCell ref="G12:I12"/>
+    <mergeCell ref="C13:E13"/>
+    <mergeCell ref="G13:I13"/>
+    <mergeCell ref="C14:E14"/>
+    <mergeCell ref="G14:I14"/>
+    <mergeCell ref="C15:E15"/>
+    <mergeCell ref="G15:I15"/>
+    <mergeCell ref="C16:E16"/>
+    <mergeCell ref="G16:I16"/>
+    <mergeCell ref="B17:E17"/>
+    <mergeCell ref="G17:I17"/>
+    <mergeCell ref="C19:D19"/>
+    <mergeCell ref="E19:J19"/>
+    <mergeCell ref="C20:D20"/>
+    <mergeCell ref="E20:J20"/>
+    <mergeCell ref="C21:D21"/>
+    <mergeCell ref="E21:J21"/>
+    <mergeCell ref="C22:D22"/>
+    <mergeCell ref="E22:J22"/>
+  </mergeCells>
+  <phoneticPr fontId="62" type="noConversion"/>
+  <dataValidations count="3">
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="计划调整时，请保留原来的计划。以类似如下格式修改“2005/1/12-〉1/15”。" sqref="B6"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="对于已完成的关键任务，请将背景标记为淡黄色。" sqref="B5"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="说明：" prompt="对整个项目周期中本模块的关键任务或里程碑进行跟踪。" sqref="B4"/>
+  </dataValidations>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup paperSize="9" scale="85" orientation="landscape" r:id="rId1"/>
+  <headerFooter alignWithMargins="0"/>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B1:J27"/>
+  <sheetViews>
+    <sheetView showGridLines="0" topLeftCell="A2" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="C3" sqref="C3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="1.25" style="1" customWidth="1"/>
+    <col min="2" max="2" width="9.125" style="1" customWidth="1"/>
+    <col min="3" max="3" width="19.625" style="1" customWidth="1"/>
+    <col min="4" max="4" width="6.25" style="1" customWidth="1"/>
+    <col min="5" max="5" width="22.5" style="1" customWidth="1"/>
+    <col min="6" max="6" width="14.375" style="1" customWidth="1"/>
+    <col min="7" max="7" width="25.25" style="1" customWidth="1"/>
+    <col min="8" max="8" width="7.75" style="1" customWidth="1"/>
+    <col min="9" max="9" width="16.875" style="1" customWidth="1"/>
+    <col min="10" max="10" width="12.5" style="1" customWidth="1"/>
+    <col min="11" max="16384" width="9" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="2:10" ht="47.25" customHeight="1">
+      <c r="B1" s="109" t="s">
+        <v>13</v>
+      </c>
+      <c r="C1" s="110"/>
+      <c r="D1" s="110"/>
+      <c r="E1" s="110"/>
+      <c r="F1" s="110"/>
+      <c r="G1" s="110"/>
+      <c r="H1" s="110"/>
+      <c r="I1" s="110"/>
+      <c r="J1" s="110"/>
+    </row>
+    <row r="2" spans="2:10" ht="7.5" customHeight="1">
+      <c r="B2" s="2"/>
+      <c r="C2" s="3"/>
+      <c r="D2" s="3"/>
+      <c r="E2" s="3"/>
+      <c r="F2" s="3"/>
+      <c r="G2" s="3"/>
+      <c r="H2" s="3"/>
+      <c r="I2" s="3"/>
+      <c r="J2" s="3"/>
+    </row>
+    <row r="3" spans="2:10" s="4" customFormat="1" ht="21" customHeight="1" thickBot="1">
+      <c r="B3" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" s="102" t="s">
+        <v>88</v>
+      </c>
+      <c r="D3" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="E3" s="103">
+        <v>42953</v>
+      </c>
+      <c r="F3" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="G3" s="104" t="s">
+        <v>87</v>
+      </c>
+      <c r="H3" s="43" t="s">
+        <v>17</v>
+      </c>
+      <c r="I3" s="8"/>
+      <c r="J3" s="7"/>
+    </row>
+    <row r="4" spans="2:10" s="9" customFormat="1" ht="20.100000000000001" customHeight="1">
+      <c r="B4" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="C4" s="11"/>
+      <c r="D4" s="11"/>
+      <c r="E4" s="11"/>
+      <c r="F4" s="11"/>
+      <c r="G4" s="11"/>
+      <c r="H4" s="11"/>
+      <c r="I4" s="11"/>
+      <c r="J4" s="12"/>
+    </row>
+    <row r="5" spans="2:10" s="13" customFormat="1" ht="20.100000000000001" customHeight="1">
+      <c r="B5" s="14" t="s">
+        <v>1</v>
+      </c>
+      <c r="C5" s="111" t="s">
+        <v>68</v>
+      </c>
+      <c r="D5" s="112"/>
+      <c r="E5" s="112"/>
+      <c r="F5" s="112"/>
+      <c r="G5" s="112"/>
+      <c r="H5" s="112"/>
+      <c r="I5" s="112"/>
+      <c r="J5" s="113"/>
+    </row>
+    <row r="6" spans="2:10" s="13" customFormat="1" ht="20.100000000000001" customHeight="1">
+      <c r="B6" s="15" t="s">
+        <v>2</v>
+      </c>
+      <c r="C6" s="114">
+        <v>42953</v>
+      </c>
+      <c r="D6" s="115"/>
+      <c r="E6" s="115"/>
+      <c r="F6" s="115"/>
+      <c r="G6" s="115"/>
+      <c r="H6" s="115"/>
+      <c r="I6" s="115"/>
+      <c r="J6" s="116"/>
+    </row>
+    <row r="7" spans="2:10" s="13" customFormat="1" ht="20.100000000000001" customHeight="1">
+      <c r="B7" s="16" t="s">
+        <v>3</v>
+      </c>
+      <c r="C7" s="120">
+        <v>42953</v>
+      </c>
+      <c r="D7" s="121"/>
+      <c r="E7" s="121"/>
+      <c r="F7" s="121"/>
+      <c r="G7" s="121"/>
+      <c r="H7" s="121"/>
+      <c r="I7" s="121"/>
+      <c r="J7" s="122"/>
+    </row>
+    <row r="8" spans="2:10" s="9" customFormat="1" ht="20.100000000000001" customHeight="1">
+      <c r="B8" s="17" t="s">
+        <v>19</v>
+      </c>
+      <c r="C8" s="18"/>
+      <c r="D8" s="18"/>
+      <c r="E8" s="18"/>
+      <c r="F8" s="18"/>
+      <c r="G8" s="18"/>
+      <c r="H8" s="18"/>
+      <c r="I8" s="18"/>
+      <c r="J8" s="19"/>
+    </row>
+    <row r="9" spans="2:10" s="20" customFormat="1" ht="20.100000000000001" customHeight="1">
+      <c r="B9" s="32" t="s">
+        <v>7</v>
+      </c>
+      <c r="C9" s="117" t="s">
+        <v>4</v>
+      </c>
+      <c r="D9" s="118"/>
+      <c r="E9" s="119"/>
+      <c r="F9" s="41" t="s">
+        <v>11</v>
+      </c>
+      <c r="G9" s="117" t="s">
+        <v>8</v>
+      </c>
+      <c r="H9" s="118"/>
+      <c r="I9" s="119"/>
+      <c r="J9" s="33" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="10" spans="2:10" s="21" customFormat="1" ht="20.100000000000001" customHeight="1">
+      <c r="B10" s="36">
+        <v>1</v>
+      </c>
+      <c r="C10" s="133" t="s">
+        <v>70</v>
+      </c>
+      <c r="D10" s="129"/>
+      <c r="E10" s="129"/>
+      <c r="F10" s="34">
+        <v>5</v>
+      </c>
+      <c r="G10" s="126" t="s">
+        <v>57</v>
+      </c>
+      <c r="H10" s="127"/>
+      <c r="I10" s="128"/>
+      <c r="J10" s="100" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="11" spans="2:10" s="21" customFormat="1" ht="20.100000000000001" customHeight="1">
+      <c r="B11" s="36">
+        <v>2</v>
+      </c>
+      <c r="C11" s="148" t="s">
+        <v>71</v>
+      </c>
+      <c r="D11" s="149"/>
+      <c r="E11" s="150"/>
+      <c r="F11" s="34">
+        <v>3</v>
+      </c>
+      <c r="G11" s="126"/>
+      <c r="H11" s="127"/>
+      <c r="I11" s="128"/>
+      <c r="J11" s="100" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="12" spans="2:10" s="21" customFormat="1" ht="20.100000000000001" customHeight="1">
+      <c r="B12" s="37">
+        <v>3</v>
+      </c>
+      <c r="C12" s="133"/>
+      <c r="D12" s="129"/>
+      <c r="E12" s="129"/>
+      <c r="F12" s="34"/>
+      <c r="G12" s="126"/>
+      <c r="H12" s="127"/>
+      <c r="I12" s="128"/>
+      <c r="J12" s="100"/>
+    </row>
+    <row r="13" spans="2:10" s="21" customFormat="1" ht="20.100000000000001" customHeight="1">
+      <c r="B13" s="36">
+        <v>4</v>
+      </c>
+      <c r="C13" s="129"/>
+      <c r="D13" s="129"/>
+      <c r="E13" s="129"/>
+      <c r="F13" s="34"/>
+      <c r="G13" s="126"/>
+      <c r="H13" s="127"/>
+      <c r="I13" s="128"/>
+      <c r="J13" s="35"/>
+    </row>
+    <row r="14" spans="2:10" s="21" customFormat="1" ht="20.100000000000001" customHeight="1">
+      <c r="B14" s="36">
+        <v>5</v>
+      </c>
+      <c r="C14" s="129"/>
+      <c r="D14" s="129"/>
+      <c r="E14" s="129"/>
+      <c r="F14" s="34"/>
+      <c r="G14" s="126"/>
+      <c r="H14" s="127"/>
+      <c r="I14" s="128"/>
+      <c r="J14" s="35"/>
+    </row>
+    <row r="15" spans="2:10" s="21" customFormat="1" ht="20.100000000000001" customHeight="1">
+      <c r="B15" s="37">
+        <v>6</v>
+      </c>
+      <c r="C15" s="129"/>
+      <c r="D15" s="129"/>
+      <c r="E15" s="129"/>
+      <c r="F15" s="34"/>
+      <c r="G15" s="126"/>
+      <c r="H15" s="127"/>
+      <c r="I15" s="128"/>
+      <c r="J15" s="35"/>
+    </row>
+    <row r="16" spans="2:10" s="21" customFormat="1" ht="20.100000000000001" customHeight="1">
+      <c r="B16" s="36">
+        <v>7</v>
+      </c>
+      <c r="C16" s="129"/>
+      <c r="D16" s="129"/>
+      <c r="E16" s="129"/>
+      <c r="F16" s="34"/>
+      <c r="G16" s="126"/>
+      <c r="H16" s="127"/>
+      <c r="I16" s="128"/>
+      <c r="J16" s="35"/>
+    </row>
+    <row r="17" spans="2:10" s="21" customFormat="1" ht="20.100000000000001" customHeight="1">
+      <c r="B17" s="130" t="s">
+        <v>18</v>
+      </c>
+      <c r="C17" s="131"/>
+      <c r="D17" s="131"/>
+      <c r="E17" s="132"/>
+      <c r="F17" s="44">
+        <f>SUM(F10:F16)</f>
+        <v>8</v>
+      </c>
+      <c r="G17" s="123"/>
+      <c r="H17" s="124"/>
+      <c r="I17" s="125"/>
+      <c r="J17" s="45"/>
+    </row>
+    <row r="18" spans="2:10" s="9" customFormat="1" ht="22.5" customHeight="1">
+      <c r="B18" s="17" t="s">
+        <v>5</v>
+      </c>
+      <c r="C18" s="18"/>
+      <c r="D18" s="18"/>
+      <c r="E18" s="18"/>
+      <c r="F18" s="18"/>
+      <c r="G18" s="18"/>
+      <c r="H18" s="18"/>
+      <c r="I18" s="18"/>
+      <c r="J18" s="19"/>
+    </row>
+    <row r="19" spans="2:10" s="9" customFormat="1" ht="20.100000000000001" customHeight="1">
+      <c r="B19" s="32" t="s">
+        <v>7</v>
+      </c>
+      <c r="C19" s="137" t="s">
+        <v>20</v>
+      </c>
+      <c r="D19" s="137"/>
+      <c r="E19" s="142" t="s">
+        <v>21</v>
+      </c>
+      <c r="F19" s="143"/>
+      <c r="G19" s="143"/>
+      <c r="H19" s="143"/>
+      <c r="I19" s="143"/>
+      <c r="J19" s="144"/>
+    </row>
+    <row r="20" spans="2:10" s="9" customFormat="1" ht="20.100000000000001" customHeight="1">
+      <c r="B20" s="38">
+        <v>1</v>
+      </c>
+      <c r="C20" s="140"/>
+      <c r="D20" s="141"/>
+      <c r="E20" s="145"/>
+      <c r="F20" s="146"/>
+      <c r="G20" s="146"/>
+      <c r="H20" s="146"/>
+      <c r="I20" s="146"/>
+      <c r="J20" s="147"/>
+    </row>
+    <row r="21" spans="2:10" s="9" customFormat="1" ht="20.100000000000001" customHeight="1">
+      <c r="B21" s="39">
+        <v>2</v>
+      </c>
+      <c r="C21" s="140"/>
+      <c r="D21" s="141"/>
+      <c r="E21" s="145"/>
+      <c r="F21" s="146"/>
+      <c r="G21" s="146"/>
+      <c r="H21" s="146"/>
+      <c r="I21" s="146"/>
+      <c r="J21" s="147"/>
+    </row>
+    <row r="22" spans="2:10" s="9" customFormat="1" ht="20.100000000000001" customHeight="1" thickBot="1">
+      <c r="B22" s="40">
+        <v>3</v>
+      </c>
+      <c r="C22" s="138"/>
+      <c r="D22" s="139"/>
+      <c r="E22" s="134"/>
+      <c r="F22" s="135"/>
+      <c r="G22" s="135"/>
+      <c r="H22" s="135"/>
+      <c r="I22" s="135"/>
+      <c r="J22" s="136"/>
+    </row>
+    <row r="24" spans="2:10">
+      <c r="B24" s="42"/>
+    </row>
+    <row r="25" spans="2:10">
+      <c r="B25" s="42"/>
+    </row>
+    <row r="26" spans="2:10">
+      <c r="B26" s="42"/>
+    </row>
+    <row r="27" spans="2:10">
+      <c r="B27" s="42"/>
+    </row>
+  </sheetData>
+  <mergeCells count="30">
     <mergeCell ref="B1:J1"/>
     <mergeCell ref="C5:J5"/>
     <mergeCell ref="C6:J6"/>
     <mergeCell ref="C7:J7"/>
     <mergeCell ref="C9:E9"/>
     <mergeCell ref="G9:I9"/>
+    <mergeCell ref="C10:E10"/>
+    <mergeCell ref="G10:I10"/>
+    <mergeCell ref="C11:E11"/>
+    <mergeCell ref="G11:I11"/>
+    <mergeCell ref="C12:E12"/>
+    <mergeCell ref="G12:I12"/>
+    <mergeCell ref="C13:E13"/>
+    <mergeCell ref="G13:I13"/>
+    <mergeCell ref="C14:E14"/>
+    <mergeCell ref="G14:I14"/>
+    <mergeCell ref="C15:E15"/>
+    <mergeCell ref="G15:I15"/>
+    <mergeCell ref="C16:E16"/>
+    <mergeCell ref="G16:I16"/>
+    <mergeCell ref="B17:E17"/>
+    <mergeCell ref="G17:I17"/>
+    <mergeCell ref="C19:D19"/>
+    <mergeCell ref="E19:J19"/>
+    <mergeCell ref="C20:D20"/>
+    <mergeCell ref="E20:J20"/>
+    <mergeCell ref="C21:D21"/>
+    <mergeCell ref="E21:J21"/>
+    <mergeCell ref="C22:D22"/>
+    <mergeCell ref="E22:J22"/>
   </mergeCells>
-  <phoneticPr fontId="63" type="noConversion"/>
+  <phoneticPr fontId="62" type="noConversion"/>
   <dataValidations count="3">
     <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="说明：" prompt="对整个项目周期中本模块的关键任务或里程碑进行跟踪。" sqref="B4"/>
     <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="对于已完成的关键任务，请将背景标记为淡黄色。" sqref="B5"/>

--- a/文档/项目内文档/个人日报 _梁明明.xlsx
+++ b/文档/项目内文档/个人日报 _梁明明.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="120" yWindow="135" windowWidth="14955" windowHeight="7935" activeTab="11"/>
+    <workbookView xWindow="120" yWindow="135" windowWidth="14955" windowHeight="7935" activeTab="10"/>
   </bookViews>
   <sheets>
     <sheet name="文件封面" sheetId="4" r:id="rId1"/>
@@ -19,8 +19,10 @@
     <sheet name="8-7" sheetId="13" r:id="rId10"/>
     <sheet name="8-8" sheetId="14" r:id="rId11"/>
     <sheet name="8-9" sheetId="15" r:id="rId12"/>
+    <sheet name="8-10" sheetId="17" r:id="rId13"/>
   </sheets>
   <definedNames>
+    <definedName name="父活动类型名" localSheetId="12">#REF!</definedName>
     <definedName name="父活动类型名" localSheetId="4">#REF!</definedName>
     <definedName name="父活动类型名" localSheetId="5">#REF!</definedName>
     <definedName name="父活动类型名" localSheetId="6">#REF!</definedName>
@@ -30,6 +32,7 @@
     <definedName name="父活动类型名" localSheetId="10">#REF!</definedName>
     <definedName name="父活动类型名" localSheetId="11">#REF!</definedName>
     <definedName name="父活动类型名">#REF!</definedName>
+    <definedName name="里程碑" localSheetId="12">#REF!</definedName>
     <definedName name="里程碑" localSheetId="4">#REF!</definedName>
     <definedName name="里程碑" localSheetId="5">#REF!</definedName>
     <definedName name="里程碑" localSheetId="6">#REF!</definedName>
@@ -39,6 +42,7 @@
     <definedName name="里程碑" localSheetId="10">#REF!</definedName>
     <definedName name="里程碑" localSheetId="11">#REF!</definedName>
     <definedName name="里程碑">#REF!</definedName>
+    <definedName name="模块" localSheetId="12">#REF!</definedName>
     <definedName name="模块" localSheetId="4">#REF!</definedName>
     <definedName name="模块" localSheetId="5">#REF!</definedName>
     <definedName name="模块" localSheetId="6">#REF!</definedName>
@@ -48,6 +52,7 @@
     <definedName name="模块" localSheetId="10">#REF!</definedName>
     <definedName name="模块" localSheetId="11">#REF!</definedName>
     <definedName name="模块">#REF!</definedName>
+    <definedName name="子活动类型名" localSheetId="12">#REF!</definedName>
     <definedName name="子活动类型名" localSheetId="4">#REF!</definedName>
     <definedName name="子活动类型名" localSheetId="5">#REF!</definedName>
     <definedName name="子活动类型名" localSheetId="6">#REF!</definedName>
@@ -63,7 +68,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="292" uniqueCount="95">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="320" uniqueCount="99">
   <si>
     <t>姓名：</t>
     <phoneticPr fontId="3" type="noConversion"/>
@@ -612,6 +617,38 @@
   </si>
   <si>
     <t>发布项目</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>项目名称:</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>ppt编写</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>项目发布</t>
+    <phoneticPr fontId="62" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>发布到</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>github</t>
+    </r>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -8850,6 +8887,79 @@
 </xdr:wsDr>
 </file>
 
+<file path=xl/drawings/drawing12.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>542925</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>523875</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Picture 1" descr="b"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="8086725" y="76200"/>
+          <a:ext cx="1828800" cy="447675"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+          <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+            <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="9525">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:miter lim="800000"/>
+              <a:headEnd/>
+              <a:tailEnd/>
+            </a14:hiddenLine>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
 <file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
@@ -16916,7 +17026,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:J27"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
       <selection activeCell="G3" sqref="G3"/>
     </sheetView>
   </sheetViews>
@@ -17326,8 +17436,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:J27"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="G11" sqref="G11:I11"/>
+    <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -17380,7 +17490,7 @@
         <v>10</v>
       </c>
       <c r="E3" s="103">
-        <v>42987</v>
+        <v>42956</v>
       </c>
       <c r="F3" s="6" t="s">
         <v>12</v>
@@ -17726,6 +17836,418 @@
     <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="计划调整时，请保留原来的计划。以类似如下格式修改“2005/1/12-〉1/15”。" sqref="B6"/>
     <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="对于已完成的关键任务，请将背景标记为淡黄色。" sqref="B5"/>
     <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="说明：" prompt="对整个项目周期中本模块的关键任务或里程碑进行跟踪。" sqref="B4"/>
+  </dataValidations>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup paperSize="9" scale="85" orientation="landscape" r:id="rId1"/>
+  <headerFooter alignWithMargins="0"/>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B1:J27"/>
+  <sheetViews>
+    <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="E3" sqref="E3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="1.25" style="1" customWidth="1"/>
+    <col min="2" max="2" width="9.125" style="1" customWidth="1"/>
+    <col min="3" max="3" width="19.625" style="1" customWidth="1"/>
+    <col min="4" max="4" width="6.25" style="1" customWidth="1"/>
+    <col min="5" max="5" width="22.5" style="1" customWidth="1"/>
+    <col min="6" max="6" width="14.375" style="1" customWidth="1"/>
+    <col min="7" max="7" width="25.25" style="1" customWidth="1"/>
+    <col min="8" max="8" width="7.75" style="1" customWidth="1"/>
+    <col min="9" max="9" width="16.875" style="1" customWidth="1"/>
+    <col min="10" max="10" width="12.5" style="1" customWidth="1"/>
+    <col min="11" max="16384" width="9" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="2:10" ht="47.25" customHeight="1">
+      <c r="B1" s="109" t="s">
+        <v>13</v>
+      </c>
+      <c r="C1" s="110"/>
+      <c r="D1" s="110"/>
+      <c r="E1" s="110"/>
+      <c r="F1" s="110"/>
+      <c r="G1" s="110"/>
+      <c r="H1" s="110"/>
+      <c r="I1" s="110"/>
+      <c r="J1" s="110"/>
+    </row>
+    <row r="2" spans="2:10" ht="7.5" customHeight="1">
+      <c r="B2" s="2"/>
+      <c r="C2" s="3"/>
+      <c r="D2" s="3"/>
+      <c r="E2" s="3"/>
+      <c r="F2" s="3"/>
+      <c r="G2" s="3"/>
+      <c r="H2" s="3"/>
+      <c r="I2" s="3"/>
+      <c r="J2" s="3"/>
+    </row>
+    <row r="3" spans="2:10" s="4" customFormat="1" ht="21" customHeight="1" thickBot="1">
+      <c r="B3" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" s="102" t="s">
+        <v>82</v>
+      </c>
+      <c r="D3" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="E3" s="103">
+        <v>42957</v>
+      </c>
+      <c r="F3" s="6" t="s">
+        <v>95</v>
+      </c>
+      <c r="G3" s="104" t="s">
+        <v>84</v>
+      </c>
+      <c r="H3" s="43" t="s">
+        <v>17</v>
+      </c>
+      <c r="I3" s="8"/>
+      <c r="J3" s="7"/>
+    </row>
+    <row r="4" spans="2:10" s="9" customFormat="1" ht="20.100000000000001" customHeight="1">
+      <c r="B4" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="C4" s="11"/>
+      <c r="D4" s="11"/>
+      <c r="E4" s="11"/>
+      <c r="F4" s="11"/>
+      <c r="G4" s="11"/>
+      <c r="H4" s="11"/>
+      <c r="I4" s="11"/>
+      <c r="J4" s="12"/>
+    </row>
+    <row r="5" spans="2:10" s="13" customFormat="1" ht="20.100000000000001" customHeight="1">
+      <c r="B5" s="14" t="s">
+        <v>1</v>
+      </c>
+      <c r="C5" s="151" t="s">
+        <v>77</v>
+      </c>
+      <c r="D5" s="112"/>
+      <c r="E5" s="112"/>
+      <c r="F5" s="112"/>
+      <c r="G5" s="112"/>
+      <c r="H5" s="112"/>
+      <c r="I5" s="112"/>
+      <c r="J5" s="113"/>
+    </row>
+    <row r="6" spans="2:10" s="13" customFormat="1" ht="20.100000000000001" customHeight="1">
+      <c r="B6" s="15" t="s">
+        <v>2</v>
+      </c>
+      <c r="C6" s="114">
+        <v>42957</v>
+      </c>
+      <c r="D6" s="115"/>
+      <c r="E6" s="115"/>
+      <c r="F6" s="115"/>
+      <c r="G6" s="115"/>
+      <c r="H6" s="115"/>
+      <c r="I6" s="115"/>
+      <c r="J6" s="116"/>
+    </row>
+    <row r="7" spans="2:10" s="13" customFormat="1" ht="20.100000000000001" customHeight="1">
+      <c r="B7" s="16" t="s">
+        <v>3</v>
+      </c>
+      <c r="C7" s="120">
+        <v>42957</v>
+      </c>
+      <c r="D7" s="121"/>
+      <c r="E7" s="121"/>
+      <c r="F7" s="121"/>
+      <c r="G7" s="121"/>
+      <c r="H7" s="121"/>
+      <c r="I7" s="121"/>
+      <c r="J7" s="122"/>
+    </row>
+    <row r="8" spans="2:10" s="9" customFormat="1" ht="20.100000000000001" customHeight="1">
+      <c r="B8" s="17" t="s">
+        <v>19</v>
+      </c>
+      <c r="C8" s="18"/>
+      <c r="D8" s="18"/>
+      <c r="E8" s="18"/>
+      <c r="F8" s="18"/>
+      <c r="G8" s="18"/>
+      <c r="H8" s="18"/>
+      <c r="I8" s="18"/>
+      <c r="J8" s="19"/>
+    </row>
+    <row r="9" spans="2:10" s="20" customFormat="1" ht="20.100000000000001" customHeight="1">
+      <c r="B9" s="32" t="s">
+        <v>7</v>
+      </c>
+      <c r="C9" s="117" t="s">
+        <v>4</v>
+      </c>
+      <c r="D9" s="118"/>
+      <c r="E9" s="119"/>
+      <c r="F9" s="41" t="s">
+        <v>11</v>
+      </c>
+      <c r="G9" s="117" t="s">
+        <v>8</v>
+      </c>
+      <c r="H9" s="118"/>
+      <c r="I9" s="119"/>
+      <c r="J9" s="33" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="10" spans="2:10" s="21" customFormat="1" ht="20.100000000000001" customHeight="1">
+      <c r="B10" s="36">
+        <v>1</v>
+      </c>
+      <c r="C10" s="152" t="s">
+        <v>96</v>
+      </c>
+      <c r="D10" s="129"/>
+      <c r="E10" s="129"/>
+      <c r="F10" s="34">
+        <v>5</v>
+      </c>
+      <c r="G10" s="126"/>
+      <c r="H10" s="127"/>
+      <c r="I10" s="128"/>
+      <c r="J10" s="100" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="11" spans="2:10" s="21" customFormat="1" ht="20.100000000000001" customHeight="1">
+      <c r="B11" s="36">
+        <v>2</v>
+      </c>
+      <c r="C11" s="153" t="s">
+        <v>97</v>
+      </c>
+      <c r="D11" s="149"/>
+      <c r="E11" s="150"/>
+      <c r="F11" s="34">
+        <v>3</v>
+      </c>
+      <c r="G11" s="126" t="s">
+        <v>98</v>
+      </c>
+      <c r="H11" s="127"/>
+      <c r="I11" s="128"/>
+      <c r="J11" s="100" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="12" spans="2:10" s="21" customFormat="1" ht="20.100000000000001" customHeight="1">
+      <c r="B12" s="37">
+        <v>3</v>
+      </c>
+      <c r="C12" s="152"/>
+      <c r="D12" s="129"/>
+      <c r="E12" s="129"/>
+      <c r="F12" s="34"/>
+      <c r="G12" s="126"/>
+      <c r="H12" s="127"/>
+      <c r="I12" s="128"/>
+      <c r="J12" s="101"/>
+    </row>
+    <row r="13" spans="2:10" s="21" customFormat="1" ht="20.100000000000001" customHeight="1">
+      <c r="B13" s="36">
+        <v>4</v>
+      </c>
+      <c r="C13" s="129"/>
+      <c r="D13" s="129"/>
+      <c r="E13" s="129"/>
+      <c r="F13" s="34"/>
+      <c r="G13" s="126"/>
+      <c r="H13" s="127"/>
+      <c r="I13" s="128"/>
+      <c r="J13" s="35"/>
+    </row>
+    <row r="14" spans="2:10" s="21" customFormat="1" ht="20.100000000000001" customHeight="1">
+      <c r="B14" s="36">
+        <v>5</v>
+      </c>
+      <c r="C14" s="129"/>
+      <c r="D14" s="129"/>
+      <c r="E14" s="129"/>
+      <c r="F14" s="34"/>
+      <c r="G14" s="126"/>
+      <c r="H14" s="127"/>
+      <c r="I14" s="128"/>
+      <c r="J14" s="35"/>
+    </row>
+    <row r="15" spans="2:10" s="21" customFormat="1" ht="20.100000000000001" customHeight="1">
+      <c r="B15" s="37">
+        <v>6</v>
+      </c>
+      <c r="C15" s="129"/>
+      <c r="D15" s="129"/>
+      <c r="E15" s="129"/>
+      <c r="F15" s="34"/>
+      <c r="G15" s="126"/>
+      <c r="H15" s="127"/>
+      <c r="I15" s="128"/>
+      <c r="J15" s="35"/>
+    </row>
+    <row r="16" spans="2:10" s="21" customFormat="1" ht="20.100000000000001" customHeight="1">
+      <c r="B16" s="36">
+        <v>7</v>
+      </c>
+      <c r="C16" s="129"/>
+      <c r="D16" s="129"/>
+      <c r="E16" s="129"/>
+      <c r="F16" s="34"/>
+      <c r="G16" s="126"/>
+      <c r="H16" s="127"/>
+      <c r="I16" s="128"/>
+      <c r="J16" s="35"/>
+    </row>
+    <row r="17" spans="2:10" s="21" customFormat="1" ht="20.100000000000001" customHeight="1">
+      <c r="B17" s="130" t="s">
+        <v>18</v>
+      </c>
+      <c r="C17" s="131"/>
+      <c r="D17" s="131"/>
+      <c r="E17" s="132"/>
+      <c r="F17" s="44">
+        <f>SUM(F10:F16)</f>
+        <v>8</v>
+      </c>
+      <c r="G17" s="123"/>
+      <c r="H17" s="124"/>
+      <c r="I17" s="125"/>
+      <c r="J17" s="45"/>
+    </row>
+    <row r="18" spans="2:10" s="9" customFormat="1" ht="22.5" customHeight="1">
+      <c r="B18" s="17" t="s">
+        <v>5</v>
+      </c>
+      <c r="C18" s="18"/>
+      <c r="D18" s="18"/>
+      <c r="E18" s="18"/>
+      <c r="F18" s="18"/>
+      <c r="G18" s="18"/>
+      <c r="H18" s="18"/>
+      <c r="I18" s="18"/>
+      <c r="J18" s="19"/>
+    </row>
+    <row r="19" spans="2:10" s="9" customFormat="1" ht="20.100000000000001" customHeight="1">
+      <c r="B19" s="32" t="s">
+        <v>7</v>
+      </c>
+      <c r="C19" s="137" t="s">
+        <v>20</v>
+      </c>
+      <c r="D19" s="137"/>
+      <c r="E19" s="142" t="s">
+        <v>21</v>
+      </c>
+      <c r="F19" s="143"/>
+      <c r="G19" s="143"/>
+      <c r="H19" s="143"/>
+      <c r="I19" s="143"/>
+      <c r="J19" s="144"/>
+    </row>
+    <row r="20" spans="2:10" s="9" customFormat="1" ht="20.100000000000001" customHeight="1">
+      <c r="B20" s="38">
+        <v>1</v>
+      </c>
+      <c r="C20" s="140"/>
+      <c r="D20" s="141"/>
+      <c r="E20" s="145"/>
+      <c r="F20" s="146"/>
+      <c r="G20" s="146"/>
+      <c r="H20" s="146"/>
+      <c r="I20" s="146"/>
+      <c r="J20" s="147"/>
+    </row>
+    <row r="21" spans="2:10" s="9" customFormat="1" ht="20.100000000000001" customHeight="1">
+      <c r="B21" s="39">
+        <v>2</v>
+      </c>
+      <c r="C21" s="140"/>
+      <c r="D21" s="141"/>
+      <c r="E21" s="145"/>
+      <c r="F21" s="146"/>
+      <c r="G21" s="146"/>
+      <c r="H21" s="146"/>
+      <c r="I21" s="146"/>
+      <c r="J21" s="147"/>
+    </row>
+    <row r="22" spans="2:10" s="9" customFormat="1" ht="20.100000000000001" customHeight="1" thickBot="1">
+      <c r="B22" s="40">
+        <v>3</v>
+      </c>
+      <c r="C22" s="138"/>
+      <c r="D22" s="139"/>
+      <c r="E22" s="134"/>
+      <c r="F22" s="135"/>
+      <c r="G22" s="135"/>
+      <c r="H22" s="135"/>
+      <c r="I22" s="135"/>
+      <c r="J22" s="136"/>
+    </row>
+    <row r="24" spans="2:10">
+      <c r="B24" s="42"/>
+    </row>
+    <row r="25" spans="2:10">
+      <c r="B25" s="42"/>
+    </row>
+    <row r="26" spans="2:10">
+      <c r="B26" s="42"/>
+    </row>
+    <row r="27" spans="2:10">
+      <c r="B27" s="42"/>
+    </row>
+  </sheetData>
+  <mergeCells count="30">
+    <mergeCell ref="B1:J1"/>
+    <mergeCell ref="C5:J5"/>
+    <mergeCell ref="C6:J6"/>
+    <mergeCell ref="C7:J7"/>
+    <mergeCell ref="C9:E9"/>
+    <mergeCell ref="G9:I9"/>
+    <mergeCell ref="C10:E10"/>
+    <mergeCell ref="G10:I10"/>
+    <mergeCell ref="C11:E11"/>
+    <mergeCell ref="G11:I11"/>
+    <mergeCell ref="C12:E12"/>
+    <mergeCell ref="G12:I12"/>
+    <mergeCell ref="C13:E13"/>
+    <mergeCell ref="G13:I13"/>
+    <mergeCell ref="C14:E14"/>
+    <mergeCell ref="G14:I14"/>
+    <mergeCell ref="C15:E15"/>
+    <mergeCell ref="G15:I15"/>
+    <mergeCell ref="C16:E16"/>
+    <mergeCell ref="G16:I16"/>
+    <mergeCell ref="B17:E17"/>
+    <mergeCell ref="G17:I17"/>
+    <mergeCell ref="C19:D19"/>
+    <mergeCell ref="E19:J19"/>
+    <mergeCell ref="C20:D20"/>
+    <mergeCell ref="E20:J20"/>
+    <mergeCell ref="C21:D21"/>
+    <mergeCell ref="E21:J21"/>
+    <mergeCell ref="C22:D22"/>
+    <mergeCell ref="E22:J22"/>
+  </mergeCells>
+  <phoneticPr fontId="3" type="noConversion"/>
+  <dataValidations count="3">
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="说明：" prompt="对整个项目周期中本模块的关键任务或里程碑进行跟踪。" sqref="B4"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="对于已完成的关键任务，请将背景标记为淡黄色。" sqref="B5"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="计划调整时，请保留原来的计划。以类似如下格式修改“2005/1/12-〉1/15”。" sqref="B6"/>
   </dataValidations>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" scale="85" orientation="landscape" r:id="rId1"/>
